--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="153">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -537,6 +537,10 @@
   </si>
   <si>
     <t>2020-06-23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-24</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -978,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3454,6 +3458,23 @@
         <v>97</v>
       </c>
     </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B146" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E146" s="5">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="154">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -541,6 +541,10 @@
   </si>
   <si>
     <t>2020-06-24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-25</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -982,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E146"/>
+  <dimension ref="A1:E147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+      <selection activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3475,6 +3479,23 @@
         <v>117</v>
       </c>
     </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E147" s="5">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="159">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -557,6 +557,14 @@
   </si>
   <si>
     <t>2020-06-28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-06-30</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -998,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E150"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3559,6 +3567,40 @@
         <v>55</v>
       </c>
     </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151" s="5">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B152" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E152" s="5">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -565,6 +565,10 @@
   </si>
   <si>
     <t>2020-06-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1006,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3601,6 +3605,23 @@
         <v>96</v>
       </c>
     </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E153" s="5">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="172">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -613,6 +613,10 @@
   </si>
   <si>
     <t>2020-07-12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-13</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1061,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3822,7 +3826,7 @@
       <c r="D162" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="6">
         <v>91</v>
       </c>
     </row>
@@ -3839,7 +3843,7 @@
       <c r="D163" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163" s="6">
         <v>65</v>
       </c>
     </row>
@@ -3856,19 +3860,36 @@
       <c r="D164" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="6">
         <v>45</v>
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="11"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="13"/>
+      <c r="A165" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" s="5">
+        <v>157</v>
+      </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="E166" s="18"/>
+      <c r="A166" s="11"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="13"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="E167" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="173">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -617,6 +617,10 @@
   </si>
   <si>
     <t>2020-07-13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-07-14</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -770,6 +774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,7 +784,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1065,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A165" sqref="A165"/>
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1110,7 +1114,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1127,7 +1131,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1142,7 +1146,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -3882,14 +3886,31 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="11"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="13"/>
+      <c r="A166" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B166" s="3">
+        <v>430005</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E166" s="5">
+        <v>112</v>
+      </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="E167" s="18"/>
+      <c r="A167" s="11"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="13"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="E168" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="207">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -720,6 +720,21 @@
   </si>
   <si>
     <t>2020-08-12</t>
+  </si>
+  <si>
+    <t>2020-08-13</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2020-08-15</t>
+  </si>
+  <si>
+    <t>2020-08-16</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E195"/>
+  <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" topLeftCell="A183" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4487,6 +4502,91 @@
         <v>263</v>
       </c>
     </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E196" s="3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B197" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D197" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E197" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E198" s="3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B199" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E199" s="3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B200" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D200" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E200" s="3">
+        <v>427</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="221">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -771,6 +771,12 @@
   </si>
   <si>
     <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>2020-08-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
   </si>
 </sst>
 </file>
@@ -897,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -918,7 +924,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -927,11 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E213"/>
+  <dimension ref="A1:E214"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A215" sqref="A215"/>
@@ -1263,7 +1263,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1295,7 +1295,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -4834,11 +4834,38 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="16"/>
-      <c r="B213" s="17"/>
-      <c r="C213" s="17"/>
-      <c r="D213" s="18"/>
-      <c r="E213" s="12"/>
+      <c r="A213" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D213" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E213" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B214" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C214" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D214" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E214" s="5">
+        <v>328</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="222">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -778,12 +778,16 @@
   <si>
     <t>2020-08-31</t>
   </si>
+  <si>
+    <t>2020-09-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +808,19 @@
       <name val="ヒラギノ角ゴ pro w3"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -903,7 +920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -932,6 +949,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,7 +1240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E214"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A215" sqref="A215"/>
@@ -4867,6 +4889,23 @@
         <v>328</v>
       </c>
     </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215" s="16">
+        <v>430005</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E215" s="16">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="223">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -780,6 +780,10 @@
   </si>
   <si>
     <t>2020-09-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1240,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4889,7 +4893,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" s="11" customFormat="1">
       <c r="A215" s="15" t="s">
         <v>221</v>
       </c>
@@ -4904,6 +4908,23 @@
       </c>
       <c r="E215" s="16">
         <v>211</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" s="11" customFormat="1">
+      <c r="A216" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B216" s="16">
+        <v>430005</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D216" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E216" s="16">
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="224">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -784,6 +784,10 @@
   </si>
   <si>
     <t>2020-09-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-09-03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -945,6 +949,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,11 +962,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1244,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G216" sqref="G216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1289,7 +1293,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1306,7 +1310,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1321,7 +1325,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -4894,37 +4898,54 @@
       </c>
     </row>
     <row r="215" spans="1:5" s="11" customFormat="1">
-      <c r="A215" s="15" t="s">
+      <c r="A215" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B215" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C215" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D215" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E215" s="16">
+      <c r="B215" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E215" s="13">
         <v>211</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="11" customFormat="1">
-      <c r="A216" s="15" t="s">
+      <c r="A216" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B216" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C216" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D216" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="E216" s="16">
-        <v>164</v>
+      <c r="B216" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E216" s="13">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" s="11" customFormat="1">
+      <c r="A217" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D217" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E217" s="13">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="237">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -829,6 +829,9 @@
   </si>
   <si>
     <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-15</t>
   </si>
 </sst>
 </file>
@@ -1294,11 +1297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I228"/>
+  <dimension ref="A1:I229"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E228" sqref="E228"/>
+      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5187,6 +5190,23 @@
         <v>189</v>
       </c>
     </row>
+    <row r="229" spans="1:6">
+      <c r="A229" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B229" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D229" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E229" s="5">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="238">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -832,6 +832,9 @@
   </si>
   <si>
     <t>2020-09-15</t>
+  </si>
+  <si>
+    <t>2020-09-16</t>
   </si>
 </sst>
 </file>
@@ -1297,11 +1300,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I229"/>
+  <dimension ref="A1:I230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E229" sqref="E229"/>
+      <selection pane="bottomLeft" activeCell="E230" sqref="E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5203,8 +5206,25 @@
       <c r="D229" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E229" s="5">
+      <c r="E229" s="6">
         <v>128</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B230" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D230" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E230" s="6">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="270">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -928,6 +928,15 @@
   </si>
   <si>
     <t>2020-10-15</t>
+  </si>
+  <si>
+    <t>2020-10-16</t>
+  </si>
+  <si>
+    <t>2020-10-17</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
   </si>
 </sst>
 </file>
@@ -1393,11 +1402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I259"/>
+  <dimension ref="A1:I262"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B263" sqref="B263"/>
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E263" sqref="E263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5813,6 +5822,57 @@
         <v>145</v>
       </c>
     </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B260" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D260" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E260" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B261" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E261" s="5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B262" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D262" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E262" s="5">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="272">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -937,6 +937,12 @@
   </si>
   <si>
     <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-20</t>
   </si>
 </sst>
 </file>
@@ -1402,11 +1408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I262"/>
+  <dimension ref="A1:I264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E263" sqref="E263"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C267" sqref="C267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5836,7 +5842,7 @@
         <v>96</v>
       </c>
       <c r="E260" s="5">
-        <v>78</v>
+        <v>128</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5871,6 +5877,40 @@
       </c>
       <c r="E262" s="5">
         <v>121</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D263" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E263" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B264" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C264" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E264" s="5">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="302">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1028,6 +1028,12 @@
   </si>
   <si>
     <t>2020-11-17</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
   </si>
 </sst>
 </file>
@@ -1493,11 +1499,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I293"/>
+  <dimension ref="A1:I294"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A283" sqref="A283:F293"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E295" sqref="E295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6136,7 +6142,7 @@
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:8">
       <c r="A273" s="12" t="s">
         <v>280</v>
       </c>
@@ -6155,7 +6161,7 @@
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:8">
       <c r="A274" s="12" t="s">
         <v>281</v>
       </c>
@@ -6174,7 +6180,7 @@
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:8">
       <c r="A275" s="12" t="s">
         <v>282</v>
       </c>
@@ -6193,7 +6199,7 @@
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:8">
       <c r="A276" s="12" t="s">
         <v>283</v>
       </c>
@@ -6212,7 +6218,7 @@
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:8">
       <c r="A277" s="12" t="s">
         <v>284</v>
       </c>
@@ -6231,7 +6237,7 @@
       <c r="F277" s="11"/>
       <c r="G277" s="11"/>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:8">
       <c r="A278" s="12" t="s">
         <v>285</v>
       </c>
@@ -6250,7 +6256,7 @@
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:8">
       <c r="A279" s="12" t="s">
         <v>286</v>
       </c>
@@ -6269,7 +6275,7 @@
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:8">
       <c r="A280" s="12" t="s">
         <v>287</v>
       </c>
@@ -6288,7 +6294,7 @@
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:8">
       <c r="A281" s="12" t="s">
         <v>288</v>
       </c>
@@ -6307,7 +6313,7 @@
       <c r="F281" s="11"/>
       <c r="G281" s="11"/>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:8">
       <c r="A282" s="12" t="s">
         <v>289</v>
       </c>
@@ -6326,7 +6332,7 @@
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:8">
       <c r="A283" s="12" t="s">
         <v>290</v>
       </c>
@@ -6342,9 +6348,8 @@
       <c r="E283" s="5">
         <v>119</v>
       </c>
-      <c r="F283" s="11"/>
-    </row>
-    <row r="284" spans="1:7">
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284" s="12" t="s">
         <v>291</v>
       </c>
@@ -6360,9 +6365,8 @@
       <c r="E284" s="5">
         <v>121</v>
       </c>
-      <c r="F284" s="11"/>
-    </row>
-    <row r="285" spans="1:7">
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285" s="12" t="s">
         <v>292</v>
       </c>
@@ -6378,9 +6382,8 @@
       <c r="E285" s="5">
         <v>79</v>
       </c>
-      <c r="F285" s="11"/>
-    </row>
-    <row r="286" spans="1:7">
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286" s="12" t="s">
         <v>293</v>
       </c>
@@ -6397,8 +6400,10 @@
         <v>90</v>
       </c>
       <c r="F286" s="11"/>
-    </row>
-    <row r="287" spans="1:7">
+      <c r="G286" s="11"/>
+      <c r="H286" s="11"/>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287" s="12" t="s">
         <v>294</v>
       </c>
@@ -6415,8 +6420,10 @@
         <v>101</v>
       </c>
       <c r="F287" s="11"/>
-    </row>
-    <row r="288" spans="1:7">
+      <c r="G287" s="11"/>
+      <c r="H287" s="11"/>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288" s="12" t="s">
         <v>295</v>
       </c>
@@ -6433,8 +6440,10 @@
         <v>91</v>
       </c>
       <c r="F288" s="11"/>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288" s="11"/>
+      <c r="H288" s="11"/>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289" s="12" t="s">
         <v>296</v>
       </c>
@@ -6451,8 +6460,10 @@
         <v>82</v>
       </c>
       <c r="F289" s="11"/>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289" s="11"/>
+      <c r="H289" s="11"/>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" s="12" t="s">
         <v>297</v>
       </c>
@@ -6469,8 +6480,10 @@
         <v>103</v>
       </c>
       <c r="F290" s="11"/>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290" s="11"/>
+      <c r="H290" s="11"/>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291" s="12" t="s">
         <v>298</v>
       </c>
@@ -6487,8 +6500,10 @@
         <v>161</v>
       </c>
       <c r="F291" s="11"/>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291" s="11"/>
+      <c r="H291" s="11"/>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292" s="12" t="s">
         <v>299</v>
       </c>
@@ -6505,14 +6520,42 @@
         <v>111</v>
       </c>
       <c r="F292" s="11"/>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293" s="11"/>
-      <c r="B293" s="11"/>
-      <c r="C293" s="11"/>
-      <c r="D293" s="11"/>
-      <c r="E293" s="11"/>
-      <c r="F293" s="11"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="11"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C293" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D293" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E293" s="5">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C294" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D294" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E294" s="5">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7215"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="306">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1034,6 +1034,18 @@
   </si>
   <si>
     <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
+  </si>
+  <si>
+    <t>2020-11-21</t>
+  </si>
+  <si>
+    <t>2020-11-22</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
   </si>
 </sst>
 </file>
@@ -1499,11 +1511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I294"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E295" sqref="E295"/>
+      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E290" sqref="A290:E351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6557,6 +6569,445 @@
         <v>117</v>
       </c>
     </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B295" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E295" s="5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="A296" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B296" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C296" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D296" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E296" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B297" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C297" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D297" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E297" s="5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B298" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C298" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D298" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E298" s="5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="11"/>
+      <c r="B299" s="11"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="11"/>
+    </row>
+    <row r="300" spans="1:8">
+      <c r="A300" s="11"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="11"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="A302" s="11"/>
+      <c r="B302" s="11"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="11"/>
+      <c r="B303" s="11"/>
+      <c r="C303" s="11"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="11"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="11"/>
+      <c r="B304" s="11"/>
+      <c r="C304" s="11"/>
+      <c r="D304" s="11"/>
+      <c r="E304" s="11"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="11"/>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
+      <c r="E305" s="11"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="11"/>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
+      <c r="E306" s="11"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="11"/>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
+      <c r="E307" s="11"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="11"/>
+      <c r="B308" s="11"/>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
+      <c r="E308" s="11"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="11"/>
+      <c r="B309" s="11"/>
+      <c r="C309" s="11"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="11"/>
+      <c r="B310" s="11"/>
+      <c r="C310" s="11"/>
+      <c r="D310" s="11"/>
+      <c r="E310" s="11"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="11"/>
+      <c r="B311" s="11"/>
+      <c r="C311" s="11"/>
+      <c r="D311" s="11"/>
+      <c r="E311" s="11"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="11"/>
+      <c r="B312" s="11"/>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11"/>
+      <c r="E312" s="11"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="11"/>
+      <c r="B313" s="11"/>
+      <c r="C313" s="11"/>
+      <c r="D313" s="11"/>
+      <c r="E313" s="11"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="11"/>
+      <c r="B314" s="11"/>
+      <c r="C314" s="11"/>
+      <c r="D314" s="11"/>
+      <c r="E314" s="11"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="11"/>
+      <c r="B315" s="11"/>
+      <c r="C315" s="11"/>
+      <c r="D315" s="11"/>
+      <c r="E315" s="11"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="11"/>
+      <c r="B316" s="11"/>
+      <c r="C316" s="11"/>
+      <c r="D316" s="11"/>
+      <c r="E316" s="11"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="11"/>
+      <c r="B317" s="11"/>
+      <c r="C317" s="11"/>
+      <c r="D317" s="11"/>
+      <c r="E317" s="11"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="11"/>
+      <c r="B318" s="11"/>
+      <c r="C318" s="11"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="11"/>
+      <c r="B319" s="11"/>
+      <c r="C319" s="11"/>
+      <c r="D319" s="11"/>
+      <c r="E319" s="11"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="11"/>
+      <c r="B320" s="11"/>
+      <c r="C320" s="11"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="11"/>
+      <c r="B321" s="11"/>
+      <c r="C321" s="11"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="11"/>
+      <c r="B322" s="11"/>
+      <c r="C322" s="11"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="11"/>
+      <c r="B323" s="11"/>
+      <c r="C323" s="11"/>
+      <c r="D323" s="11"/>
+      <c r="E323" s="11"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="11"/>
+      <c r="B324" s="11"/>
+      <c r="C324" s="11"/>
+      <c r="D324" s="11"/>
+      <c r="E324" s="11"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="11"/>
+      <c r="B325" s="11"/>
+      <c r="C325" s="11"/>
+      <c r="D325" s="11"/>
+      <c r="E325" s="11"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="11"/>
+      <c r="B326" s="11"/>
+      <c r="C326" s="11"/>
+      <c r="D326" s="11"/>
+      <c r="E326" s="11"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="11"/>
+      <c r="B327" s="11"/>
+      <c r="C327" s="11"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="11"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="11"/>
+      <c r="B328" s="11"/>
+      <c r="C328" s="11"/>
+      <c r="D328" s="11"/>
+      <c r="E328" s="11"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="11"/>
+      <c r="B329" s="11"/>
+      <c r="C329" s="11"/>
+      <c r="D329" s="11"/>
+      <c r="E329" s="11"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="11"/>
+      <c r="B330" s="11"/>
+      <c r="C330" s="11"/>
+      <c r="D330" s="11"/>
+      <c r="E330" s="11"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="11"/>
+      <c r="B331" s="11"/>
+      <c r="C331" s="11"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="11"/>
+      <c r="B332" s="11"/>
+      <c r="C332" s="11"/>
+      <c r="D332" s="11"/>
+      <c r="E332" s="11"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="11"/>
+      <c r="B333" s="11"/>
+      <c r="C333" s="11"/>
+      <c r="D333" s="11"/>
+      <c r="E333" s="11"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="11"/>
+      <c r="B334" s="11"/>
+      <c r="C334" s="11"/>
+      <c r="D334" s="11"/>
+      <c r="E334" s="11"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="11"/>
+      <c r="B335" s="11"/>
+      <c r="C335" s="11"/>
+      <c r="D335" s="11"/>
+      <c r="E335" s="11"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="11"/>
+      <c r="B336" s="11"/>
+      <c r="C336" s="11"/>
+      <c r="D336" s="11"/>
+      <c r="E336" s="11"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="11"/>
+      <c r="B337" s="11"/>
+      <c r="C337" s="11"/>
+      <c r="D337" s="11"/>
+      <c r="E337" s="11"/>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="11"/>
+      <c r="B338" s="11"/>
+      <c r="C338" s="11"/>
+      <c r="D338" s="11"/>
+      <c r="E338" s="11"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="11"/>
+      <c r="B339" s="11"/>
+      <c r="C339" s="11"/>
+      <c r="D339" s="11"/>
+      <c r="E339" s="11"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="11"/>
+      <c r="B340" s="11"/>
+      <c r="C340" s="11"/>
+      <c r="D340" s="11"/>
+      <c r="E340" s="11"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="11"/>
+      <c r="B341" s="11"/>
+      <c r="C341" s="11"/>
+      <c r="D341" s="11"/>
+      <c r="E341" s="11"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="11"/>
+      <c r="B342" s="11"/>
+      <c r="C342" s="11"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="11"/>
+      <c r="B343" s="11"/>
+      <c r="C343" s="11"/>
+      <c r="D343" s="11"/>
+      <c r="E343" s="11"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="11"/>
+      <c r="B344" s="11"/>
+      <c r="C344" s="11"/>
+      <c r="D344" s="11"/>
+      <c r="E344" s="11"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="11"/>
+      <c r="B345" s="11"/>
+      <c r="C345" s="11"/>
+      <c r="D345" s="11"/>
+      <c r="E345" s="11"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="11"/>
+      <c r="B346" s="11"/>
+      <c r="C346" s="11"/>
+      <c r="D346" s="11"/>
+      <c r="E346" s="11"/>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="11"/>
+      <c r="B347" s="11"/>
+      <c r="C347" s="11"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="11"/>
+      <c r="B348" s="11"/>
+      <c r="C348" s="11"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="11"/>
+      <c r="B349" s="11"/>
+      <c r="C349" s="11"/>
+      <c r="D349" s="11"/>
+      <c r="E349" s="11"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="11"/>
+      <c r="B350" s="11"/>
+      <c r="C350" s="11"/>
+      <c r="D350" s="11"/>
+      <c r="E350" s="11"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="11"/>
+      <c r="B351" s="11"/>
+      <c r="C351" s="11"/>
+      <c r="D351" s="11"/>
+      <c r="E351" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="312">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1046,6 +1046,24 @@
   </si>
   <si>
     <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-24</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-11-27</t>
+  </si>
+  <si>
+    <t>2020-11-28</t>
+  </si>
+  <si>
+    <t>2020-11-29</t>
   </si>
 </sst>
 </file>
@@ -1511,11 +1529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I308"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E290" sqref="A290:E351"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G308" sqref="A297:G308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6551,6 +6569,7 @@
       <c r="E293" s="5">
         <v>132</v>
       </c>
+      <c r="F293" s="11"/>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="12" t="s">
@@ -6568,6 +6587,7 @@
       <c r="E294" s="5">
         <v>117</v>
       </c>
+      <c r="F294" s="11"/>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="12" t="s">
@@ -6585,6 +6605,7 @@
       <c r="E295" s="5">
         <v>78</v>
       </c>
+      <c r="F295" s="11"/>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="12" t="s">
@@ -6602,6 +6623,7 @@
       <c r="E296" s="5">
         <v>99</v>
       </c>
+      <c r="F296" s="11"/>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="12" t="s">
@@ -6619,6 +6641,8 @@
       <c r="E297" s="5">
         <v>106</v>
       </c>
+      <c r="F297" s="11"/>
+      <c r="G297" s="11"/>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="12" t="s">
@@ -6636,377 +6660,158 @@
       <c r="E298" s="5">
         <v>108</v>
       </c>
+      <c r="F298" s="11"/>
+      <c r="G298" s="11"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="11"/>
-      <c r="B299" s="11"/>
-      <c r="C299" s="11"/>
-      <c r="D299" s="11"/>
-      <c r="E299" s="11"/>
+      <c r="A299" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E299" s="5">
+        <v>104</v>
+      </c>
+      <c r="F299" s="11"/>
+      <c r="G299" s="11"/>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="11"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
-      <c r="D300" s="11"/>
-      <c r="E300" s="11"/>
+      <c r="A300" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B300" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E300" s="5">
+        <v>107</v>
+      </c>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" s="11"/>
-      <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
-      <c r="D301" s="11"/>
-      <c r="E301" s="11"/>
+      <c r="A301" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B301" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E301" s="5">
+        <v>84</v>
+      </c>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
     </row>
     <row r="302" spans="1:8">
-      <c r="A302" s="11"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
-      <c r="E302" s="11"/>
+      <c r="A302" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="B302" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E302" s="5">
+        <v>85</v>
+      </c>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
     </row>
     <row r="303" spans="1:8">
-      <c r="A303" s="11"/>
-      <c r="B303" s="11"/>
-      <c r="C303" s="11"/>
-      <c r="D303" s="11"/>
-      <c r="E303" s="11"/>
+      <c r="A303" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B303" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E303" s="5">
+        <v>111</v>
+      </c>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" s="11"/>
-      <c r="B304" s="11"/>
-      <c r="C304" s="11"/>
-      <c r="D304" s="11"/>
-      <c r="E304" s="11"/>
-    </row>
-    <row r="305" spans="1:5">
+      <c r="A304" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="B304" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E304" s="5">
+        <v>106</v>
+      </c>
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
-    </row>
-    <row r="306" spans="1:5">
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
-    </row>
-    <row r="307" spans="1:5">
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
-    </row>
-    <row r="308" spans="1:5">
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
-    </row>
-    <row r="309" spans="1:5">
-      <c r="A309" s="11"/>
-      <c r="B309" s="11"/>
-      <c r="C309" s="11"/>
-      <c r="D309" s="11"/>
-      <c r="E309" s="11"/>
-    </row>
-    <row r="310" spans="1:5">
-      <c r="A310" s="11"/>
-      <c r="B310" s="11"/>
-      <c r="C310" s="11"/>
-      <c r="D310" s="11"/>
-      <c r="E310" s="11"/>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="11"/>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
-      <c r="D311" s="11"/>
-      <c r="E311" s="11"/>
-    </row>
-    <row r="312" spans="1:5">
-      <c r="A312" s="11"/>
-      <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
-      <c r="E312" s="11"/>
-    </row>
-    <row r="313" spans="1:5">
-      <c r="A313" s="11"/>
-      <c r="B313" s="11"/>
-      <c r="C313" s="11"/>
-      <c r="D313" s="11"/>
-      <c r="E313" s="11"/>
-    </row>
-    <row r="314" spans="1:5">
-      <c r="A314" s="11"/>
-      <c r="B314" s="11"/>
-      <c r="C314" s="11"/>
-      <c r="D314" s="11"/>
-      <c r="E314" s="11"/>
-    </row>
-    <row r="315" spans="1:5">
-      <c r="A315" s="11"/>
-      <c r="B315" s="11"/>
-      <c r="C315" s="11"/>
-      <c r="D315" s="11"/>
-      <c r="E315" s="11"/>
-    </row>
-    <row r="316" spans="1:5">
-      <c r="A316" s="11"/>
-      <c r="B316" s="11"/>
-      <c r="C316" s="11"/>
-      <c r="D316" s="11"/>
-      <c r="E316" s="11"/>
-    </row>
-    <row r="317" spans="1:5">
-      <c r="A317" s="11"/>
-      <c r="B317" s="11"/>
-      <c r="C317" s="11"/>
-      <c r="D317" s="11"/>
-      <c r="E317" s="11"/>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="11"/>
-      <c r="B318" s="11"/>
-      <c r="C318" s="11"/>
-      <c r="D318" s="11"/>
-      <c r="E318" s="11"/>
-    </row>
-    <row r="319" spans="1:5">
-      <c r="A319" s="11"/>
-      <c r="B319" s="11"/>
-      <c r="C319" s="11"/>
-      <c r="D319" s="11"/>
-      <c r="E319" s="11"/>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="11"/>
-      <c r="B320" s="11"/>
-      <c r="C320" s="11"/>
-      <c r="D320" s="11"/>
-      <c r="E320" s="11"/>
-    </row>
-    <row r="321" spans="1:5">
-      <c r="A321" s="11"/>
-      <c r="B321" s="11"/>
-      <c r="C321" s="11"/>
-      <c r="D321" s="11"/>
-      <c r="E321" s="11"/>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="11"/>
-      <c r="B322" s="11"/>
-      <c r="C322" s="11"/>
-      <c r="D322" s="11"/>
-      <c r="E322" s="11"/>
-    </row>
-    <row r="323" spans="1:5">
-      <c r="A323" s="11"/>
-      <c r="B323" s="11"/>
-      <c r="C323" s="11"/>
-      <c r="D323" s="11"/>
-      <c r="E323" s="11"/>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="11"/>
-      <c r="B324" s="11"/>
-      <c r="C324" s="11"/>
-      <c r="D324" s="11"/>
-      <c r="E324" s="11"/>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="11"/>
-      <c r="B325" s="11"/>
-      <c r="C325" s="11"/>
-      <c r="D325" s="11"/>
-      <c r="E325" s="11"/>
-    </row>
-    <row r="326" spans="1:5">
-      <c r="A326" s="11"/>
-      <c r="B326" s="11"/>
-      <c r="C326" s="11"/>
-      <c r="D326" s="11"/>
-      <c r="E326" s="11"/>
-    </row>
-    <row r="327" spans="1:5">
-      <c r="A327" s="11"/>
-      <c r="B327" s="11"/>
-      <c r="C327" s="11"/>
-      <c r="D327" s="11"/>
-      <c r="E327" s="11"/>
-    </row>
-    <row r="328" spans="1:5">
-      <c r="A328" s="11"/>
-      <c r="B328" s="11"/>
-      <c r="C328" s="11"/>
-      <c r="D328" s="11"/>
-      <c r="E328" s="11"/>
-    </row>
-    <row r="329" spans="1:5">
-      <c r="A329" s="11"/>
-      <c r="B329" s="11"/>
-      <c r="C329" s="11"/>
-      <c r="D329" s="11"/>
-      <c r="E329" s="11"/>
-    </row>
-    <row r="330" spans="1:5">
-      <c r="A330" s="11"/>
-      <c r="B330" s="11"/>
-      <c r="C330" s="11"/>
-      <c r="D330" s="11"/>
-      <c r="E330" s="11"/>
-    </row>
-    <row r="331" spans="1:5">
-      <c r="A331" s="11"/>
-      <c r="B331" s="11"/>
-      <c r="C331" s="11"/>
-      <c r="D331" s="11"/>
-      <c r="E331" s="11"/>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="11"/>
-      <c r="B332" s="11"/>
-      <c r="C332" s="11"/>
-      <c r="D332" s="11"/>
-      <c r="E332" s="11"/>
-    </row>
-    <row r="333" spans="1:5">
-      <c r="A333" s="11"/>
-      <c r="B333" s="11"/>
-      <c r="C333" s="11"/>
-      <c r="D333" s="11"/>
-      <c r="E333" s="11"/>
-    </row>
-    <row r="334" spans="1:5">
-      <c r="A334" s="11"/>
-      <c r="B334" s="11"/>
-      <c r="C334" s="11"/>
-      <c r="D334" s="11"/>
-      <c r="E334" s="11"/>
-    </row>
-    <row r="335" spans="1:5">
-      <c r="A335" s="11"/>
-      <c r="B335" s="11"/>
-      <c r="C335" s="11"/>
-      <c r="D335" s="11"/>
-      <c r="E335" s="11"/>
-    </row>
-    <row r="336" spans="1:5">
-      <c r="A336" s="11"/>
-      <c r="B336" s="11"/>
-      <c r="C336" s="11"/>
-      <c r="D336" s="11"/>
-      <c r="E336" s="11"/>
-    </row>
-    <row r="337" spans="1:5">
-      <c r="A337" s="11"/>
-      <c r="B337" s="11"/>
-      <c r="C337" s="11"/>
-      <c r="D337" s="11"/>
-      <c r="E337" s="11"/>
-    </row>
-    <row r="338" spans="1:5">
-      <c r="A338" s="11"/>
-      <c r="B338" s="11"/>
-      <c r="C338" s="11"/>
-      <c r="D338" s="11"/>
-      <c r="E338" s="11"/>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="11"/>
-      <c r="B339" s="11"/>
-      <c r="C339" s="11"/>
-      <c r="D339" s="11"/>
-      <c r="E339" s="11"/>
-    </row>
-    <row r="340" spans="1:5">
-      <c r="A340" s="11"/>
-      <c r="B340" s="11"/>
-      <c r="C340" s="11"/>
-      <c r="D340" s="11"/>
-      <c r="E340" s="11"/>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="11"/>
-      <c r="B341" s="11"/>
-      <c r="C341" s="11"/>
-      <c r="D341" s="11"/>
-      <c r="E341" s="11"/>
-    </row>
-    <row r="342" spans="1:5">
-      <c r="A342" s="11"/>
-      <c r="B342" s="11"/>
-      <c r="C342" s="11"/>
-      <c r="D342" s="11"/>
-      <c r="E342" s="11"/>
-    </row>
-    <row r="343" spans="1:5">
-      <c r="A343" s="11"/>
-      <c r="B343" s="11"/>
-      <c r="C343" s="11"/>
-      <c r="D343" s="11"/>
-      <c r="E343" s="11"/>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="11"/>
-      <c r="B344" s="11"/>
-      <c r="C344" s="11"/>
-      <c r="D344" s="11"/>
-      <c r="E344" s="11"/>
-    </row>
-    <row r="345" spans="1:5">
-      <c r="A345" s="11"/>
-      <c r="B345" s="11"/>
-      <c r="C345" s="11"/>
-      <c r="D345" s="11"/>
-      <c r="E345" s="11"/>
-    </row>
-    <row r="346" spans="1:5">
-      <c r="A346" s="11"/>
-      <c r="B346" s="11"/>
-      <c r="C346" s="11"/>
-      <c r="D346" s="11"/>
-      <c r="E346" s="11"/>
-    </row>
-    <row r="347" spans="1:5">
-      <c r="A347" s="11"/>
-      <c r="B347" s="11"/>
-      <c r="C347" s="11"/>
-      <c r="D347" s="11"/>
-      <c r="E347" s="11"/>
-    </row>
-    <row r="348" spans="1:5">
-      <c r="A348" s="11"/>
-      <c r="B348" s="11"/>
-      <c r="C348" s="11"/>
-      <c r="D348" s="11"/>
-      <c r="E348" s="11"/>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="11"/>
-      <c r="B349" s="11"/>
-      <c r="C349" s="11"/>
-      <c r="D349" s="11"/>
-      <c r="E349" s="11"/>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="11"/>
-      <c r="B350" s="11"/>
-      <c r="C350" s="11"/>
-      <c r="D350" s="11"/>
-      <c r="E350" s="11"/>
-    </row>
-    <row r="351" spans="1:5">
-      <c r="A351" s="11"/>
-      <c r="B351" s="11"/>
-      <c r="C351" s="11"/>
-      <c r="D351" s="11"/>
-      <c r="E351" s="11"/>
+      <c r="F308" s="11"/>
+      <c r="G308" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="361">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1067,6 +1067,152 @@
   </si>
   <si>
     <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2020-12-05</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-08</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
+  </si>
+  <si>
+    <t>2020-12-12</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-17</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-22</t>
+  </si>
+  <si>
+    <t>2020-12-23</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>2020-12-25</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
+    <t>2020-12-27</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2020-12-29</t>
+  </si>
+  <si>
+    <t>2020-12-30</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2021-1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-1-2</t>
+  </si>
+  <si>
+    <t>2021-1-3</t>
+  </si>
+  <si>
+    <t>2021-1-4</t>
+  </si>
+  <si>
+    <t>2021-1-5</t>
+  </si>
+  <si>
+    <t>2021-1-6</t>
+  </si>
+  <si>
+    <t>2021-1-7</t>
+  </si>
+  <si>
+    <t>2021-1-8</t>
+  </si>
+  <si>
+    <t>2021-1-9</t>
+  </si>
+  <si>
+    <t>2021-1-10</t>
+  </si>
+  <si>
+    <t>2021-1-11</t>
+  </si>
+  <si>
+    <t>2021-1-12</t>
+  </si>
+  <si>
+    <t>2021-1-13</t>
+  </si>
+  <si>
+    <t>2021-1-14</t>
+  </si>
+  <si>
+    <t>2021-1-15</t>
+  </si>
+  <si>
+    <t>2021-1-16</t>
+  </si>
+  <si>
+    <t>2021-1-17</t>
   </si>
 </sst>
 </file>
@@ -1532,11 +1678,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A305" sqref="A305"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E348" sqref="E348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6665,124 +6811,1049 @@
       <c r="F298" s="11"/>
     </row>
     <row r="299" spans="1:8">
-      <c r="A299" s="16" t="s">
+      <c r="A299" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B299" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C299" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D299" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E299" s="6">
+      <c r="B299" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C299" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D299" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E299" s="5">
         <v>104</v>
       </c>
       <c r="F299" s="11"/>
     </row>
     <row r="300" spans="1:8">
-      <c r="A300" s="16" t="s">
+      <c r="A300" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B300" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C300" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D300" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E300" s="6">
+      <c r="B300" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C300" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D300" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E300" s="5">
         <v>107</v>
       </c>
     </row>
     <row r="301" spans="1:8">
-      <c r="A301" s="16" t="s">
+      <c r="A301" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="B301" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C301" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D301" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E301" s="6">
+      <c r="B301" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C301" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E301" s="5">
         <v>84</v>
       </c>
     </row>
     <row r="302" spans="1:8">
-      <c r="A302" s="16" t="s">
+      <c r="A302" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B302" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C302" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D302" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E302" s="6">
+      <c r="B302" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C302" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D302" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E302" s="5">
         <v>85</v>
       </c>
     </row>
     <row r="303" spans="1:8">
-      <c r="A303" s="16" t="s">
+      <c r="A303" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B303" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C303" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D303" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E303" s="6">
+      <c r="B303" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C303" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E303" s="5">
         <v>111</v>
       </c>
     </row>
     <row r="304" spans="1:8">
-      <c r="A304" s="16" t="s">
+      <c r="A304" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B304" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C304" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D304" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E304" s="6">
+      <c r="B304" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C304" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D304" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E304" s="5">
         <v>106</v>
       </c>
-    </row>
-    <row r="305" spans="1:5">
-      <c r="A305" s="16" t="s">
+      <c r="F304" s="11"/>
+      <c r="G304" s="11"/>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B305" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C305" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D305" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E305" s="6">
+      <c r="B305" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C305" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D305" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E305" s="5">
         <v>76</v>
       </c>
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="B306" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C306" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D306" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E306" s="5">
+        <v>86</v>
+      </c>
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B307" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C307" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D307" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E307" s="5">
+        <v>106</v>
+      </c>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B308" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C308" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D308" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E308" s="5">
+        <v>70</v>
+      </c>
+      <c r="F308" s="11"/>
+      <c r="G308" s="11"/>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B309" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C309" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D309" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E309" s="5">
+        <v>79</v>
+      </c>
+      <c r="F309" s="11"/>
+      <c r="G309" s="11"/>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B310" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C310" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D310" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E310" s="5">
+        <v>83</v>
+      </c>
+      <c r="F310" s="11"/>
+      <c r="G310" s="11"/>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="B311" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C311" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D311" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E311" s="5">
+        <v>95</v>
+      </c>
+      <c r="F311" s="11"/>
+      <c r="G311" s="11"/>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B312" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D312" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E312" s="5">
+        <v>95</v>
+      </c>
+      <c r="F312" s="11"/>
+      <c r="G312" s="11"/>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B313" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D313" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E313" s="5">
+        <v>113</v>
+      </c>
+      <c r="F313" s="11"/>
+      <c r="G313" s="11"/>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B314" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D314" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E314" s="5">
+        <v>83</v>
+      </c>
+      <c r="F314" s="11"/>
+      <c r="G314" s="11"/>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B315" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D315" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E315" s="5">
+        <v>127</v>
+      </c>
+      <c r="F315" s="11"/>
+      <c r="G315" s="11"/>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="B316" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D316" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E316" s="5">
+        <v>121</v>
+      </c>
+      <c r="F316" s="11"/>
+      <c r="G316" s="11"/>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B317" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D317" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E317" s="5">
+        <v>129</v>
+      </c>
+      <c r="F317" s="11"/>
+      <c r="G317" s="11"/>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B318" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D318" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E318" s="5">
+        <v>166</v>
+      </c>
+      <c r="F318" s="11"/>
+      <c r="G318" s="11"/>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B319" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D319" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E319" s="5">
+        <v>141</v>
+      </c>
+      <c r="F319" s="11"/>
+      <c r="G319" s="11"/>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B320" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D320" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E320" s="5">
+        <v>126</v>
+      </c>
+      <c r="F320" s="11"/>
+      <c r="G320" s="11"/>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B321" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D321" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E321" s="5">
+        <v>113</v>
+      </c>
+      <c r="F321" s="11"/>
+      <c r="G321" s="11"/>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B322" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D322" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E322" s="5">
+        <v>115</v>
+      </c>
+      <c r="F322" s="11"/>
+      <c r="G322" s="11"/>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="B323" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D323" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E323" s="5">
+        <v>110</v>
+      </c>
+      <c r="F323" s="11"/>
+      <c r="G323" s="11"/>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B324" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D324" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E324" s="5">
+        <v>147</v>
+      </c>
+      <c r="F324" s="11"/>
+      <c r="G324" s="11"/>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B325" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D325" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E325" s="5">
+        <v>135</v>
+      </c>
+      <c r="F325" s="11"/>
+      <c r="G325" s="11"/>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B326" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D326" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E326" s="5">
+        <v>143</v>
+      </c>
+      <c r="F326" s="11"/>
+      <c r="G326" s="11"/>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="B327" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D327" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E327" s="5">
+        <v>148</v>
+      </c>
+      <c r="F327" s="11"/>
+      <c r="G327" s="11"/>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B328" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C328" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D328" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E328" s="5">
+        <v>143</v>
+      </c>
+      <c r="F328" s="11"/>
+      <c r="G328" s="11"/>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B329" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C329" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D329" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E329" s="5">
+        <v>151</v>
+      </c>
+      <c r="F329" s="11"/>
+      <c r="G329" s="11"/>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B330" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D330" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E330" s="5">
+        <v>145</v>
+      </c>
+      <c r="F330" s="11"/>
+      <c r="G330" s="11"/>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B331" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C331" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D331" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E331" s="5">
+        <v>180</v>
+      </c>
+      <c r="F331" s="11"/>
+      <c r="G331" s="11"/>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B332" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C332" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D332" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E332" s="5">
+        <v>225</v>
+      </c>
+      <c r="F332" s="11"/>
+      <c r="G332" s="11"/>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B333" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D333" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E333" s="5">
+        <v>176</v>
+      </c>
+      <c r="F333" s="11"/>
+      <c r="G333" s="11"/>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="B334" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D334" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E334" s="5">
+        <v>253</v>
+      </c>
+      <c r="F334" s="11"/>
+      <c r="G334" s="11"/>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B335" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C335" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D335" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E335" s="5">
+        <v>252</v>
+      </c>
+      <c r="F335" s="11"/>
+      <c r="G335" s="11"/>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="B336" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D336" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E336" s="5">
+        <v>201</v>
+      </c>
+      <c r="F336" s="11"/>
+      <c r="G336" s="11"/>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B337" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D337" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E337" s="5">
+        <v>391</v>
+      </c>
+      <c r="F337" s="11"/>
+      <c r="G337" s="11"/>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B338" s="5">
+        <v>430006</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D338" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E338" s="5">
+        <v>399</v>
+      </c>
+      <c r="F338" s="11"/>
+      <c r="G338" s="11"/>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B339" s="5">
+        <v>430007</v>
+      </c>
+      <c r="C339" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D339" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E339" s="5">
+        <v>382</v>
+      </c>
+      <c r="F339" s="11"/>
+      <c r="G339" s="11"/>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B340" s="5">
+        <v>430008</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D340" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E340" s="5">
+        <v>354</v>
+      </c>
+      <c r="F340" s="11"/>
+      <c r="G340" s="11"/>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B341" s="5">
+        <v>430009</v>
+      </c>
+      <c r="C341" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D341" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E341" s="5">
+        <v>440</v>
+      </c>
+      <c r="F341" s="11"/>
+      <c r="G341" s="11"/>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B342" s="5">
+        <v>430010</v>
+      </c>
+      <c r="C342" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D342" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E342" s="5">
+        <v>403</v>
+      </c>
+      <c r="F342" s="11"/>
+      <c r="G342" s="11"/>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="B343" s="5">
+        <v>430011</v>
+      </c>
+      <c r="C343" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D343" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E343" s="5">
+        <v>412</v>
+      </c>
+      <c r="F343" s="11"/>
+      <c r="G343" s="11"/>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B344" s="5">
+        <v>430012</v>
+      </c>
+      <c r="C344" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D344" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E344" s="5">
+        <v>448</v>
+      </c>
+      <c r="F344" s="11"/>
+      <c r="G344" s="11"/>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B345" s="5">
+        <v>430013</v>
+      </c>
+      <c r="C345" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D345" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E345" s="5">
+        <v>499</v>
+      </c>
+      <c r="F345" s="11"/>
+      <c r="G345" s="11"/>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B346" s="5">
+        <v>430014</v>
+      </c>
+      <c r="C346" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D346" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E346" s="5">
+        <v>508</v>
+      </c>
+      <c r="F346" s="11"/>
+      <c r="G346" s="11"/>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B347" s="5">
+        <v>430015</v>
+      </c>
+      <c r="C347" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D347" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E347" s="5">
+        <v>490</v>
+      </c>
+      <c r="F347" s="11"/>
+      <c r="G347" s="11"/>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B348" s="5">
+        <v>430016</v>
+      </c>
+      <c r="C348" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D348" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E348" s="5">
+        <v>393</v>
+      </c>
+      <c r="F348" s="11"/>
+      <c r="G348" s="11"/>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B349" s="5">
+        <v>430017</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D349" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E349" s="5">
+        <v>454</v>
+      </c>
+      <c r="F349" s="11"/>
+      <c r="G349" s="11"/>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B350" s="5">
+        <v>430018</v>
+      </c>
+      <c r="C350" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D350" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E350" s="5">
+        <v>398</v>
+      </c>
+      <c r="F350" s="11"/>
+      <c r="G350" s="11"/>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B351" s="5">
+        <v>430019</v>
+      </c>
+      <c r="C351" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D351" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E351" s="5">
+        <v>294</v>
+      </c>
+      <c r="F351" s="11"/>
+      <c r="G351" s="11"/>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B352" s="5">
+        <v>430020</v>
+      </c>
+      <c r="C352" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D352" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E352" s="5">
+        <v>424</v>
+      </c>
+      <c r="F352" s="11"/>
+      <c r="G352" s="11"/>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B353" s="5">
+        <v>430021</v>
+      </c>
+      <c r="C353" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D353" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E353" s="5">
+        <v>360</v>
+      </c>
+      <c r="F353" s="11"/>
+      <c r="G353" s="11"/>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="11"/>
+      <c r="B354" s="11"/>
+      <c r="C354" s="11"/>
+      <c r="D354" s="11"/>
+      <c r="E354" s="11"/>
+      <c r="F354" s="11"/>
+      <c r="G354" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -10,7 +10,7 @@
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$1:$E$220</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$306:$G$360</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="369">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1163,56 +1163,90 @@
     <t>2020-12-31</t>
   </si>
   <si>
-    <t>2021-1-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021-1-2</t>
-  </si>
-  <si>
-    <t>2021-1-3</t>
-  </si>
-  <si>
-    <t>2021-1-4</t>
-  </si>
-  <si>
-    <t>2021-1-5</t>
-  </si>
-  <si>
-    <t>2021-1-6</t>
-  </si>
-  <si>
-    <t>2021-1-7</t>
-  </si>
-  <si>
-    <t>2021-1-8</t>
-  </si>
-  <si>
-    <t>2021-1-9</t>
-  </si>
-  <si>
-    <t>2021-1-10</t>
-  </si>
-  <si>
-    <t>2021-1-11</t>
-  </si>
-  <si>
-    <t>2021-1-12</t>
-  </si>
-  <si>
-    <t>2021-1-13</t>
-  </si>
-  <si>
-    <t>2021-1-14</t>
-  </si>
-  <si>
-    <t>2021-1-15</t>
-  </si>
-  <si>
-    <t>2021-1-16</t>
-  </si>
-  <si>
-    <t>2021-1-17</t>
+    <t>2021-01-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>2021-01-03</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-05</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-01-07</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
+    <t>2021-01-17</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>※2月12日訂正</t>
+    <rPh sb="2" eb="3">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1352,7 +1386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1393,6 +1427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1678,11 +1713,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I354"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E348" sqref="E348"/>
+      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6914,8 +6952,9 @@
       </c>
       <c r="F304" s="11"/>
       <c r="G304" s="11"/>
-    </row>
-    <row r="305" spans="1:7">
+      <c r="H304" s="11"/>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305" s="12" t="s">
         <v>312</v>
       </c>
@@ -6933,8 +6972,9 @@
       </c>
       <c r="F305" s="11"/>
       <c r="G305" s="11"/>
-    </row>
-    <row r="306" spans="1:7">
+      <c r="H305" s="11"/>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306" s="12" t="s">
         <v>313</v>
       </c>
@@ -6948,12 +6988,15 @@
         <v>96</v>
       </c>
       <c r="E306" s="5">
-        <v>86</v>
-      </c>
-      <c r="F306" s="11"/>
+        <v>108</v>
+      </c>
+      <c r="F306" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G306" s="11"/>
-    </row>
-    <row r="307" spans="1:7">
+      <c r="H306" s="11"/>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307" s="12" t="s">
         <v>314</v>
       </c>
@@ -6967,12 +7010,15 @@
         <v>96</v>
       </c>
       <c r="E307" s="5">
-        <v>106</v>
-      </c>
-      <c r="F307" s="11"/>
+        <v>135</v>
+      </c>
+      <c r="F307" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G307" s="11"/>
-    </row>
-    <row r="308" spans="1:7">
+      <c r="H307" s="11"/>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308" s="12" t="s">
         <v>315</v>
       </c>
@@ -6986,12 +7032,15 @@
         <v>96</v>
       </c>
       <c r="E308" s="5">
-        <v>70</v>
-      </c>
-      <c r="F308" s="11"/>
+        <v>88</v>
+      </c>
+      <c r="F308" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G308" s="11"/>
-    </row>
-    <row r="309" spans="1:7">
+      <c r="H308" s="11"/>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309" s="12" t="s">
         <v>316</v>
       </c>
@@ -7005,12 +7054,15 @@
         <v>96</v>
       </c>
       <c r="E309" s="5">
-        <v>79</v>
-      </c>
-      <c r="F309" s="11"/>
+        <v>106</v>
+      </c>
+      <c r="F309" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G309" s="11"/>
-    </row>
-    <row r="310" spans="1:7">
+      <c r="H309" s="11"/>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310" s="12" t="s">
         <v>317</v>
       </c>
@@ -7024,12 +7076,15 @@
         <v>96</v>
       </c>
       <c r="E310" s="5">
-        <v>83</v>
-      </c>
-      <c r="F310" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="F310" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G310" s="11"/>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310" s="11"/>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" s="12" t="s">
         <v>318</v>
       </c>
@@ -7045,10 +7100,13 @@
       <c r="E311" s="5">
         <v>95</v>
       </c>
-      <c r="F311" s="11"/>
+      <c r="F311" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G311" s="11"/>
-    </row>
-    <row r="312" spans="1:7">
+      <c r="H311" s="11"/>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312" s="12" t="s">
         <v>319</v>
       </c>
@@ -7062,12 +7120,15 @@
         <v>96</v>
       </c>
       <c r="E312" s="5">
-        <v>95</v>
-      </c>
-      <c r="F312" s="11"/>
+        <v>128</v>
+      </c>
+      <c r="F312" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G312" s="11"/>
-    </row>
-    <row r="313" spans="1:7">
+      <c r="H312" s="11"/>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313" s="12" t="s">
         <v>320</v>
       </c>
@@ -7081,12 +7142,15 @@
         <v>96</v>
       </c>
       <c r="E313" s="5">
-        <v>113</v>
-      </c>
-      <c r="F313" s="11"/>
+        <v>136</v>
+      </c>
+      <c r="F313" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G313" s="11"/>
-    </row>
-    <row r="314" spans="1:7">
+      <c r="H313" s="11"/>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314" s="12" t="s">
         <v>321</v>
       </c>
@@ -7100,12 +7164,15 @@
         <v>96</v>
       </c>
       <c r="E314" s="5">
-        <v>83</v>
-      </c>
-      <c r="F314" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="F314" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G314" s="11"/>
-    </row>
-    <row r="315" spans="1:7">
+      <c r="H314" s="11"/>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315" s="12" t="s">
         <v>322</v>
       </c>
@@ -7119,12 +7186,15 @@
         <v>96</v>
       </c>
       <c r="E315" s="5">
-        <v>127</v>
-      </c>
-      <c r="F315" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="F315" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G315" s="11"/>
-    </row>
-    <row r="316" spans="1:7">
+      <c r="H315" s="11"/>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316" s="12" t="s">
         <v>323</v>
       </c>
@@ -7138,12 +7208,15 @@
         <v>96</v>
       </c>
       <c r="E316" s="5">
-        <v>121</v>
-      </c>
-      <c r="F316" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="F316" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G316" s="11"/>
-    </row>
-    <row r="317" spans="1:7">
+      <c r="H316" s="11"/>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317" s="12" t="s">
         <v>324</v>
       </c>
@@ -7159,10 +7232,13 @@
       <c r="E317" s="5">
         <v>129</v>
       </c>
-      <c r="F317" s="11"/>
+      <c r="F317" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G317" s="11"/>
-    </row>
-    <row r="318" spans="1:7">
+      <c r="H317" s="11"/>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318" s="12" t="s">
         <v>325</v>
       </c>
@@ -7176,12 +7252,15 @@
         <v>96</v>
       </c>
       <c r="E318" s="5">
-        <v>166</v>
-      </c>
-      <c r="F318" s="11"/>
+        <v>169</v>
+      </c>
+      <c r="F318" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G318" s="11"/>
-    </row>
-    <row r="319" spans="1:7">
+      <c r="H318" s="11"/>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319" s="12" t="s">
         <v>326</v>
       </c>
@@ -7195,12 +7274,15 @@
         <v>96</v>
       </c>
       <c r="E319" s="5">
-        <v>141</v>
-      </c>
-      <c r="F319" s="11"/>
+        <v>178</v>
+      </c>
+      <c r="F319" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G319" s="11"/>
-    </row>
-    <row r="320" spans="1:7">
+      <c r="H319" s="11"/>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320" s="12" t="s">
         <v>327</v>
       </c>
@@ -7214,12 +7296,15 @@
         <v>96</v>
       </c>
       <c r="E320" s="5">
-        <v>126</v>
-      </c>
-      <c r="F320" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="F320" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G320" s="11"/>
-    </row>
-    <row r="321" spans="1:7">
+      <c r="H320" s="11"/>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321" s="12" t="s">
         <v>328</v>
       </c>
@@ -7233,12 +7318,15 @@
         <v>96</v>
       </c>
       <c r="E321" s="5">
-        <v>113</v>
-      </c>
-      <c r="F321" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="F321" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G321" s="11"/>
-    </row>
-    <row r="322" spans="1:7">
+      <c r="H321" s="11"/>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322" s="12" t="s">
         <v>329</v>
       </c>
@@ -7252,12 +7340,15 @@
         <v>96</v>
       </c>
       <c r="E322" s="5">
-        <v>115</v>
-      </c>
-      <c r="F322" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="F322" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G322" s="11"/>
-    </row>
-    <row r="323" spans="1:7">
+      <c r="H322" s="11"/>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323" s="12" t="s">
         <v>330</v>
       </c>
@@ -7271,12 +7362,15 @@
         <v>96</v>
       </c>
       <c r="E323" s="5">
-        <v>110</v>
-      </c>
-      <c r="F323" s="11"/>
+        <v>131</v>
+      </c>
+      <c r="F323" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G323" s="11"/>
-    </row>
-    <row r="324" spans="1:7">
+      <c r="H323" s="11"/>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324" s="12" t="s">
         <v>331</v>
       </c>
@@ -7290,12 +7384,15 @@
         <v>96</v>
       </c>
       <c r="E324" s="5">
-        <v>147</v>
-      </c>
-      <c r="F324" s="11"/>
+        <v>151</v>
+      </c>
+      <c r="F324" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G324" s="11"/>
-    </row>
-    <row r="325" spans="1:7">
+      <c r="H324" s="11"/>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325" s="12" t="s">
         <v>332</v>
       </c>
@@ -7309,12 +7406,15 @@
         <v>96</v>
       </c>
       <c r="E325" s="5">
-        <v>135</v>
-      </c>
-      <c r="F325" s="11"/>
+        <v>141</v>
+      </c>
+      <c r="F325" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G325" s="11"/>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325" s="11"/>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" s="12" t="s">
         <v>333</v>
       </c>
@@ -7328,12 +7428,15 @@
         <v>96</v>
       </c>
       <c r="E326" s="5">
-        <v>143</v>
-      </c>
-      <c r="F326" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="F326" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G326" s="11"/>
-    </row>
-    <row r="327" spans="1:7">
+      <c r="H326" s="11"/>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327" s="12" t="s">
         <v>334</v>
       </c>
@@ -7347,12 +7450,15 @@
         <v>96</v>
       </c>
       <c r="E327" s="5">
-        <v>148</v>
-      </c>
-      <c r="F327" s="11"/>
+        <v>197</v>
+      </c>
+      <c r="F327" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G327" s="11"/>
-    </row>
-    <row r="328" spans="1:7">
+      <c r="H327" s="11"/>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328" s="12" t="s">
         <v>335</v>
       </c>
@@ -7366,12 +7472,15 @@
         <v>96</v>
       </c>
       <c r="E328" s="5">
-        <v>143</v>
-      </c>
-      <c r="F328" s="11"/>
+        <v>191</v>
+      </c>
+      <c r="F328" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G328" s="11"/>
-    </row>
-    <row r="329" spans="1:7">
+      <c r="H328" s="11"/>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329" s="12" t="s">
         <v>336</v>
       </c>
@@ -7385,12 +7494,15 @@
         <v>96</v>
       </c>
       <c r="E329" s="5">
-        <v>151</v>
-      </c>
-      <c r="F329" s="11"/>
+        <v>207</v>
+      </c>
+      <c r="F329" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G329" s="11"/>
-    </row>
-    <row r="330" spans="1:7">
+      <c r="H329" s="11"/>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330" s="12" t="s">
         <v>337</v>
       </c>
@@ -7404,12 +7516,15 @@
         <v>96</v>
       </c>
       <c r="E330" s="5">
-        <v>145</v>
-      </c>
-      <c r="F330" s="11"/>
+        <v>181</v>
+      </c>
+      <c r="F330" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G330" s="11"/>
-    </row>
-    <row r="331" spans="1:7">
+      <c r="H330" s="11"/>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="12" t="s">
         <v>338</v>
       </c>
@@ -7423,12 +7538,15 @@
         <v>96</v>
       </c>
       <c r="E331" s="5">
-        <v>180</v>
-      </c>
-      <c r="F331" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="F331" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G331" s="11"/>
-    </row>
-    <row r="332" spans="1:7">
+      <c r="H331" s="11"/>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332" s="12" t="s">
         <v>339</v>
       </c>
@@ -7442,12 +7560,15 @@
         <v>96</v>
       </c>
       <c r="E332" s="5">
-        <v>225</v>
-      </c>
-      <c r="F332" s="11"/>
+        <v>230</v>
+      </c>
+      <c r="F332" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G332" s="11"/>
-    </row>
-    <row r="333" spans="1:7">
+      <c r="H332" s="11"/>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333" s="12" t="s">
         <v>340</v>
       </c>
@@ -7461,12 +7582,15 @@
         <v>96</v>
       </c>
       <c r="E333" s="5">
-        <v>176</v>
-      </c>
-      <c r="F333" s="11"/>
+        <v>258</v>
+      </c>
+      <c r="F333" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G333" s="11"/>
-    </row>
-    <row r="334" spans="1:7">
+      <c r="H333" s="11"/>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334" s="12" t="s">
         <v>341</v>
       </c>
@@ -7480,12 +7604,15 @@
         <v>96</v>
       </c>
       <c r="E334" s="5">
-        <v>253</v>
-      </c>
-      <c r="F334" s="11"/>
+        <v>263</v>
+      </c>
+      <c r="F334" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G334" s="11"/>
-    </row>
-    <row r="335" spans="1:7">
+      <c r="H334" s="11"/>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335" s="12" t="s">
         <v>342</v>
       </c>
@@ -7499,12 +7626,15 @@
         <v>96</v>
       </c>
       <c r="E335" s="5">
-        <v>252</v>
-      </c>
-      <c r="F335" s="11"/>
+        <v>259</v>
+      </c>
+      <c r="F335" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G335" s="11"/>
-    </row>
-    <row r="336" spans="1:7">
+      <c r="H335" s="11"/>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336" s="12" t="s">
         <v>343</v>
       </c>
@@ -7518,12 +7648,15 @@
         <v>96</v>
       </c>
       <c r="E336" s="5">
-        <v>201</v>
-      </c>
-      <c r="F336" s="11"/>
+        <v>207</v>
+      </c>
+      <c r="F336" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G336" s="11"/>
-    </row>
-    <row r="337" spans="1:7">
+      <c r="H336" s="11"/>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337" s="12" t="s">
         <v>344</v>
       </c>
@@ -7537,17 +7670,20 @@
         <v>96</v>
       </c>
       <c r="E337" s="5">
-        <v>391</v>
-      </c>
-      <c r="F337" s="11"/>
+        <v>399</v>
+      </c>
+      <c r="F337" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G337" s="11"/>
-    </row>
-    <row r="338" spans="1:7">
+      <c r="H337" s="11"/>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338" s="12" t="s">
         <v>345</v>
       </c>
       <c r="B338" s="5">
-        <v>430006</v>
+        <v>430005</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>95</v>
@@ -7556,17 +7692,20 @@
         <v>96</v>
       </c>
       <c r="E338" s="5">
-        <v>399</v>
-      </c>
-      <c r="F338" s="11"/>
+        <v>409</v>
+      </c>
+      <c r="F338" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G338" s="11"/>
-    </row>
-    <row r="339" spans="1:7">
+      <c r="H338" s="11"/>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339" s="12" t="s">
         <v>346</v>
       </c>
       <c r="B339" s="5">
-        <v>430007</v>
+        <v>430005</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>95</v>
@@ -7575,17 +7714,20 @@
         <v>96</v>
       </c>
       <c r="E339" s="5">
-        <v>382</v>
-      </c>
-      <c r="F339" s="11"/>
+        <v>391</v>
+      </c>
+      <c r="F339" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G339" s="11"/>
-    </row>
-    <row r="340" spans="1:7">
+      <c r="H339" s="11"/>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340" s="12" t="s">
         <v>347</v>
       </c>
       <c r="B340" s="5">
-        <v>430008</v>
+        <v>430005</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>95</v>
@@ -7594,17 +7736,20 @@
         <v>96</v>
       </c>
       <c r="E340" s="5">
-        <v>354</v>
-      </c>
-      <c r="F340" s="11"/>
+        <v>441</v>
+      </c>
+      <c r="F340" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G340" s="11"/>
-    </row>
-    <row r="341" spans="1:7">
+      <c r="H340" s="11"/>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="12" t="s">
         <v>348</v>
       </c>
       <c r="B341" s="5">
-        <v>430009</v>
+        <v>430005</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>95</v>
@@ -7613,17 +7758,20 @@
         <v>96</v>
       </c>
       <c r="E341" s="5">
-        <v>440</v>
-      </c>
-      <c r="F341" s="11"/>
+        <v>522</v>
+      </c>
+      <c r="F341" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G341" s="11"/>
-    </row>
-    <row r="342" spans="1:7">
+      <c r="H341" s="11"/>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342" s="12" t="s">
         <v>349</v>
       </c>
       <c r="B342" s="5">
-        <v>430010</v>
+        <v>430005</v>
       </c>
       <c r="C342" s="5" t="s">
         <v>95</v>
@@ -7632,17 +7780,20 @@
         <v>96</v>
       </c>
       <c r="E342" s="5">
-        <v>403</v>
-      </c>
-      <c r="F342" s="11"/>
+        <v>478</v>
+      </c>
+      <c r="F342" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G342" s="11"/>
-    </row>
-    <row r="343" spans="1:7">
+      <c r="H342" s="11"/>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343" s="12" t="s">
         <v>350</v>
       </c>
       <c r="B343" s="5">
-        <v>430011</v>
+        <v>430005</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>95</v>
@@ -7651,17 +7802,20 @@
         <v>96</v>
       </c>
       <c r="E343" s="5">
-        <v>412</v>
-      </c>
-      <c r="F343" s="11"/>
+        <v>489</v>
+      </c>
+      <c r="F343" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G343" s="11"/>
-    </row>
-    <row r="344" spans="1:7">
+      <c r="H343" s="11"/>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="12" t="s">
         <v>351</v>
       </c>
       <c r="B344" s="5">
-        <v>430012</v>
+        <v>430005</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>95</v>
@@ -7670,17 +7824,20 @@
         <v>96</v>
       </c>
       <c r="E344" s="5">
-        <v>448</v>
-      </c>
-      <c r="F344" s="11"/>
+        <v>507</v>
+      </c>
+      <c r="F344" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G344" s="11"/>
-    </row>
-    <row r="345" spans="1:7">
+      <c r="H344" s="11"/>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345" s="12" t="s">
         <v>352</v>
       </c>
       <c r="B345" s="5">
-        <v>430013</v>
+        <v>430005</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>95</v>
@@ -7689,17 +7846,20 @@
         <v>96</v>
       </c>
       <c r="E345" s="5">
-        <v>499</v>
-      </c>
-      <c r="F345" s="11"/>
+        <v>507</v>
+      </c>
+      <c r="F345" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G345" s="11"/>
-    </row>
-    <row r="346" spans="1:7">
+      <c r="H345" s="11"/>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="12" t="s">
         <v>353</v>
       </c>
       <c r="B346" s="5">
-        <v>430014</v>
+        <v>430005</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>95</v>
@@ -7708,17 +7868,20 @@
         <v>96</v>
       </c>
       <c r="E346" s="5">
-        <v>508</v>
-      </c>
-      <c r="F346" s="11"/>
+        <v>511</v>
+      </c>
+      <c r="F346" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G346" s="11"/>
-    </row>
-    <row r="347" spans="1:7">
+      <c r="H346" s="11"/>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347" s="12" t="s">
         <v>354</v>
       </c>
       <c r="B347" s="5">
-        <v>430015</v>
+        <v>430005</v>
       </c>
       <c r="C347" s="5" t="s">
         <v>95</v>
@@ -7727,17 +7890,20 @@
         <v>96</v>
       </c>
       <c r="E347" s="5">
-        <v>490</v>
-      </c>
-      <c r="F347" s="11"/>
+        <v>496</v>
+      </c>
+      <c r="F347" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G347" s="11"/>
-    </row>
-    <row r="348" spans="1:7">
+      <c r="H347" s="11"/>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348" s="12" t="s">
         <v>355</v>
       </c>
       <c r="B348" s="5">
-        <v>430016</v>
+        <v>430005</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>95</v>
@@ -7746,17 +7912,20 @@
         <v>96</v>
       </c>
       <c r="E348" s="5">
-        <v>393</v>
-      </c>
-      <c r="F348" s="11"/>
+        <v>477</v>
+      </c>
+      <c r="F348" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G348" s="11"/>
-    </row>
-    <row r="349" spans="1:7">
+      <c r="H348" s="11"/>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349" s="12" t="s">
         <v>356</v>
       </c>
       <c r="B349" s="5">
-        <v>430017</v>
+        <v>430005</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>95</v>
@@ -7765,17 +7934,20 @@
         <v>96</v>
       </c>
       <c r="E349" s="5">
-        <v>454</v>
-      </c>
-      <c r="F349" s="11"/>
+        <v>534</v>
+      </c>
+      <c r="F349" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G349" s="11"/>
-    </row>
-    <row r="350" spans="1:7">
+      <c r="H349" s="11"/>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350" s="12" t="s">
         <v>357</v>
       </c>
       <c r="B350" s="5">
-        <v>430018</v>
+        <v>430005</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>95</v>
@@ -7784,17 +7956,20 @@
         <v>96</v>
       </c>
       <c r="E350" s="5">
-        <v>398</v>
-      </c>
-      <c r="F350" s="11"/>
+        <v>474</v>
+      </c>
+      <c r="F350" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G350" s="11"/>
-    </row>
-    <row r="351" spans="1:7">
+      <c r="H350" s="11"/>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351" s="12" t="s">
         <v>358</v>
       </c>
       <c r="B351" s="5">
-        <v>430019</v>
+        <v>430005</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>95</v>
@@ -7803,17 +7978,20 @@
         <v>96</v>
       </c>
       <c r="E351" s="5">
-        <v>294</v>
-      </c>
-      <c r="F351" s="11"/>
+        <v>344</v>
+      </c>
+      <c r="F351" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G351" s="11"/>
-    </row>
-    <row r="352" spans="1:7">
+      <c r="H351" s="11"/>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352" s="12" t="s">
         <v>359</v>
       </c>
       <c r="B352" s="5">
-        <v>430020</v>
+        <v>430005</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>95</v>
@@ -7822,17 +8000,20 @@
         <v>96</v>
       </c>
       <c r="E352" s="5">
-        <v>424</v>
-      </c>
-      <c r="F352" s="11"/>
+        <v>428</v>
+      </c>
+      <c r="F352" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G352" s="11"/>
-    </row>
-    <row r="353" spans="1:7">
+      <c r="H352" s="11"/>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353" s="12" t="s">
         <v>360</v>
       </c>
       <c r="B353" s="5">
-        <v>430021</v>
+        <v>430005</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>95</v>
@@ -7841,19 +8022,173 @@
         <v>96</v>
       </c>
       <c r="E353" s="5">
-        <v>360</v>
-      </c>
-      <c r="F353" s="11"/>
+        <v>363</v>
+      </c>
+      <c r="F353" s="22" t="s">
+        <v>368</v>
+      </c>
       <c r="G353" s="11"/>
-    </row>
-    <row r="354" spans="1:7">
-      <c r="A354" s="11"/>
-      <c r="B354" s="11"/>
-      <c r="C354" s="11"/>
-      <c r="D354" s="11"/>
-      <c r="E354" s="11"/>
+      <c r="H353" s="11"/>
+    </row>
+    <row r="354" spans="1:8">
+      <c r="A354" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="B354" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D354" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E354" s="5">
+        <v>416</v>
+      </c>
       <c r="F354" s="11"/>
       <c r="G354" s="11"/>
+      <c r="H354" s="11"/>
+    </row>
+    <row r="355" spans="1:8">
+      <c r="A355" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B355" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D355" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E355" s="5">
+        <v>408</v>
+      </c>
+      <c r="F355" s="11"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="11"/>
+    </row>
+    <row r="356" spans="1:8">
+      <c r="A356" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B356" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C356" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D356" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E356" s="5">
+        <v>344</v>
+      </c>
+      <c r="F356" s="11"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="11"/>
+    </row>
+    <row r="357" spans="1:8">
+      <c r="A357" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B357" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D357" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E357" s="5">
+        <v>335</v>
+      </c>
+      <c r="F357" s="11"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="11"/>
+    </row>
+    <row r="358" spans="1:8">
+      <c r="A358" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="B358" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D358" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E358" s="5">
+        <v>307</v>
+      </c>
+      <c r="F358" s="11"/>
+      <c r="G358" s="11"/>
+      <c r="H358" s="11"/>
+    </row>
+    <row r="359" spans="1:8">
+      <c r="A359" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B359" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D359" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E359" s="5">
+        <v>301</v>
+      </c>
+      <c r="F359" s="11"/>
+      <c r="G359" s="11"/>
+      <c r="H359" s="11"/>
+    </row>
+    <row r="360" spans="1:8">
+      <c r="A360" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B360" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C360" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D360" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E360" s="5">
+        <v>299</v>
+      </c>
+      <c r="F360" s="11"/>
+      <c r="G360" s="11"/>
+      <c r="H360" s="11"/>
+    </row>
+    <row r="361" spans="1:8">
+      <c r="A361" s="11"/>
+      <c r="B361" s="11"/>
+      <c r="C361" s="11"/>
+      <c r="D361" s="11"/>
+      <c r="E361" s="11"/>
+      <c r="F361" s="11"/>
+      <c r="G361" s="11"/>
+      <c r="H361" s="11"/>
+    </row>
+    <row r="362" spans="1:8">
+      <c r="A362" s="11"/>
+      <c r="B362" s="11"/>
+      <c r="C362" s="11"/>
+      <c r="D362" s="11"/>
+      <c r="E362" s="11"/>
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
+      <c r="H362" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7861,7 +8196,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C帰国者・接触者相談センター相談件数</oddHeader>
   </headerFooter>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="14850" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$306:$G$360</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$337:$F$374</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="383">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1247,6 +1247,50 @@
       <t>テイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1412,12 +1456,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1427,7 +1466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1716,11 +1755,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A294" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D301" sqref="D301"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G385" sqref="A144:G385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1762,7 +1801,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="16" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1779,7 +1818,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1794,7 +1833,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -3904,7 +3943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:7">
       <c r="A129" s="9" t="s">
         <v>135</v>
       </c>
@@ -3921,7 +3960,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:7">
       <c r="A130" s="9" t="s">
         <v>136</v>
       </c>
@@ -3938,7 +3977,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:7">
       <c r="A131" s="9" t="s">
         <v>137</v>
       </c>
@@ -3955,7 +3994,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:7">
       <c r="A132" s="9" t="s">
         <v>138</v>
       </c>
@@ -3972,7 +4011,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:7">
       <c r="A133" s="9" t="s">
         <v>139</v>
       </c>
@@ -3989,7 +4028,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:7">
       <c r="A134" s="9" t="s">
         <v>140</v>
       </c>
@@ -4006,7 +4045,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:7">
       <c r="A135" s="9" t="s">
         <v>141</v>
       </c>
@@ -4023,7 +4062,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:7">
       <c r="A136" s="9" t="s">
         <v>142</v>
       </c>
@@ -4040,7 +4079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:7">
       <c r="A137" s="9" t="s">
         <v>143</v>
       </c>
@@ -4057,7 +4096,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7">
       <c r="A138" s="9" t="s">
         <v>144</v>
       </c>
@@ -4074,7 +4113,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:7">
       <c r="A139" s="9" t="s">
         <v>145</v>
       </c>
@@ -4091,7 +4130,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:7">
       <c r="A140" s="9" t="s">
         <v>146</v>
       </c>
@@ -4108,7 +4147,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:7">
       <c r="A141" s="9" t="s">
         <v>147</v>
       </c>
@@ -4125,7 +4164,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:7">
       <c r="A142" s="9" t="s">
         <v>148</v>
       </c>
@@ -4142,7 +4181,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:7">
       <c r="A143" s="9" t="s">
         <v>149</v>
       </c>
@@ -4159,11 +4198,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:7">
       <c r="A144" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="5">
         <v>430005</v>
       </c>
       <c r="C144" s="5" t="s">
@@ -4175,12 +4214,14 @@
       <c r="E144" s="5">
         <v>80</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="5">
         <v>430005</v>
       </c>
       <c r="C145" s="5" t="s">
@@ -4192,12 +4233,14 @@
       <c r="E145" s="5">
         <v>97</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="5">
         <v>430005</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -4209,12 +4252,14 @@
       <c r="E146" s="5">
         <v>117</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" s="11"/>
+      <c r="G146" s="11"/>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="5">
         <v>430005</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -4226,12 +4271,14 @@
       <c r="E147" s="5">
         <v>104</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="5">
         <v>430005</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -4243,12 +4290,14 @@
       <c r="E148" s="5">
         <v>78</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="5">
         <v>430005</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -4260,12 +4309,14 @@
       <c r="E149" s="5">
         <v>47</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" s="11"/>
+      <c r="G149" s="11"/>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="5">
         <v>430005</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -4277,12 +4328,14 @@
       <c r="E150" s="5">
         <v>55</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="5">
         <v>430005</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -4294,12 +4347,14 @@
       <c r="E151" s="5">
         <v>129</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" s="11"/>
+      <c r="G151" s="11"/>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="5">
         <v>430005</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -4311,12 +4366,14 @@
       <c r="E152" s="5">
         <v>96</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="5">
         <v>430005</v>
       </c>
       <c r="C153" s="5" t="s">
@@ -4328,12 +4385,14 @@
       <c r="E153" s="5">
         <v>92</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="5">
         <v>430005</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -4342,15 +4401,17 @@
       <c r="D154" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" s="11"/>
+      <c r="G154" s="11"/>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="5">
         <v>430005</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -4362,12 +4423,14 @@
       <c r="E155" s="5">
         <v>104</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="5">
         <v>430005</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -4379,12 +4442,14 @@
       <c r="E156" s="5">
         <v>72</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="5">
         <v>430005</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -4396,12 +4461,14 @@
       <c r="E157" s="5">
         <v>73</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" s="11"/>
+      <c r="G157" s="11"/>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="5">
         <v>430005</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -4410,15 +4477,17 @@
       <c r="D158" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="5">
         <v>122</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="5">
         <v>430005</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -4427,15 +4496,17 @@
       <c r="D159" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="5">
         <v>430005</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -4444,15 +4515,17 @@
       <c r="D160" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="5">
         <v>103</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="5">
         <v>430005</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -4461,15 +4534,17 @@
       <c r="D161" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="5">
         <v>98</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="5">
         <v>430005</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -4478,15 +4553,17 @@
       <c r="D162" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="5">
         <v>91</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" s="11"/>
+      <c r="G162" s="11"/>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="5">
         <v>430005</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -4495,15 +4572,17 @@
       <c r="D163" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="5">
         <v>65</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="5">
         <v>430005</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -4512,15 +4591,17 @@
       <c r="D164" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="5">
         <v>45</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" s="11"/>
+      <c r="G164" s="11"/>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="5">
         <v>430005</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -4532,12 +4613,14 @@
       <c r="E165" s="5">
         <v>157</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="5">
         <v>430005</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -4549,12 +4632,14 @@
       <c r="E166" s="5">
         <v>112</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166" s="11"/>
+      <c r="G166" s="11"/>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="5">
         <v>430005</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -4566,12 +4651,14 @@
       <c r="E167" s="5">
         <v>128</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167" s="11"/>
+      <c r="G167" s="11"/>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="5">
         <v>430005</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -4583,8 +4670,10 @@
       <c r="E168" s="5">
         <v>125</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" s="11" customFormat="1">
+      <c r="F168" s="11"/>
+      <c r="G168" s="11"/>
+    </row>
+    <row r="169" spans="1:7" s="11" customFormat="1">
       <c r="A169" s="9" t="s">
         <v>175</v>
       </c>
@@ -4601,7 +4690,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:5" s="11" customFormat="1">
+    <row r="170" spans="1:7" s="11" customFormat="1">
       <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
@@ -4618,7 +4707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:5" s="11" customFormat="1">
+    <row r="171" spans="1:7" s="11" customFormat="1">
       <c r="A171" s="9" t="s">
         <v>177</v>
       </c>
@@ -4635,7 +4724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:5" s="11" customFormat="1">
+    <row r="172" spans="1:7" s="11" customFormat="1">
       <c r="A172" s="9" t="s">
         <v>178</v>
       </c>
@@ -4652,7 +4741,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:5" s="11" customFormat="1">
+    <row r="173" spans="1:7" s="11" customFormat="1">
       <c r="A173" s="9" t="s">
         <v>179</v>
       </c>
@@ -4669,7 +4758,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:7">
       <c r="A174" s="9" t="s">
         <v>180</v>
       </c>
@@ -4682,11 +4771,13 @@
       <c r="D174" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E174" s="5">
         <v>175</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="9" t="s">
         <v>181</v>
       </c>
@@ -4699,11 +4790,13 @@
       <c r="D175" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E175" s="3">
+      <c r="E175" s="5">
         <v>176</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" s="11"/>
+      <c r="G175" s="11"/>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="9" t="s">
         <v>182</v>
       </c>
@@ -4716,11 +4809,13 @@
       <c r="D176" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E176" s="3">
+      <c r="E176" s="5">
         <v>201</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="9" t="s">
         <v>183</v>
       </c>
@@ -4733,11 +4828,13 @@
       <c r="D177" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E177" s="3">
+      <c r="E177" s="5">
         <v>194</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" s="11"/>
+      <c r="G177" s="11"/>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="9" t="s">
         <v>184</v>
       </c>
@@ -4750,11 +4847,13 @@
       <c r="D178" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E178" s="3">
+      <c r="E178" s="5">
         <v>233</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="9" t="s">
         <v>185</v>
       </c>
@@ -4767,11 +4866,13 @@
       <c r="D179" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E179" s="3">
+      <c r="E179" s="5">
         <v>508</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="9" t="s">
         <v>186</v>
       </c>
@@ -4784,11 +4885,13 @@
       <c r="D180" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E180" s="3">
+      <c r="E180" s="5">
         <v>484</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="9" t="s">
         <v>187</v>
       </c>
@@ -4801,11 +4904,13 @@
       <c r="D181" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E181" s="5">
         <v>376</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181" s="11"/>
+      <c r="G181" s="11"/>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="9" t="s">
         <v>188</v>
       </c>
@@ -4818,11 +4923,13 @@
       <c r="D182" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E182" s="5">
         <v>423</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="9" t="s">
         <v>189</v>
       </c>
@@ -4835,11 +4942,13 @@
       <c r="D183" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E183" s="5">
         <v>368</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183" s="11"/>
+      <c r="G183" s="11"/>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="9" t="s">
         <v>190</v>
       </c>
@@ -4852,11 +4961,13 @@
       <c r="D184" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E184" s="5">
         <v>260</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="9" t="s">
         <v>191</v>
       </c>
@@ -4869,11 +4980,13 @@
       <c r="D185" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E185" s="3">
+      <c r="E185" s="5">
         <v>173</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185" s="11"/>
+      <c r="G185" s="11"/>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="9" t="s">
         <v>192</v>
       </c>
@@ -4886,11 +4999,13 @@
       <c r="D186" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E186" s="5">
         <v>141</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="9" t="s">
         <v>193</v>
       </c>
@@ -4903,11 +5018,13 @@
       <c r="D187" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E187" s="3">
+      <c r="E187" s="5">
         <v>384</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="9" t="s">
         <v>194</v>
       </c>
@@ -4920,11 +5037,13 @@
       <c r="D188" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E188" s="5">
         <v>459</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" s="11"/>
+      <c r="G188" s="11"/>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="9" t="s">
         <v>195</v>
       </c>
@@ -4937,11 +5056,13 @@
       <c r="D189" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E189" s="5">
         <v>428</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="9" t="s">
         <v>196</v>
       </c>
@@ -4954,11 +5075,13 @@
       <c r="D190" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E190" s="3">
+      <c r="E190" s="5">
         <v>350</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" s="11"/>
+      <c r="G190" s="11"/>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="9" t="s">
         <v>197</v>
       </c>
@@ -4971,11 +5094,13 @@
       <c r="D191" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E191" s="3">
+      <c r="E191" s="5">
         <v>268</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="9" t="s">
         <v>198</v>
       </c>
@@ -4988,11 +5113,13 @@
       <c r="D192" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E192" s="3">
+      <c r="E192" s="5">
         <v>211</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192" s="11"/>
+      <c r="G192" s="11"/>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="9" t="s">
         <v>199</v>
       </c>
@@ -5005,11 +5132,13 @@
       <c r="D193" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E193" s="3">
+      <c r="E193" s="5">
         <v>292</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="9" t="s">
         <v>200</v>
       </c>
@@ -5022,11 +5151,13 @@
       <c r="D194" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E194" s="5">
         <v>284</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" s="11"/>
+      <c r="G194" s="11"/>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="9" t="s">
         <v>201</v>
       </c>
@@ -5039,11 +5170,13 @@
       <c r="D195" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E195" s="3">
+      <c r="E195" s="5">
         <v>263</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195" s="11"/>
+      <c r="G195" s="11"/>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="9" t="s">
         <v>202</v>
       </c>
@@ -5056,11 +5189,13 @@
       <c r="D196" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E196" s="3">
+      <c r="E196" s="5">
         <v>298</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="9" t="s">
         <v>203</v>
       </c>
@@ -5073,11 +5208,13 @@
       <c r="D197" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E197" s="3">
+      <c r="E197" s="5">
         <v>347</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" s="11"/>
+      <c r="G197" s="11"/>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="9" t="s">
         <v>204</v>
       </c>
@@ -5090,11 +5227,13 @@
       <c r="D198" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E198" s="3">
+      <c r="E198" s="5">
         <v>254</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" s="11"/>
+      <c r="G198" s="11"/>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="9" t="s">
         <v>205</v>
       </c>
@@ -5107,11 +5246,13 @@
       <c r="D199" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E199" s="3">
+      <c r="E199" s="5">
         <v>267</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" s="11"/>
+      <c r="G199" s="11"/>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="9" t="s">
         <v>206</v>
       </c>
@@ -5124,11 +5265,13 @@
       <c r="D200" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E200" s="3">
+      <c r="E200" s="5">
         <v>427</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200" s="11"/>
+      <c r="G200" s="11"/>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="9" t="s">
         <v>207</v>
       </c>
@@ -5141,11 +5284,13 @@
       <c r="D201" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E201" s="3">
+      <c r="E201" s="5">
         <v>306</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="9" t="s">
         <v>208</v>
       </c>
@@ -5158,11 +5303,13 @@
       <c r="D202" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E202" s="3">
+      <c r="E202" s="5">
         <v>277</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="9" t="s">
         <v>209</v>
       </c>
@@ -5175,11 +5322,13 @@
       <c r="D203" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E203" s="3">
+      <c r="E203" s="5">
         <v>283</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203" s="11"/>
+      <c r="G203" s="11"/>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="9" t="s">
         <v>210</v>
       </c>
@@ -5192,11 +5341,13 @@
       <c r="D204" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E204" s="3">
+      <c r="E204" s="5">
         <v>254</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" s="11"/>
+      <c r="G204" s="11"/>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="9" t="s">
         <v>211</v>
       </c>
@@ -5209,11 +5360,13 @@
       <c r="D205" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E205" s="3">
+      <c r="E205" s="5">
         <v>245</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="9" t="s">
         <v>212</v>
       </c>
@@ -5226,11 +5379,13 @@
       <c r="D206" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E206" s="3">
+      <c r="E206" s="5">
         <v>154</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="9" t="s">
         <v>213</v>
       </c>
@@ -5246,8 +5401,10 @@
       <c r="E207" s="5">
         <v>285</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207" s="11"/>
+      <c r="G207" s="11"/>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="9" t="s">
         <v>214</v>
       </c>
@@ -5263,6 +5420,8 @@
       <c r="E208" s="5">
         <v>253</v>
       </c>
+      <c r="F208" s="11"/>
+      <c r="G208" s="11"/>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="9" t="s">
@@ -5280,6 +5439,8 @@
       <c r="E209" s="5">
         <v>235</v>
       </c>
+      <c r="F209" s="11"/>
+      <c r="G209" s="11"/>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="9" t="s">
@@ -5297,6 +5458,8 @@
       <c r="E210" s="5">
         <v>251</v>
       </c>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="9" t="s">
@@ -5314,6 +5477,8 @@
       <c r="E211" s="5">
         <v>235</v>
       </c>
+      <c r="F211" s="11"/>
+      <c r="G211" s="11"/>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="9" t="s">
@@ -5331,6 +5496,8 @@
       <c r="E212" s="5">
         <v>170</v>
       </c>
+      <c r="F212" s="11"/>
+      <c r="G212" s="11"/>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="9" t="s">
@@ -5348,6 +5515,8 @@
       <c r="E213" s="5">
         <v>135</v>
       </c>
+      <c r="F213" s="11"/>
+      <c r="G213" s="11"/>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="9" t="s">
@@ -5365,6 +5534,8 @@
       <c r="E214" s="5">
         <v>328</v>
       </c>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
     </row>
     <row r="215" spans="1:9" s="11" customFormat="1">
       <c r="A215" s="12" t="s">
@@ -5433,6 +5604,8 @@
       <c r="E218" s="13">
         <v>124</v>
       </c>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="12" t="s">
@@ -5450,6 +5623,8 @@
       <c r="E219" s="13">
         <v>95</v>
       </c>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="12" t="s">
@@ -5467,6 +5642,8 @@
       <c r="E220" s="13">
         <v>96</v>
       </c>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="12" t="s">
@@ -5481,26 +5658,30 @@
       <c r="D221" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E221" s="3">
+      <c r="E221" s="5">
         <v>151</v>
       </c>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="16" t="s">
+      <c r="A222" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B222" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C222" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D222" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E222" s="6">
+      <c r="B222" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D222" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E222" s="5">
         <v>130</v>
       </c>
+      <c r="F222" s="11"/>
+      <c r="G222" s="11"/>
       <c r="I222" t="s">
         <v>231</v>
       </c>
@@ -5521,7 +5702,8 @@
       <c r="E223" s="5">
         <v>215</v>
       </c>
-      <c r="F223" s="15"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="11"/>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="12" t="s">
@@ -5539,8 +5721,10 @@
       <c r="E224" s="5">
         <v>125</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="F224" s="11"/>
+      <c r="G224" s="11"/>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="12" t="s">
         <v>232</v>
       </c>
@@ -5556,8 +5740,10 @@
       <c r="E225" s="5">
         <v>155</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="F225" s="11"/>
+      <c r="G225" s="11"/>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="12" t="s">
         <v>233</v>
       </c>
@@ -5573,8 +5759,10 @@
       <c r="E226" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="F226" s="11"/>
+      <c r="G226" s="11"/>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="12" t="s">
         <v>234</v>
       </c>
@@ -5590,9 +5778,10 @@
       <c r="E227" s="5">
         <v>136</v>
       </c>
-      <c r="F227" s="15"/>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="F227" s="19"/>
+      <c r="G227" s="11"/>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="12" t="s">
         <v>235</v>
       </c>
@@ -5608,8 +5797,10 @@
       <c r="E228" s="5">
         <v>189</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="12" t="s">
         <v>236</v>
       </c>
@@ -5622,11 +5813,13 @@
       <c r="D229" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E229" s="6">
+      <c r="E229" s="5">
         <v>128</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" s="11" customFormat="1">
+      <c r="F229" s="11"/>
+      <c r="G229" s="11"/>
+    </row>
+    <row r="230" spans="1:7" s="11" customFormat="1">
       <c r="A230" s="12" t="s">
         <v>237</v>
       </c>
@@ -5643,7 +5836,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:7">
       <c r="A231" s="12" t="s">
         <v>238</v>
       </c>
@@ -5659,161 +5852,181 @@
       <c r="E231" s="5">
         <v>115</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
-      <c r="A232" s="16" t="s">
+      <c r="F231" s="11"/>
+      <c r="G231" s="11"/>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B232" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C232" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D232" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E232" s="6">
+      <c r="B232" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D232" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E232" s="5">
         <v>116</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
-      <c r="A233" s="16" t="s">
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B233" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C233" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D233" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E233" s="6">
+      <c r="B233" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D233" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E233" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
-      <c r="A234" s="16" t="s">
+      <c r="F233" s="11"/>
+      <c r="G233" s="11"/>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B234" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C234" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D234" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E234" s="6">
+      <c r="B234" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D234" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E234" s="5">
         <v>93</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
-      <c r="A235" s="16" t="s">
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C235" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D235" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E235" s="6">
+      <c r="B235" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D235" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E235" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
-      <c r="A236" s="16" t="s">
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B236" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C236" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D236" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E236" s="6">
+      <c r="B236" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E236" s="5">
         <v>129</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237" s="16" t="s">
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B237" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C237" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D237" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E237" s="6">
+      <c r="B237" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D237" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E237" s="5">
         <v>171</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238" s="16" t="s">
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B238" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C238" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D238" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E238" s="6">
+      <c r="B238" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E238" s="5">
         <v>114</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239" s="16" t="s">
+      <c r="F238" s="11"/>
+      <c r="G238" s="11"/>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B239" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C239" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D239" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E239" s="6">
+      <c r="B239" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D239" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E239" s="5">
         <v>89</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240" s="16" t="s">
+      <c r="F239" s="11"/>
+      <c r="G239" s="11"/>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B240" s="17">
-        <v>430005</v>
-      </c>
-      <c r="C240" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D240" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E240" s="6">
+      <c r="B240" s="13">
+        <v>430005</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D240" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E240" s="5">
         <v>101</v>
       </c>
-    </row>
-    <row r="241" spans="1:5">
+      <c r="F240" s="11"/>
+      <c r="G240" s="11"/>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="12" t="s">
         <v>248</v>
       </c>
@@ -5829,8 +6042,10 @@
       <c r="E241" s="5">
         <v>77</v>
       </c>
-    </row>
-    <row r="242" spans="1:5">
+      <c r="F241" s="11"/>
+      <c r="G241" s="11"/>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="12" t="s">
         <v>249</v>
       </c>
@@ -5846,8 +6061,10 @@
       <c r="E242" s="5">
         <v>122</v>
       </c>
-    </row>
-    <row r="243" spans="1:5">
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="12" t="s">
         <v>250</v>
       </c>
@@ -5863,93 +6080,105 @@
       <c r="E243" s="5">
         <v>119</v>
       </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="16" t="s">
+      <c r="F243" s="11"/>
+      <c r="G243" s="11"/>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B244" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D244" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E244" s="6">
+      <c r="B244" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E244" s="5">
         <v>140</v>
       </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="16" t="s">
+      <c r="F244" s="11"/>
+      <c r="G244" s="11"/>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B245" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D245" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E245" s="6">
+      <c r="B245" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C245" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E245" s="5">
         <v>105</v>
       </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="16" t="s">
+      <c r="F245" s="11"/>
+      <c r="G245" s="11"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B246" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E246" s="6">
+      <c r="B246" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C246" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E246" s="5">
         <v>115</v>
       </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="16" t="s">
+      <c r="F246" s="11"/>
+      <c r="G246" s="11"/>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B247" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E247" s="6">
+      <c r="B247" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E247" s="5">
         <v>108</v>
       </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="16" t="s">
+      <c r="F247" s="11"/>
+      <c r="G247" s="11"/>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B248" s="6">
-        <v>430005</v>
-      </c>
-      <c r="C248" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E248" s="6">
+      <c r="B248" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E248" s="5">
         <v>138</v>
       </c>
-    </row>
-    <row r="249" spans="1:5">
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="12" t="s">
         <v>256</v>
       </c>
@@ -5965,8 +6194,10 @@
       <c r="E249" s="5">
         <v>217</v>
       </c>
-    </row>
-    <row r="250" spans="1:5">
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="12" t="s">
         <v>257</v>
       </c>
@@ -5982,8 +6213,10 @@
       <c r="E250" s="5">
         <v>167</v>
       </c>
-    </row>
-    <row r="251" spans="1:5">
+      <c r="F250" s="11"/>
+      <c r="G250" s="11"/>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="12" t="s">
         <v>258</v>
       </c>
@@ -5999,8 +6232,10 @@
       <c r="E251" s="5">
         <v>158</v>
       </c>
-    </row>
-    <row r="252" spans="1:5">
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="12" t="s">
         <v>259</v>
       </c>
@@ -6016,8 +6251,10 @@
       <c r="E252" s="5">
         <v>174</v>
       </c>
-    </row>
-    <row r="253" spans="1:5">
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="12" t="s">
         <v>260</v>
       </c>
@@ -6030,11 +6267,13 @@
       <c r="D253" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E253" s="3">
+      <c r="E253" s="5">
         <v>159</v>
       </c>
-    </row>
-    <row r="254" spans="1:5">
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="12" t="s">
         <v>261</v>
       </c>
@@ -6047,11 +6286,13 @@
       <c r="D254" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E254" s="3">
+      <c r="E254" s="5">
         <v>126</v>
       </c>
-    </row>
-    <row r="255" spans="1:5">
+      <c r="F254" s="11"/>
+      <c r="G254" s="11"/>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="12" t="s">
         <v>262</v>
       </c>
@@ -6064,11 +6305,13 @@
       <c r="D255" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E255" s="3">
+      <c r="E255" s="5">
         <v>107</v>
       </c>
-    </row>
-    <row r="256" spans="1:5">
+      <c r="F255" s="11"/>
+      <c r="G255" s="11"/>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="12" t="s">
         <v>263</v>
       </c>
@@ -6084,6 +6327,8 @@
       <c r="E256" s="5">
         <v>175</v>
       </c>
+      <c r="F256" s="11"/>
+      <c r="G256" s="11"/>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="12" t="s">
@@ -6101,6 +6346,8 @@
       <c r="E257" s="5">
         <v>149</v>
       </c>
+      <c r="F257" s="11"/>
+      <c r="G257" s="11"/>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="12" t="s">
@@ -6118,6 +6365,8 @@
       <c r="E258" s="5">
         <v>140</v>
       </c>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="12" t="s">
@@ -6135,6 +6384,8 @@
       <c r="E259" s="5">
         <v>145</v>
       </c>
+      <c r="F259" s="11"/>
+      <c r="G259" s="11"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="12" t="s">
@@ -6152,6 +6403,8 @@
       <c r="E260" s="5">
         <v>128</v>
       </c>
+      <c r="F260" s="11"/>
+      <c r="G260" s="11"/>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="12" t="s">
@@ -6169,6 +6422,8 @@
       <c r="E261" s="5">
         <v>80</v>
       </c>
+      <c r="F261" s="11"/>
+      <c r="G261" s="11"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="12" t="s">
@@ -6186,6 +6441,8 @@
       <c r="E262" s="5">
         <v>121</v>
       </c>
+      <c r="F262" s="11"/>
+      <c r="G262" s="11"/>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="12" t="s">
@@ -6203,6 +6460,8 @@
       <c r="E263" s="5">
         <v>163</v>
       </c>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="12" t="s">
@@ -6220,6 +6479,8 @@
       <c r="E264" s="5">
         <v>106</v>
       </c>
+      <c r="F264" s="11"/>
+      <c r="G264" s="11"/>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="12" t="s">
@@ -6237,6 +6498,8 @@
       <c r="E265" s="5">
         <v>118</v>
       </c>
+      <c r="F265" s="11"/>
+      <c r="G265" s="11"/>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="12" t="s">
@@ -6254,6 +6517,8 @@
       <c r="E266" s="5">
         <v>118</v>
       </c>
+      <c r="F266" s="11"/>
+      <c r="G266" s="11"/>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="12" t="s">
@@ -6271,6 +6536,8 @@
       <c r="E267" s="5">
         <v>91</v>
       </c>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="12" t="s">
@@ -6288,6 +6555,8 @@
       <c r="E268" s="5">
         <v>73</v>
       </c>
+      <c r="F268" s="11"/>
+      <c r="G268" s="11"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="12" t="s">
@@ -6305,6 +6574,8 @@
       <c r="E269" s="5">
         <v>62</v>
       </c>
+      <c r="F269" s="11"/>
+      <c r="G269" s="11"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="12" t="s">
@@ -6322,6 +6593,8 @@
       <c r="E270" s="5">
         <v>134</v>
       </c>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="12" t="s">
@@ -6339,6 +6612,8 @@
       <c r="E271" s="5">
         <v>112</v>
       </c>
+      <c r="F271" s="11"/>
+      <c r="G271" s="11"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="12" t="s">
@@ -6565,6 +6840,8 @@
       <c r="E283" s="5">
         <v>119</v>
       </c>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="12" t="s">
@@ -6582,6 +6859,8 @@
       <c r="E284" s="5">
         <v>121</v>
       </c>
+      <c r="F284" s="11"/>
+      <c r="G284" s="11"/>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="12" t="s">
@@ -6599,6 +6878,8 @@
       <c r="E285" s="5">
         <v>79</v>
       </c>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="12" t="s">
@@ -6757,6 +7038,7 @@
         <v>132</v>
       </c>
       <c r="F293" s="11"/>
+      <c r="G293" s="11"/>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="12" t="s">
@@ -6775,6 +7057,7 @@
         <v>117</v>
       </c>
       <c r="F294" s="11"/>
+      <c r="G294" s="11"/>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="12" t="s">
@@ -6793,6 +7076,7 @@
         <v>78</v>
       </c>
       <c r="F295" s="11"/>
+      <c r="G295" s="11"/>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="12" t="s">
@@ -6811,6 +7095,7 @@
         <v>99</v>
       </c>
       <c r="F296" s="11"/>
+      <c r="G296" s="11"/>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="12" t="s">
@@ -6829,6 +7114,7 @@
         <v>106</v>
       </c>
       <c r="F297" s="11"/>
+      <c r="G297" s="11"/>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="12" t="s">
@@ -6847,6 +7133,7 @@
         <v>108</v>
       </c>
       <c r="F298" s="11"/>
+      <c r="G298" s="11"/>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="12" t="s">
@@ -6865,6 +7152,7 @@
         <v>104</v>
       </c>
       <c r="F299" s="11"/>
+      <c r="G299" s="11"/>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="12" t="s">
@@ -6882,6 +7170,8 @@
       <c r="E300" s="5">
         <v>107</v>
       </c>
+      <c r="F300" s="11"/>
+      <c r="G300" s="11"/>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="12" t="s">
@@ -6899,6 +7189,8 @@
       <c r="E301" s="5">
         <v>84</v>
       </c>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="12" t="s">
@@ -6916,6 +7208,8 @@
       <c r="E302" s="5">
         <v>85</v>
       </c>
+      <c r="F302" s="11"/>
+      <c r="G302" s="11"/>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="12" t="s">
@@ -6933,6 +7227,8 @@
       <c r="E303" s="5">
         <v>111</v>
       </c>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="12" t="s">
@@ -6990,7 +7286,7 @@
       <c r="E306" s="5">
         <v>108</v>
       </c>
-      <c r="F306" s="22" t="s">
+      <c r="F306" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G306" s="11"/>
@@ -7012,7 +7308,7 @@
       <c r="E307" s="5">
         <v>135</v>
       </c>
-      <c r="F307" s="22" t="s">
+      <c r="F307" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G307" s="11"/>
@@ -7034,7 +7330,7 @@
       <c r="E308" s="5">
         <v>88</v>
       </c>
-      <c r="F308" s="22" t="s">
+      <c r="F308" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G308" s="11"/>
@@ -7056,7 +7352,7 @@
       <c r="E309" s="5">
         <v>106</v>
       </c>
-      <c r="F309" s="22" t="s">
+      <c r="F309" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G309" s="11"/>
@@ -7078,7 +7374,7 @@
       <c r="E310" s="5">
         <v>84</v>
       </c>
-      <c r="F310" s="22" t="s">
+      <c r="F310" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G310" s="11"/>
@@ -7100,7 +7396,7 @@
       <c r="E311" s="5">
         <v>95</v>
       </c>
-      <c r="F311" s="22" t="s">
+      <c r="F311" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G311" s="11"/>
@@ -7122,7 +7418,7 @@
       <c r="E312" s="5">
         <v>128</v>
       </c>
-      <c r="F312" s="22" t="s">
+      <c r="F312" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G312" s="11"/>
@@ -7144,7 +7440,7 @@
       <c r="E313" s="5">
         <v>136</v>
       </c>
-      <c r="F313" s="22" t="s">
+      <c r="F313" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G313" s="11"/>
@@ -7166,7 +7462,7 @@
       <c r="E314" s="5">
         <v>116</v>
       </c>
-      <c r="F314" s="22" t="s">
+      <c r="F314" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G314" s="11"/>
@@ -7188,7 +7484,7 @@
       <c r="E315" s="5">
         <v>159</v>
       </c>
-      <c r="F315" s="22" t="s">
+      <c r="F315" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G315" s="11"/>
@@ -7210,7 +7506,7 @@
       <c r="E316" s="5">
         <v>152</v>
       </c>
-      <c r="F316" s="22" t="s">
+      <c r="F316" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G316" s="11"/>
@@ -7232,7 +7528,7 @@
       <c r="E317" s="5">
         <v>129</v>
       </c>
-      <c r="F317" s="22" t="s">
+      <c r="F317" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G317" s="11"/>
@@ -7254,7 +7550,7 @@
       <c r="E318" s="5">
         <v>169</v>
       </c>
-      <c r="F318" s="22" t="s">
+      <c r="F318" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G318" s="11"/>
@@ -7276,7 +7572,7 @@
       <c r="E319" s="5">
         <v>178</v>
       </c>
-      <c r="F319" s="22" t="s">
+      <c r="F319" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G319" s="11"/>
@@ -7298,7 +7594,7 @@
       <c r="E320" s="5">
         <v>155</v>
       </c>
-      <c r="F320" s="22" t="s">
+      <c r="F320" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G320" s="11"/>
@@ -7320,7 +7616,7 @@
       <c r="E321" s="5">
         <v>161</v>
       </c>
-      <c r="F321" s="22" t="s">
+      <c r="F321" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G321" s="11"/>
@@ -7342,7 +7638,7 @@
       <c r="E322" s="5">
         <v>161</v>
       </c>
-      <c r="F322" s="22" t="s">
+      <c r="F322" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G322" s="11"/>
@@ -7364,7 +7660,7 @@
       <c r="E323" s="5">
         <v>131</v>
       </c>
-      <c r="F323" s="22" t="s">
+      <c r="F323" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G323" s="11"/>
@@ -7386,7 +7682,7 @@
       <c r="E324" s="5">
         <v>151</v>
       </c>
-      <c r="F324" s="22" t="s">
+      <c r="F324" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G324" s="11"/>
@@ -7408,7 +7704,7 @@
       <c r="E325" s="5">
         <v>141</v>
       </c>
-      <c r="F325" s="22" t="s">
+      <c r="F325" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G325" s="11"/>
@@ -7430,7 +7726,7 @@
       <c r="E326" s="5">
         <v>191</v>
       </c>
-      <c r="F326" s="22" t="s">
+      <c r="F326" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G326" s="11"/>
@@ -7452,7 +7748,7 @@
       <c r="E327" s="5">
         <v>197</v>
       </c>
-      <c r="F327" s="22" t="s">
+      <c r="F327" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G327" s="11"/>
@@ -7474,7 +7770,7 @@
       <c r="E328" s="5">
         <v>191</v>
       </c>
-      <c r="F328" s="22" t="s">
+      <c r="F328" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G328" s="11"/>
@@ -7496,7 +7792,7 @@
       <c r="E329" s="5">
         <v>207</v>
       </c>
-      <c r="F329" s="22" t="s">
+      <c r="F329" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G329" s="11"/>
@@ -7518,7 +7814,7 @@
       <c r="E330" s="5">
         <v>181</v>
       </c>
-      <c r="F330" s="22" t="s">
+      <c r="F330" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G330" s="11"/>
@@ -7540,7 +7836,7 @@
       <c r="E331" s="5">
         <v>182</v>
       </c>
-      <c r="F331" s="22" t="s">
+      <c r="F331" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G331" s="11"/>
@@ -7562,7 +7858,7 @@
       <c r="E332" s="5">
         <v>230</v>
       </c>
-      <c r="F332" s="22" t="s">
+      <c r="F332" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G332" s="11"/>
@@ -7584,7 +7880,7 @@
       <c r="E333" s="5">
         <v>258</v>
       </c>
-      <c r="F333" s="22" t="s">
+      <c r="F333" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G333" s="11"/>
@@ -7606,7 +7902,7 @@
       <c r="E334" s="5">
         <v>263</v>
       </c>
-      <c r="F334" s="22" t="s">
+      <c r="F334" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G334" s="11"/>
@@ -7628,7 +7924,7 @@
       <c r="E335" s="5">
         <v>259</v>
       </c>
-      <c r="F335" s="22" t="s">
+      <c r="F335" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G335" s="11"/>
@@ -7650,7 +7946,7 @@
       <c r="E336" s="5">
         <v>207</v>
       </c>
-      <c r="F336" s="22" t="s">
+      <c r="F336" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G336" s="11"/>
@@ -7672,7 +7968,7 @@
       <c r="E337" s="5">
         <v>399</v>
       </c>
-      <c r="F337" s="22" t="s">
+      <c r="F337" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G337" s="11"/>
@@ -7694,7 +7990,7 @@
       <c r="E338" s="5">
         <v>409</v>
       </c>
-      <c r="F338" s="22" t="s">
+      <c r="F338" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G338" s="11"/>
@@ -7716,7 +8012,7 @@
       <c r="E339" s="5">
         <v>391</v>
       </c>
-      <c r="F339" s="22" t="s">
+      <c r="F339" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G339" s="11"/>
@@ -7738,7 +8034,7 @@
       <c r="E340" s="5">
         <v>441</v>
       </c>
-      <c r="F340" s="22" t="s">
+      <c r="F340" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G340" s="11"/>
@@ -7760,7 +8056,7 @@
       <c r="E341" s="5">
         <v>522</v>
       </c>
-      <c r="F341" s="22" t="s">
+      <c r="F341" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G341" s="11"/>
@@ -7782,7 +8078,7 @@
       <c r="E342" s="5">
         <v>478</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="F342" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G342" s="11"/>
@@ -7804,7 +8100,7 @@
       <c r="E343" s="5">
         <v>489</v>
       </c>
-      <c r="F343" s="22" t="s">
+      <c r="F343" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G343" s="11"/>
@@ -7826,7 +8122,7 @@
       <c r="E344" s="5">
         <v>507</v>
       </c>
-      <c r="F344" s="22" t="s">
+      <c r="F344" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G344" s="11"/>
@@ -7848,7 +8144,7 @@
       <c r="E345" s="5">
         <v>507</v>
       </c>
-      <c r="F345" s="22" t="s">
+      <c r="F345" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G345" s="11"/>
@@ -7870,7 +8166,7 @@
       <c r="E346" s="5">
         <v>511</v>
       </c>
-      <c r="F346" s="22" t="s">
+      <c r="F346" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G346" s="11"/>
@@ -7892,7 +8188,7 @@
       <c r="E347" s="5">
         <v>496</v>
       </c>
-      <c r="F347" s="22" t="s">
+      <c r="F347" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G347" s="11"/>
@@ -7914,7 +8210,7 @@
       <c r="E348" s="5">
         <v>477</v>
       </c>
-      <c r="F348" s="22" t="s">
+      <c r="F348" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G348" s="11"/>
@@ -7936,7 +8232,7 @@
       <c r="E349" s="5">
         <v>534</v>
       </c>
-      <c r="F349" s="22" t="s">
+      <c r="F349" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G349" s="11"/>
@@ -7958,7 +8254,7 @@
       <c r="E350" s="5">
         <v>474</v>
       </c>
-      <c r="F350" s="22" t="s">
+      <c r="F350" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G350" s="11"/>
@@ -7980,7 +8276,7 @@
       <c r="E351" s="5">
         <v>344</v>
       </c>
-      <c r="F351" s="22" t="s">
+      <c r="F351" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G351" s="11"/>
@@ -8002,7 +8298,7 @@
       <c r="E352" s="5">
         <v>428</v>
       </c>
-      <c r="F352" s="22" t="s">
+      <c r="F352" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G352" s="11"/>
@@ -8024,7 +8320,7 @@
       <c r="E353" s="5">
         <v>363</v>
       </c>
-      <c r="F353" s="22" t="s">
+      <c r="F353" s="15" t="s">
         <v>368</v>
       </c>
       <c r="G353" s="11"/>
@@ -8171,24 +8467,371 @@
       <c r="H360" s="11"/>
     </row>
     <row r="361" spans="1:8">
-      <c r="A361" s="11"/>
-      <c r="B361" s="11"/>
-      <c r="C361" s="11"/>
-      <c r="D361" s="11"/>
-      <c r="E361" s="11"/>
+      <c r="A361" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B361" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C361" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D361" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E361" s="5">
+        <v>324</v>
+      </c>
       <c r="F361" s="11"/>
       <c r="G361" s="11"/>
       <c r="H361" s="11"/>
     </row>
     <row r="362" spans="1:8">
-      <c r="A362" s="11"/>
-      <c r="B362" s="11"/>
-      <c r="C362" s="11"/>
-      <c r="D362" s="11"/>
-      <c r="E362" s="11"/>
+      <c r="A362" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B362" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C362" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D362" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E362" s="5">
+        <v>330</v>
+      </c>
       <c r="F362" s="11"/>
       <c r="G362" s="11"/>
       <c r="H362" s="11"/>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B363" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E363" s="5">
+        <v>326</v>
+      </c>
+      <c r="F363" s="11"/>
+      <c r="G363" s="11"/>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B364" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D364" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E364" s="5">
+        <v>212</v>
+      </c>
+      <c r="F364" s="11"/>
+      <c r="G364" s="11"/>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B365" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D365" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E365" s="5">
+        <v>219</v>
+      </c>
+      <c r="F365" s="11"/>
+      <c r="G365" s="11"/>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="B366" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D366" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E366" s="5">
+        <v>229</v>
+      </c>
+      <c r="F366" s="11"/>
+      <c r="G366" s="11"/>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B367" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D367" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E367" s="5">
+        <v>197</v>
+      </c>
+      <c r="F367" s="11"/>
+      <c r="G367" s="11"/>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B368" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D368" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E368" s="5">
+        <v>246</v>
+      </c>
+      <c r="F368" s="11"/>
+      <c r="G368" s="11"/>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B369" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D369" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E369" s="5">
+        <v>256</v>
+      </c>
+      <c r="F369" s="11"/>
+      <c r="G369" s="11"/>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B370" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D370" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E370" s="5">
+        <v>214</v>
+      </c>
+      <c r="F370" s="11"/>
+      <c r="G370" s="11"/>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B371" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D371" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E371" s="5">
+        <v>199</v>
+      </c>
+      <c r="F371" s="11"/>
+      <c r="G371" s="11"/>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B372" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D372" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E372" s="5">
+        <v>177</v>
+      </c>
+      <c r="F372" s="11"/>
+      <c r="G372" s="11"/>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B373" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D373" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E373" s="5">
+        <v>197</v>
+      </c>
+      <c r="F373" s="11"/>
+      <c r="G373" s="11"/>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B374" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D374" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E374" s="5">
+        <v>202</v>
+      </c>
+      <c r="F374" s="11"/>
+      <c r="G374" s="11"/>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="11"/>
+      <c r="B375" s="11"/>
+      <c r="C375" s="11"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="11"/>
+      <c r="F375" s="11"/>
+      <c r="G375" s="11"/>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="11"/>
+      <c r="B376" s="11"/>
+      <c r="C376" s="11"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="11"/>
+      <c r="F376" s="11"/>
+      <c r="G376" s="11"/>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="11"/>
+      <c r="B377" s="11"/>
+      <c r="C377" s="11"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="11"/>
+      <c r="F377" s="11"/>
+      <c r="G377" s="11"/>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="11"/>
+      <c r="B378" s="11"/>
+      <c r="C378" s="11"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="11"/>
+      <c r="F378" s="11"/>
+      <c r="G378" s="11"/>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="11"/>
+      <c r="B379" s="11"/>
+      <c r="C379" s="11"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="11"/>
+      <c r="F379" s="11"/>
+      <c r="G379" s="11"/>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="11"/>
+      <c r="B380" s="11"/>
+      <c r="C380" s="11"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="11"/>
+      <c r="F380" s="11"/>
+      <c r="G380" s="11"/>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="11"/>
+      <c r="B381" s="11"/>
+      <c r="C381" s="11"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="11"/>
+      <c r="F381" s="11"/>
+      <c r="G381" s="11"/>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="11"/>
+      <c r="B382" s="11"/>
+      <c r="C382" s="11"/>
+      <c r="D382" s="11"/>
+      <c r="E382" s="11"/>
+      <c r="F382" s="11"/>
+      <c r="G382" s="11"/>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="11"/>
+      <c r="B383" s="11"/>
+      <c r="C383" s="11"/>
+      <c r="D383" s="11"/>
+      <c r="E383" s="11"/>
+      <c r="F383" s="11"/>
+      <c r="G383" s="11"/>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="11"/>
+      <c r="B384" s="11"/>
+      <c r="C384" s="11"/>
+      <c r="D384" s="11"/>
+      <c r="E384" s="11"/>
+      <c r="F384" s="11"/>
+      <c r="G384" s="11"/>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="11"/>
+      <c r="B385" s="11"/>
+      <c r="C385" s="11"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
+      <c r="F385" s="11"/>
+      <c r="G385" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8196,7 +8839,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="88" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C帰国者・接触者相談センター相談件数</oddHeader>
   </headerFooter>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="14850" windowHeight="4455"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="10320" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$337:$F$374</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$365:$E$381</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="390">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1291,6 +1291,27 @@
   </si>
   <si>
     <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-02-14</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1456,6 +1477,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1466,7 +1493,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1755,11 +1781,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I385"/>
+  <dimension ref="A1:I390"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G385" sqref="A144:G385"/>
+      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1801,7 +1827,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="20" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1818,7 +1844,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1833,7 +1859,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -3943,7 +3969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:5">
       <c r="A129" s="9" t="s">
         <v>135</v>
       </c>
@@ -3960,7 +3986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:5">
       <c r="A130" s="9" t="s">
         <v>136</v>
       </c>
@@ -3977,7 +4003,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:5">
       <c r="A131" s="9" t="s">
         <v>137</v>
       </c>
@@ -3994,7 +4020,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:5">
       <c r="A132" s="9" t="s">
         <v>138</v>
       </c>
@@ -4011,7 +4037,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:5">
       <c r="A133" s="9" t="s">
         <v>139</v>
       </c>
@@ -4028,7 +4054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:5">
       <c r="A134" s="9" t="s">
         <v>140</v>
       </c>
@@ -4045,7 +4071,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:5">
       <c r="A135" s="9" t="s">
         <v>141</v>
       </c>
@@ -4062,7 +4088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:5">
       <c r="A136" s="9" t="s">
         <v>142</v>
       </c>
@@ -4079,7 +4105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:5">
       <c r="A137" s="9" t="s">
         <v>143</v>
       </c>
@@ -4096,7 +4122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:5">
       <c r="A138" s="9" t="s">
         <v>144</v>
       </c>
@@ -4113,7 +4139,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:5">
       <c r="A139" s="9" t="s">
         <v>145</v>
       </c>
@@ -4130,7 +4156,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:5">
       <c r="A140" s="9" t="s">
         <v>146</v>
       </c>
@@ -4147,7 +4173,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:5">
       <c r="A141" s="9" t="s">
         <v>147</v>
       </c>
@@ -4164,7 +4190,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:5">
       <c r="A142" s="9" t="s">
         <v>148</v>
       </c>
@@ -4181,7 +4207,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:5">
       <c r="A143" s="9" t="s">
         <v>149</v>
       </c>
@@ -4198,11 +4224,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:5">
       <c r="A144" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B144" s="5">
+      <c r="B144" s="3">
         <v>430005</v>
       </c>
       <c r="C144" s="5" t="s">
@@ -4214,14 +4240,12 @@
       <c r="E144" s="5">
         <v>80</v>
       </c>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-    </row>
-    <row r="145" spans="1:7">
+    </row>
+    <row r="145" spans="1:5">
       <c r="A145" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B145" s="5">
+      <c r="B145" s="3">
         <v>430005</v>
       </c>
       <c r="C145" s="5" t="s">
@@ -4233,14 +4257,12 @@
       <c r="E145" s="5">
         <v>97</v>
       </c>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-    </row>
-    <row r="146" spans="1:7">
+    </row>
+    <row r="146" spans="1:5">
       <c r="A146" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B146" s="5">
+      <c r="B146" s="3">
         <v>430005</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -4252,14 +4274,12 @@
       <c r="E146" s="5">
         <v>117</v>
       </c>
-      <c r="F146" s="11"/>
-      <c r="G146" s="11"/>
-    </row>
-    <row r="147" spans="1:7">
+    </row>
+    <row r="147" spans="1:5">
       <c r="A147" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B147" s="5">
+      <c r="B147" s="3">
         <v>430005</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -4271,14 +4291,12 @@
       <c r="E147" s="5">
         <v>104</v>
       </c>
-      <c r="F147" s="11"/>
-      <c r="G147" s="11"/>
-    </row>
-    <row r="148" spans="1:7">
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B148" s="5">
+      <c r="B148" s="3">
         <v>430005</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -4290,14 +4308,12 @@
       <c r="E148" s="5">
         <v>78</v>
       </c>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-    </row>
-    <row r="149" spans="1:7">
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B149" s="5">
+      <c r="B149" s="3">
         <v>430005</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -4309,14 +4325,12 @@
       <c r="E149" s="5">
         <v>47</v>
       </c>
-      <c r="F149" s="11"/>
-      <c r="G149" s="11"/>
-    </row>
-    <row r="150" spans="1:7">
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B150" s="5">
+      <c r="B150" s="3">
         <v>430005</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -4328,14 +4342,12 @@
       <c r="E150" s="5">
         <v>55</v>
       </c>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-    </row>
-    <row r="151" spans="1:7">
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B151" s="5">
+      <c r="B151" s="3">
         <v>430005</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -4347,14 +4359,12 @@
       <c r="E151" s="5">
         <v>129</v>
       </c>
-      <c r="F151" s="11"/>
-      <c r="G151" s="11"/>
-    </row>
-    <row r="152" spans="1:7">
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B152" s="5">
+      <c r="B152" s="3">
         <v>430005</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -4366,14 +4376,12 @@
       <c r="E152" s="5">
         <v>96</v>
       </c>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-    </row>
-    <row r="153" spans="1:7">
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B153" s="5">
+      <c r="B153" s="3">
         <v>430005</v>
       </c>
       <c r="C153" s="5" t="s">
@@ -4385,14 +4393,12 @@
       <c r="E153" s="5">
         <v>92</v>
       </c>
-      <c r="F153" s="11"/>
-      <c r="G153" s="11"/>
-    </row>
-    <row r="154" spans="1:7">
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B154" s="5">
+      <c r="B154" s="3">
         <v>430005</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -4401,17 +4407,15 @@
       <c r="D154" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E154" s="5">
+      <c r="E154" s="6">
         <v>75</v>
       </c>
-      <c r="F154" s="11"/>
-      <c r="G154" s="11"/>
-    </row>
-    <row r="155" spans="1:7">
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B155" s="5">
+      <c r="B155" s="3">
         <v>430005</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -4423,14 +4427,12 @@
       <c r="E155" s="5">
         <v>104</v>
       </c>
-      <c r="F155" s="11"/>
-      <c r="G155" s="11"/>
-    </row>
-    <row r="156" spans="1:7">
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B156" s="5">
+      <c r="B156" s="3">
         <v>430005</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -4442,14 +4444,12 @@
       <c r="E156" s="5">
         <v>72</v>
       </c>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-    </row>
-    <row r="157" spans="1:7">
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B157" s="5">
+      <c r="B157" s="3">
         <v>430005</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -4461,14 +4461,12 @@
       <c r="E157" s="5">
         <v>73</v>
       </c>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-    </row>
-    <row r="158" spans="1:7">
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B158" s="3">
         <v>430005</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -4477,17 +4475,15 @@
       <c r="D158" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E158" s="5">
+      <c r="E158" s="6">
         <v>122</v>
       </c>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-    </row>
-    <row r="159" spans="1:7">
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B159" s="5">
+      <c r="B159" s="3">
         <v>430005</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -4496,17 +4492,15 @@
       <c r="D159" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E159" s="5">
+      <c r="E159" s="6">
         <v>101</v>
       </c>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-    </row>
-    <row r="160" spans="1:7">
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B160" s="5">
+      <c r="B160" s="3">
         <v>430005</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -4515,17 +4509,15 @@
       <c r="D160" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E160" s="5">
+      <c r="E160" s="6">
         <v>103</v>
       </c>
-      <c r="F160" s="11"/>
-      <c r="G160" s="11"/>
-    </row>
-    <row r="161" spans="1:7">
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B161" s="5">
+      <c r="B161" s="3">
         <v>430005</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -4534,17 +4526,15 @@
       <c r="D161" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E161" s="5">
+      <c r="E161" s="6">
         <v>98</v>
       </c>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-    </row>
-    <row r="162" spans="1:7">
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B162" s="5">
+      <c r="B162" s="3">
         <v>430005</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -4553,17 +4543,15 @@
       <c r="D162" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E162" s="5">
+      <c r="E162" s="6">
         <v>91</v>
       </c>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
-    </row>
-    <row r="163" spans="1:7">
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B163" s="5">
+      <c r="B163" s="3">
         <v>430005</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -4572,17 +4560,15 @@
       <c r="D163" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E163" s="5">
+      <c r="E163" s="6">
         <v>65</v>
       </c>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-    </row>
-    <row r="164" spans="1:7">
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B164" s="5">
+      <c r="B164" s="3">
         <v>430005</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -4591,17 +4577,15 @@
       <c r="D164" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E164" s="5">
+      <c r="E164" s="6">
         <v>45</v>
       </c>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
-    </row>
-    <row r="165" spans="1:7">
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="3">
         <v>430005</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -4613,14 +4597,12 @@
       <c r="E165" s="5">
         <v>157</v>
       </c>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-    </row>
-    <row r="166" spans="1:7">
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="3">
         <v>430005</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -4632,14 +4614,12 @@
       <c r="E166" s="5">
         <v>112</v>
       </c>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
-    </row>
-    <row r="167" spans="1:7">
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="3">
         <v>430005</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -4651,14 +4631,12 @@
       <c r="E167" s="5">
         <v>128</v>
       </c>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-    </row>
-    <row r="168" spans="1:7">
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="3">
         <v>430005</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -4670,10 +4648,8 @@
       <c r="E168" s="5">
         <v>125</v>
       </c>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
-    </row>
-    <row r="169" spans="1:7" s="11" customFormat="1">
+    </row>
+    <row r="169" spans="1:5" s="11" customFormat="1">
       <c r="A169" s="9" t="s">
         <v>175</v>
       </c>
@@ -4690,7 +4666,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="11" customFormat="1">
+    <row r="170" spans="1:5" s="11" customFormat="1">
       <c r="A170" s="9" t="s">
         <v>176</v>
       </c>
@@ -4707,7 +4683,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="11" customFormat="1">
+    <row r="171" spans="1:5" s="11" customFormat="1">
       <c r="A171" s="9" t="s">
         <v>177</v>
       </c>
@@ -4724,7 +4700,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="11" customFormat="1">
+    <row r="172" spans="1:5" s="11" customFormat="1">
       <c r="A172" s="9" t="s">
         <v>178</v>
       </c>
@@ -4741,7 +4717,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="11" customFormat="1">
+    <row r="173" spans="1:5" s="11" customFormat="1">
       <c r="A173" s="9" t="s">
         <v>179</v>
       </c>
@@ -4758,7 +4734,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:5">
       <c r="A174" s="9" t="s">
         <v>180</v>
       </c>
@@ -4771,13 +4747,11 @@
       <c r="D174" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E174" s="5">
+      <c r="E174" s="3">
         <v>175</v>
       </c>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
-    </row>
-    <row r="175" spans="1:7">
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="9" t="s">
         <v>181</v>
       </c>
@@ -4790,13 +4764,11 @@
       <c r="D175" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E175" s="5">
+      <c r="E175" s="3">
         <v>176</v>
       </c>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
-    </row>
-    <row r="176" spans="1:7">
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="9" t="s">
         <v>182</v>
       </c>
@@ -4809,13 +4781,11 @@
       <c r="D176" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E176" s="5">
+      <c r="E176" s="3">
         <v>201</v>
       </c>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
-    </row>
-    <row r="177" spans="1:7">
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="9" t="s">
         <v>183</v>
       </c>
@@ -4828,13 +4798,11 @@
       <c r="D177" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E177" s="5">
+      <c r="E177" s="3">
         <v>194</v>
       </c>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
-    </row>
-    <row r="178" spans="1:7">
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="9" t="s">
         <v>184</v>
       </c>
@@ -4847,13 +4815,11 @@
       <c r="D178" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E178" s="5">
+      <c r="E178" s="3">
         <v>233</v>
       </c>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
-    </row>
-    <row r="179" spans="1:7">
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="9" t="s">
         <v>185</v>
       </c>
@@ -4866,13 +4832,11 @@
       <c r="D179" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E179" s="5">
+      <c r="E179" s="3">
         <v>508</v>
       </c>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
-    </row>
-    <row r="180" spans="1:7">
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="9" t="s">
         <v>186</v>
       </c>
@@ -4885,13 +4849,11 @@
       <c r="D180" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E180" s="5">
+      <c r="E180" s="3">
         <v>484</v>
       </c>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
-    </row>
-    <row r="181" spans="1:7">
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="9" t="s">
         <v>187</v>
       </c>
@@ -4904,13 +4866,11 @@
       <c r="D181" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E181" s="5">
+      <c r="E181" s="3">
         <v>376</v>
       </c>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
-    </row>
-    <row r="182" spans="1:7">
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="9" t="s">
         <v>188</v>
       </c>
@@ -4923,13 +4883,11 @@
       <c r="D182" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E182" s="5">
+      <c r="E182" s="3">
         <v>423</v>
       </c>
-      <c r="F182" s="11"/>
-      <c r="G182" s="11"/>
-    </row>
-    <row r="183" spans="1:7">
+    </row>
+    <row r="183" spans="1:5">
       <c r="A183" s="9" t="s">
         <v>189</v>
       </c>
@@ -4942,13 +4900,11 @@
       <c r="D183" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E183" s="5">
+      <c r="E183" s="3">
         <v>368</v>
       </c>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
-    </row>
-    <row r="184" spans="1:7">
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="9" t="s">
         <v>190</v>
       </c>
@@ -4961,13 +4917,11 @@
       <c r="D184" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E184" s="5">
+      <c r="E184" s="3">
         <v>260</v>
       </c>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
-    </row>
-    <row r="185" spans="1:7">
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="9" t="s">
         <v>191</v>
       </c>
@@ -4980,13 +4934,11 @@
       <c r="D185" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E185" s="5">
+      <c r="E185" s="3">
         <v>173</v>
       </c>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
-    </row>
-    <row r="186" spans="1:7">
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="9" t="s">
         <v>192</v>
       </c>
@@ -4999,13 +4951,11 @@
       <c r="D186" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E186" s="5">
+      <c r="E186" s="3">
         <v>141</v>
       </c>
-      <c r="F186" s="11"/>
-      <c r="G186" s="11"/>
-    </row>
-    <row r="187" spans="1:7">
+    </row>
+    <row r="187" spans="1:5">
       <c r="A187" s="9" t="s">
         <v>193</v>
       </c>
@@ -5018,13 +4968,11 @@
       <c r="D187" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E187" s="5">
+      <c r="E187" s="3">
         <v>384</v>
       </c>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
-    </row>
-    <row r="188" spans="1:7">
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="9" t="s">
         <v>194</v>
       </c>
@@ -5037,13 +4985,11 @@
       <c r="D188" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E188" s="5">
+      <c r="E188" s="3">
         <v>459</v>
       </c>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
-    </row>
-    <row r="189" spans="1:7">
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="9" t="s">
         <v>195</v>
       </c>
@@ -5056,13 +5002,11 @@
       <c r="D189" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E189" s="5">
+      <c r="E189" s="3">
         <v>428</v>
       </c>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
-    </row>
-    <row r="190" spans="1:7">
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="9" t="s">
         <v>196</v>
       </c>
@@ -5075,13 +5019,11 @@
       <c r="D190" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E190" s="5">
+      <c r="E190" s="3">
         <v>350</v>
       </c>
-      <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
-    </row>
-    <row r="191" spans="1:7">
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="9" t="s">
         <v>197</v>
       </c>
@@ -5094,13 +5036,11 @@
       <c r="D191" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E191" s="5">
+      <c r="E191" s="3">
         <v>268</v>
       </c>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
-    </row>
-    <row r="192" spans="1:7">
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="9" t="s">
         <v>198</v>
       </c>
@@ -5113,13 +5053,11 @@
       <c r="D192" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E192" s="5">
+      <c r="E192" s="3">
         <v>211</v>
       </c>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
-    </row>
-    <row r="193" spans="1:7">
+    </row>
+    <row r="193" spans="1:5">
       <c r="A193" s="9" t="s">
         <v>199</v>
       </c>
@@ -5132,13 +5070,11 @@
       <c r="D193" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E193" s="5">
+      <c r="E193" s="3">
         <v>292</v>
       </c>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
-    </row>
-    <row r="194" spans="1:7">
+    </row>
+    <row r="194" spans="1:5">
       <c r="A194" s="9" t="s">
         <v>200</v>
       </c>
@@ -5151,13 +5087,11 @@
       <c r="D194" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E194" s="5">
+      <c r="E194" s="3">
         <v>284</v>
       </c>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
-    </row>
-    <row r="195" spans="1:7">
+    </row>
+    <row r="195" spans="1:5">
       <c r="A195" s="9" t="s">
         <v>201</v>
       </c>
@@ -5170,13 +5104,11 @@
       <c r="D195" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E195" s="5">
+      <c r="E195" s="3">
         <v>263</v>
       </c>
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
-    </row>
-    <row r="196" spans="1:7">
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="9" t="s">
         <v>202</v>
       </c>
@@ -5189,13 +5121,11 @@
       <c r="D196" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E196" s="5">
+      <c r="E196" s="3">
         <v>298</v>
       </c>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
-    </row>
-    <row r="197" spans="1:7">
+    </row>
+    <row r="197" spans="1:5">
       <c r="A197" s="9" t="s">
         <v>203</v>
       </c>
@@ -5208,13 +5138,11 @@
       <c r="D197" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E197" s="5">
+      <c r="E197" s="3">
         <v>347</v>
       </c>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
-    </row>
-    <row r="198" spans="1:7">
+    </row>
+    <row r="198" spans="1:5">
       <c r="A198" s="9" t="s">
         <v>204</v>
       </c>
@@ -5227,13 +5155,11 @@
       <c r="D198" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E198" s="5">
+      <c r="E198" s="3">
         <v>254</v>
       </c>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
-    </row>
-    <row r="199" spans="1:7">
+    </row>
+    <row r="199" spans="1:5">
       <c r="A199" s="9" t="s">
         <v>205</v>
       </c>
@@ -5246,13 +5172,11 @@
       <c r="D199" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E199" s="5">
+      <c r="E199" s="3">
         <v>267</v>
       </c>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
-    </row>
-    <row r="200" spans="1:7">
+    </row>
+    <row r="200" spans="1:5">
       <c r="A200" s="9" t="s">
         <v>206</v>
       </c>
@@ -5265,13 +5189,11 @@
       <c r="D200" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E200" s="5">
+      <c r="E200" s="3">
         <v>427</v>
       </c>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
-    </row>
-    <row r="201" spans="1:7">
+    </row>
+    <row r="201" spans="1:5">
       <c r="A201" s="9" t="s">
         <v>207</v>
       </c>
@@ -5284,13 +5206,11 @@
       <c r="D201" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E201" s="5">
+      <c r="E201" s="3">
         <v>306</v>
       </c>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
-    </row>
-    <row r="202" spans="1:7">
+    </row>
+    <row r="202" spans="1:5">
       <c r="A202" s="9" t="s">
         <v>208</v>
       </c>
@@ -5303,13 +5223,11 @@
       <c r="D202" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E202" s="5">
+      <c r="E202" s="3">
         <v>277</v>
       </c>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
-    </row>
-    <row r="203" spans="1:7">
+    </row>
+    <row r="203" spans="1:5">
       <c r="A203" s="9" t="s">
         <v>209</v>
       </c>
@@ -5322,13 +5240,11 @@
       <c r="D203" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E203" s="5">
+      <c r="E203" s="3">
         <v>283</v>
       </c>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
-    </row>
-    <row r="204" spans="1:7">
+    </row>
+    <row r="204" spans="1:5">
       <c r="A204" s="9" t="s">
         <v>210</v>
       </c>
@@ -5341,13 +5257,11 @@
       <c r="D204" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E204" s="5">
+      <c r="E204" s="3">
         <v>254</v>
       </c>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
-    </row>
-    <row r="205" spans="1:7">
+    </row>
+    <row r="205" spans="1:5">
       <c r="A205" s="9" t="s">
         <v>211</v>
       </c>
@@ -5360,13 +5274,11 @@
       <c r="D205" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E205" s="5">
+      <c r="E205" s="3">
         <v>245</v>
       </c>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
-    </row>
-    <row r="206" spans="1:7">
+    </row>
+    <row r="206" spans="1:5">
       <c r="A206" s="9" t="s">
         <v>212</v>
       </c>
@@ -5379,13 +5291,11 @@
       <c r="D206" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E206" s="5">
+      <c r="E206" s="3">
         <v>154</v>
       </c>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
-    </row>
-    <row r="207" spans="1:7">
+    </row>
+    <row r="207" spans="1:5">
       <c r="A207" s="9" t="s">
         <v>213</v>
       </c>
@@ -5401,10 +5311,8 @@
       <c r="E207" s="5">
         <v>285</v>
       </c>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
-    </row>
-    <row r="208" spans="1:7">
+    </row>
+    <row r="208" spans="1:5">
       <c r="A208" s="9" t="s">
         <v>214</v>
       </c>
@@ -5420,8 +5328,6 @@
       <c r="E208" s="5">
         <v>253</v>
       </c>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="9" t="s">
@@ -5439,8 +5345,6 @@
       <c r="E209" s="5">
         <v>235</v>
       </c>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="9" t="s">
@@ -5458,8 +5362,6 @@
       <c r="E210" s="5">
         <v>251</v>
       </c>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="9" t="s">
@@ -5477,8 +5379,6 @@
       <c r="E211" s="5">
         <v>235</v>
       </c>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="9" t="s">
@@ -5496,8 +5396,6 @@
       <c r="E212" s="5">
         <v>170</v>
       </c>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="9" t="s">
@@ -5515,8 +5413,6 @@
       <c r="E213" s="5">
         <v>135</v>
       </c>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="9" t="s">
@@ -5534,8 +5430,6 @@
       <c r="E214" s="5">
         <v>328</v>
       </c>
-      <c r="F214" s="11"/>
-      <c r="G214" s="11"/>
     </row>
     <row r="215" spans="1:9" s="11" customFormat="1">
       <c r="A215" s="12" t="s">
@@ -5604,8 +5498,6 @@
       <c r="E218" s="13">
         <v>124</v>
       </c>
-      <c r="F218" s="11"/>
-      <c r="G218" s="11"/>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="12" t="s">
@@ -5623,8 +5515,6 @@
       <c r="E219" s="13">
         <v>95</v>
       </c>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="12" t="s">
@@ -5642,8 +5532,6 @@
       <c r="E220" s="13">
         <v>96</v>
       </c>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="12" t="s">
@@ -5658,30 +5546,26 @@
       <c r="D221" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E221" s="5">
+      <c r="E221" s="3">
         <v>151</v>
       </c>
-      <c r="F221" s="11"/>
-      <c r="G221" s="11"/>
     </row>
     <row r="222" spans="1:9">
-      <c r="A222" s="12" t="s">
+      <c r="A222" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="B222" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D222" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E222" s="5">
+      <c r="B222" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C222" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D222" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E222" s="6">
         <v>130</v>
       </c>
-      <c r="F222" s="11"/>
-      <c r="G222" s="11"/>
       <c r="I222" t="s">
         <v>231</v>
       </c>
@@ -5702,8 +5586,7 @@
       <c r="E223" s="5">
         <v>215</v>
       </c>
-      <c r="F223" s="19"/>
-      <c r="G223" s="11"/>
+      <c r="F223" s="15"/>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="12" t="s">
@@ -5721,10 +5604,8 @@
       <c r="E224" s="5">
         <v>125</v>
       </c>
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
-    </row>
-    <row r="225" spans="1:7">
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="12" t="s">
         <v>232</v>
       </c>
@@ -5740,10 +5621,8 @@
       <c r="E225" s="5">
         <v>155</v>
       </c>
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
-    </row>
-    <row r="226" spans="1:7">
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="12" t="s">
         <v>233</v>
       </c>
@@ -5759,10 +5638,8 @@
       <c r="E226" s="5">
         <v>101</v>
       </c>
-      <c r="F226" s="11"/>
-      <c r="G226" s="11"/>
-    </row>
-    <row r="227" spans="1:7">
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="12" t="s">
         <v>234</v>
       </c>
@@ -5778,10 +5655,9 @@
       <c r="E227" s="5">
         <v>136</v>
       </c>
-      <c r="F227" s="19"/>
-      <c r="G227" s="11"/>
-    </row>
-    <row r="228" spans="1:7">
+      <c r="F227" s="15"/>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="12" t="s">
         <v>235</v>
       </c>
@@ -5797,10 +5673,8 @@
       <c r="E228" s="5">
         <v>189</v>
       </c>
-      <c r="F228" s="11"/>
-      <c r="G228" s="11"/>
-    </row>
-    <row r="229" spans="1:7">
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="12" t="s">
         <v>236</v>
       </c>
@@ -5813,13 +5687,11 @@
       <c r="D229" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E229" s="5">
+      <c r="E229" s="6">
         <v>128</v>
       </c>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
-    </row>
-    <row r="230" spans="1:7" s="11" customFormat="1">
+    </row>
+    <row r="230" spans="1:6" s="11" customFormat="1">
       <c r="A230" s="12" t="s">
         <v>237</v>
       </c>
@@ -5836,7 +5708,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:6">
       <c r="A231" s="12" t="s">
         <v>238</v>
       </c>
@@ -5852,181 +5724,161 @@
       <c r="E231" s="5">
         <v>115</v>
       </c>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
-    </row>
-    <row r="232" spans="1:7">
-      <c r="A232" s="12" t="s">
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="B232" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C232" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D232" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E232" s="5">
+      <c r="B232" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C232" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D232" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E232" s="6">
         <v>116</v>
       </c>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
-    </row>
-    <row r="233" spans="1:7">
-      <c r="A233" s="12" t="s">
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="B233" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C233" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D233" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E233" s="5">
+      <c r="B233" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C233" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D233" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E233" s="6">
         <v>89</v>
       </c>
-      <c r="F233" s="11"/>
-      <c r="G233" s="11"/>
-    </row>
-    <row r="234" spans="1:7">
-      <c r="A234" s="12" t="s">
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B234" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D234" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E234" s="5">
+      <c r="B234" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C234" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E234" s="6">
         <v>93</v>
       </c>
-      <c r="F234" s="11"/>
-      <c r="G234" s="11"/>
-    </row>
-    <row r="235" spans="1:7">
-      <c r="A235" s="12" t="s">
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D235" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E235" s="5">
+      <c r="B235" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C235" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D235" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E235" s="6">
         <v>76</v>
       </c>
-      <c r="F235" s="11"/>
-      <c r="G235" s="11"/>
-    </row>
-    <row r="236" spans="1:7">
-      <c r="A236" s="12" t="s">
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="B236" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C236" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D236" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E236" s="5">
+      <c r="B236" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C236" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D236" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E236" s="6">
         <v>129</v>
       </c>
-      <c r="F236" s="11"/>
-      <c r="G236" s="11"/>
-    </row>
-    <row r="237" spans="1:7">
-      <c r="A237" s="12" t="s">
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B237" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C237" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D237" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E237" s="5">
+      <c r="B237" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C237" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D237" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E237" s="6">
         <v>171</v>
       </c>
-      <c r="F237" s="11"/>
-      <c r="G237" s="11"/>
-    </row>
-    <row r="238" spans="1:7">
-      <c r="A238" s="12" t="s">
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B238" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C238" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D238" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E238" s="5">
+      <c r="B238" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C238" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D238" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E238" s="6">
         <v>114</v>
       </c>
-      <c r="F238" s="11"/>
-      <c r="G238" s="11"/>
-    </row>
-    <row r="239" spans="1:7">
-      <c r="A239" s="12" t="s">
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B239" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C239" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D239" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E239" s="5">
+      <c r="B239" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C239" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D239" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E239" s="6">
         <v>89</v>
       </c>
-      <c r="F239" s="11"/>
-      <c r="G239" s="11"/>
-    </row>
-    <row r="240" spans="1:7">
-      <c r="A240" s="12" t="s">
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="B240" s="13">
-        <v>430005</v>
-      </c>
-      <c r="C240" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D240" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E240" s="5">
+      <c r="B240" s="17">
+        <v>430005</v>
+      </c>
+      <c r="C240" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D240" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E240" s="6">
         <v>101</v>
       </c>
-      <c r="F240" s="11"/>
-      <c r="G240" s="11"/>
-    </row>
-    <row r="241" spans="1:7">
+    </row>
+    <row r="241" spans="1:5">
       <c r="A241" s="12" t="s">
         <v>248</v>
       </c>
@@ -6042,10 +5894,8 @@
       <c r="E241" s="5">
         <v>77</v>
       </c>
-      <c r="F241" s="11"/>
-      <c r="G241" s="11"/>
-    </row>
-    <row r="242" spans="1:7">
+    </row>
+    <row r="242" spans="1:5">
       <c r="A242" s="12" t="s">
         <v>249</v>
       </c>
@@ -6061,10 +5911,8 @@
       <c r="E242" s="5">
         <v>122</v>
       </c>
-      <c r="F242" s="11"/>
-      <c r="G242" s="11"/>
-    </row>
-    <row r="243" spans="1:7">
+    </row>
+    <row r="243" spans="1:5">
       <c r="A243" s="12" t="s">
         <v>250</v>
       </c>
@@ -6080,105 +5928,93 @@
       <c r="E243" s="5">
         <v>119</v>
       </c>
-      <c r="F243" s="11"/>
-      <c r="G243" s="11"/>
-    </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="12" t="s">
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="B244" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D244" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E244" s="5">
+      <c r="B244" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E244" s="6">
         <v>140</v>
       </c>
-      <c r="F244" s="11"/>
-      <c r="G244" s="11"/>
-    </row>
-    <row r="245" spans="1:7">
-      <c r="A245" s="12" t="s">
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B245" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D245" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E245" s="5">
+      <c r="B245" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D245" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E245" s="6">
         <v>105</v>
       </c>
-      <c r="F245" s="11"/>
-      <c r="G245" s="11"/>
-    </row>
-    <row r="246" spans="1:7">
-      <c r="A246" s="12" t="s">
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="B246" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C246" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D246" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E246" s="5">
+      <c r="B246" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E246" s="6">
         <v>115</v>
       </c>
-      <c r="F246" s="11"/>
-      <c r="G246" s="11"/>
-    </row>
-    <row r="247" spans="1:7">
-      <c r="A247" s="12" t="s">
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="B247" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D247" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E247" s="5">
+      <c r="B247" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E247" s="6">
         <v>108</v>
       </c>
-      <c r="F247" s="11"/>
-      <c r="G247" s="11"/>
-    </row>
-    <row r="248" spans="1:7">
-      <c r="A248" s="12" t="s">
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="B248" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D248" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E248" s="5">
+      <c r="B248" s="6">
+        <v>430005</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E248" s="6">
         <v>138</v>
       </c>
-      <c r="F248" s="11"/>
-      <c r="G248" s="11"/>
-    </row>
-    <row r="249" spans="1:7">
+    </row>
+    <row r="249" spans="1:5">
       <c r="A249" s="12" t="s">
         <v>256</v>
       </c>
@@ -6194,10 +6030,8 @@
       <c r="E249" s="5">
         <v>217</v>
       </c>
-      <c r="F249" s="11"/>
-      <c r="G249" s="11"/>
-    </row>
-    <row r="250" spans="1:7">
+    </row>
+    <row r="250" spans="1:5">
       <c r="A250" s="12" t="s">
         <v>257</v>
       </c>
@@ -6213,10 +6047,8 @@
       <c r="E250" s="5">
         <v>167</v>
       </c>
-      <c r="F250" s="11"/>
-      <c r="G250" s="11"/>
-    </row>
-    <row r="251" spans="1:7">
+    </row>
+    <row r="251" spans="1:5">
       <c r="A251" s="12" t="s">
         <v>258</v>
       </c>
@@ -6232,10 +6064,8 @@
       <c r="E251" s="5">
         <v>158</v>
       </c>
-      <c r="F251" s="11"/>
-      <c r="G251" s="11"/>
-    </row>
-    <row r="252" spans="1:7">
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="12" t="s">
         <v>259</v>
       </c>
@@ -6251,10 +6081,8 @@
       <c r="E252" s="5">
         <v>174</v>
       </c>
-      <c r="F252" s="11"/>
-      <c r="G252" s="11"/>
-    </row>
-    <row r="253" spans="1:7">
+    </row>
+    <row r="253" spans="1:5">
       <c r="A253" s="12" t="s">
         <v>260</v>
       </c>
@@ -6267,13 +6095,11 @@
       <c r="D253" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E253" s="5">
+      <c r="E253" s="3">
         <v>159</v>
       </c>
-      <c r="F253" s="11"/>
-      <c r="G253" s="11"/>
-    </row>
-    <row r="254" spans="1:7">
+    </row>
+    <row r="254" spans="1:5">
       <c r="A254" s="12" t="s">
         <v>261</v>
       </c>
@@ -6286,13 +6112,11 @@
       <c r="D254" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E254" s="5">
+      <c r="E254" s="3">
         <v>126</v>
       </c>
-      <c r="F254" s="11"/>
-      <c r="G254" s="11"/>
-    </row>
-    <row r="255" spans="1:7">
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="12" t="s">
         <v>262</v>
       </c>
@@ -6305,13 +6129,11 @@
       <c r="D255" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E255" s="5">
+      <c r="E255" s="3">
         <v>107</v>
       </c>
-      <c r="F255" s="11"/>
-      <c r="G255" s="11"/>
-    </row>
-    <row r="256" spans="1:7">
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="12" t="s">
         <v>263</v>
       </c>
@@ -6327,8 +6149,6 @@
       <c r="E256" s="5">
         <v>175</v>
       </c>
-      <c r="F256" s="11"/>
-      <c r="G256" s="11"/>
     </row>
     <row r="257" spans="1:7">
       <c r="A257" s="12" t="s">
@@ -6346,8 +6166,6 @@
       <c r="E257" s="5">
         <v>149</v>
       </c>
-      <c r="F257" s="11"/>
-      <c r="G257" s="11"/>
     </row>
     <row r="258" spans="1:7">
       <c r="A258" s="12" t="s">
@@ -6365,8 +6183,6 @@
       <c r="E258" s="5">
         <v>140</v>
       </c>
-      <c r="F258" s="11"/>
-      <c r="G258" s="11"/>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="12" t="s">
@@ -6384,8 +6200,6 @@
       <c r="E259" s="5">
         <v>145</v>
       </c>
-      <c r="F259" s="11"/>
-      <c r="G259" s="11"/>
     </row>
     <row r="260" spans="1:7">
       <c r="A260" s="12" t="s">
@@ -6403,8 +6217,6 @@
       <c r="E260" s="5">
         <v>128</v>
       </c>
-      <c r="F260" s="11"/>
-      <c r="G260" s="11"/>
     </row>
     <row r="261" spans="1:7">
       <c r="A261" s="12" t="s">
@@ -6422,8 +6234,6 @@
       <c r="E261" s="5">
         <v>80</v>
       </c>
-      <c r="F261" s="11"/>
-      <c r="G261" s="11"/>
     </row>
     <row r="262" spans="1:7">
       <c r="A262" s="12" t="s">
@@ -6441,8 +6251,6 @@
       <c r="E262" s="5">
         <v>121</v>
       </c>
-      <c r="F262" s="11"/>
-      <c r="G262" s="11"/>
     </row>
     <row r="263" spans="1:7">
       <c r="A263" s="12" t="s">
@@ -6460,8 +6268,6 @@
       <c r="E263" s="5">
         <v>163</v>
       </c>
-      <c r="F263" s="11"/>
-      <c r="G263" s="11"/>
     </row>
     <row r="264" spans="1:7">
       <c r="A264" s="12" t="s">
@@ -6479,8 +6285,6 @@
       <c r="E264" s="5">
         <v>106</v>
       </c>
-      <c r="F264" s="11"/>
-      <c r="G264" s="11"/>
     </row>
     <row r="265" spans="1:7">
       <c r="A265" s="12" t="s">
@@ -6498,8 +6302,6 @@
       <c r="E265" s="5">
         <v>118</v>
       </c>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11"/>
     </row>
     <row r="266" spans="1:7">
       <c r="A266" s="12" t="s">
@@ -6517,8 +6319,6 @@
       <c r="E266" s="5">
         <v>118</v>
       </c>
-      <c r="F266" s="11"/>
-      <c r="G266" s="11"/>
     </row>
     <row r="267" spans="1:7">
       <c r="A267" s="12" t="s">
@@ -6536,8 +6336,6 @@
       <c r="E267" s="5">
         <v>91</v>
       </c>
-      <c r="F267" s="11"/>
-      <c r="G267" s="11"/>
     </row>
     <row r="268" spans="1:7">
       <c r="A268" s="12" t="s">
@@ -6555,8 +6353,6 @@
       <c r="E268" s="5">
         <v>73</v>
       </c>
-      <c r="F268" s="11"/>
-      <c r="G268" s="11"/>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="12" t="s">
@@ -6574,8 +6370,6 @@
       <c r="E269" s="5">
         <v>62</v>
       </c>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11"/>
     </row>
     <row r="270" spans="1:7">
       <c r="A270" s="12" t="s">
@@ -6593,8 +6387,6 @@
       <c r="E270" s="5">
         <v>134</v>
       </c>
-      <c r="F270" s="11"/>
-      <c r="G270" s="11"/>
     </row>
     <row r="271" spans="1:7">
       <c r="A271" s="12" t="s">
@@ -6612,8 +6404,6 @@
       <c r="E271" s="5">
         <v>112</v>
       </c>
-      <c r="F271" s="11"/>
-      <c r="G271" s="11"/>
     </row>
     <row r="272" spans="1:7">
       <c r="A272" s="12" t="s">
@@ -6840,8 +6630,6 @@
       <c r="E283" s="5">
         <v>119</v>
       </c>
-      <c r="F283" s="11"/>
-      <c r="G283" s="11"/>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" s="12" t="s">
@@ -6859,8 +6647,6 @@
       <c r="E284" s="5">
         <v>121</v>
       </c>
-      <c r="F284" s="11"/>
-      <c r="G284" s="11"/>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" s="12" t="s">
@@ -6878,8 +6664,6 @@
       <c r="E285" s="5">
         <v>79</v>
       </c>
-      <c r="F285" s="11"/>
-      <c r="G285" s="11"/>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" s="12" t="s">
@@ -7038,7 +6822,6 @@
         <v>132</v>
       </c>
       <c r="F293" s="11"/>
-      <c r="G293" s="11"/>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" s="12" t="s">
@@ -7057,7 +6840,6 @@
         <v>117</v>
       </c>
       <c r="F294" s="11"/>
-      <c r="G294" s="11"/>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" s="12" t="s">
@@ -7076,7 +6858,6 @@
         <v>78</v>
       </c>
       <c r="F295" s="11"/>
-      <c r="G295" s="11"/>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" s="12" t="s">
@@ -7095,7 +6876,6 @@
         <v>99</v>
       </c>
       <c r="F296" s="11"/>
-      <c r="G296" s="11"/>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" s="12" t="s">
@@ -7114,7 +6894,6 @@
         <v>106</v>
       </c>
       <c r="F297" s="11"/>
-      <c r="G297" s="11"/>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" s="12" t="s">
@@ -7133,7 +6912,6 @@
         <v>108</v>
       </c>
       <c r="F298" s="11"/>
-      <c r="G298" s="11"/>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" s="12" t="s">
@@ -7152,7 +6930,6 @@
         <v>104</v>
       </c>
       <c r="F299" s="11"/>
-      <c r="G299" s="11"/>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" s="12" t="s">
@@ -7170,8 +6947,6 @@
       <c r="E300" s="5">
         <v>107</v>
       </c>
-      <c r="F300" s="11"/>
-      <c r="G300" s="11"/>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" s="12" t="s">
@@ -7189,8 +6964,6 @@
       <c r="E301" s="5">
         <v>84</v>
       </c>
-      <c r="F301" s="11"/>
-      <c r="G301" s="11"/>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" s="12" t="s">
@@ -7208,8 +6981,6 @@
       <c r="E302" s="5">
         <v>85</v>
       </c>
-      <c r="F302" s="11"/>
-      <c r="G302" s="11"/>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" s="12" t="s">
@@ -7227,8 +6998,6 @@
       <c r="E303" s="5">
         <v>111</v>
       </c>
-      <c r="F303" s="11"/>
-      <c r="G303" s="11"/>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" s="12" t="s">
@@ -7286,7 +7055,7 @@
       <c r="E306" s="5">
         <v>108</v>
       </c>
-      <c r="F306" s="15" t="s">
+      <c r="F306" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G306" s="11"/>
@@ -7308,7 +7077,7 @@
       <c r="E307" s="5">
         <v>135</v>
       </c>
-      <c r="F307" s="15" t="s">
+      <c r="F307" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G307" s="11"/>
@@ -7330,7 +7099,7 @@
       <c r="E308" s="5">
         <v>88</v>
       </c>
-      <c r="F308" s="15" t="s">
+      <c r="F308" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G308" s="11"/>
@@ -7352,7 +7121,7 @@
       <c r="E309" s="5">
         <v>106</v>
       </c>
-      <c r="F309" s="15" t="s">
+      <c r="F309" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G309" s="11"/>
@@ -7374,7 +7143,7 @@
       <c r="E310" s="5">
         <v>84</v>
       </c>
-      <c r="F310" s="15" t="s">
+      <c r="F310" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G310" s="11"/>
@@ -7396,7 +7165,7 @@
       <c r="E311" s="5">
         <v>95</v>
       </c>
-      <c r="F311" s="15" t="s">
+      <c r="F311" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G311" s="11"/>
@@ -7418,7 +7187,7 @@
       <c r="E312" s="5">
         <v>128</v>
       </c>
-      <c r="F312" s="15" t="s">
+      <c r="F312" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G312" s="11"/>
@@ -7440,7 +7209,7 @@
       <c r="E313" s="5">
         <v>136</v>
       </c>
-      <c r="F313" s="15" t="s">
+      <c r="F313" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G313" s="11"/>
@@ -7462,7 +7231,7 @@
       <c r="E314" s="5">
         <v>116</v>
       </c>
-      <c r="F314" s="15" t="s">
+      <c r="F314" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G314" s="11"/>
@@ -7484,7 +7253,7 @@
       <c r="E315" s="5">
         <v>159</v>
       </c>
-      <c r="F315" s="15" t="s">
+      <c r="F315" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G315" s="11"/>
@@ -7506,7 +7275,7 @@
       <c r="E316" s="5">
         <v>152</v>
       </c>
-      <c r="F316" s="15" t="s">
+      <c r="F316" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G316" s="11"/>
@@ -7528,7 +7297,7 @@
       <c r="E317" s="5">
         <v>129</v>
       </c>
-      <c r="F317" s="15" t="s">
+      <c r="F317" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G317" s="11"/>
@@ -7550,7 +7319,7 @@
       <c r="E318" s="5">
         <v>169</v>
       </c>
-      <c r="F318" s="15" t="s">
+      <c r="F318" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G318" s="11"/>
@@ -7572,7 +7341,7 @@
       <c r="E319" s="5">
         <v>178</v>
       </c>
-      <c r="F319" s="15" t="s">
+      <c r="F319" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G319" s="11"/>
@@ -7594,7 +7363,7 @@
       <c r="E320" s="5">
         <v>155</v>
       </c>
-      <c r="F320" s="15" t="s">
+      <c r="F320" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G320" s="11"/>
@@ -7616,7 +7385,7 @@
       <c r="E321" s="5">
         <v>161</v>
       </c>
-      <c r="F321" s="15" t="s">
+      <c r="F321" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G321" s="11"/>
@@ -7638,7 +7407,7 @@
       <c r="E322" s="5">
         <v>161</v>
       </c>
-      <c r="F322" s="15" t="s">
+      <c r="F322" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G322" s="11"/>
@@ -7660,7 +7429,7 @@
       <c r="E323" s="5">
         <v>131</v>
       </c>
-      <c r="F323" s="15" t="s">
+      <c r="F323" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G323" s="11"/>
@@ -7682,7 +7451,7 @@
       <c r="E324" s="5">
         <v>151</v>
       </c>
-      <c r="F324" s="15" t="s">
+      <c r="F324" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G324" s="11"/>
@@ -7704,7 +7473,7 @@
       <c r="E325" s="5">
         <v>141</v>
       </c>
-      <c r="F325" s="15" t="s">
+      <c r="F325" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G325" s="11"/>
@@ -7726,7 +7495,7 @@
       <c r="E326" s="5">
         <v>191</v>
       </c>
-      <c r="F326" s="15" t="s">
+      <c r="F326" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G326" s="11"/>
@@ -7748,7 +7517,7 @@
       <c r="E327" s="5">
         <v>197</v>
       </c>
-      <c r="F327" s="15" t="s">
+      <c r="F327" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G327" s="11"/>
@@ -7770,7 +7539,7 @@
       <c r="E328" s="5">
         <v>191</v>
       </c>
-      <c r="F328" s="15" t="s">
+      <c r="F328" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G328" s="11"/>
@@ -7792,7 +7561,7 @@
       <c r="E329" s="5">
         <v>207</v>
       </c>
-      <c r="F329" s="15" t="s">
+      <c r="F329" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G329" s="11"/>
@@ -7814,7 +7583,7 @@
       <c r="E330" s="5">
         <v>181</v>
       </c>
-      <c r="F330" s="15" t="s">
+      <c r="F330" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G330" s="11"/>
@@ -7836,7 +7605,7 @@
       <c r="E331" s="5">
         <v>182</v>
       </c>
-      <c r="F331" s="15" t="s">
+      <c r="F331" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G331" s="11"/>
@@ -7858,7 +7627,7 @@
       <c r="E332" s="5">
         <v>230</v>
       </c>
-      <c r="F332" s="15" t="s">
+      <c r="F332" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G332" s="11"/>
@@ -7880,7 +7649,7 @@
       <c r="E333" s="5">
         <v>258</v>
       </c>
-      <c r="F333" s="15" t="s">
+      <c r="F333" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G333" s="11"/>
@@ -7902,7 +7671,7 @@
       <c r="E334" s="5">
         <v>263</v>
       </c>
-      <c r="F334" s="15" t="s">
+      <c r="F334" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G334" s="11"/>
@@ -7924,7 +7693,7 @@
       <c r="E335" s="5">
         <v>259</v>
       </c>
-      <c r="F335" s="15" t="s">
+      <c r="F335" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G335" s="11"/>
@@ -7946,7 +7715,7 @@
       <c r="E336" s="5">
         <v>207</v>
       </c>
-      <c r="F336" s="15" t="s">
+      <c r="F336" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G336" s="11"/>
@@ -7968,7 +7737,7 @@
       <c r="E337" s="5">
         <v>399</v>
       </c>
-      <c r="F337" s="15" t="s">
+      <c r="F337" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G337" s="11"/>
@@ -7990,7 +7759,7 @@
       <c r="E338" s="5">
         <v>409</v>
       </c>
-      <c r="F338" s="15" t="s">
+      <c r="F338" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G338" s="11"/>
@@ -8012,7 +7781,7 @@
       <c r="E339" s="5">
         <v>391</v>
       </c>
-      <c r="F339" s="15" t="s">
+      <c r="F339" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G339" s="11"/>
@@ -8034,7 +7803,7 @@
       <c r="E340" s="5">
         <v>441</v>
       </c>
-      <c r="F340" s="15" t="s">
+      <c r="F340" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G340" s="11"/>
@@ -8056,7 +7825,7 @@
       <c r="E341" s="5">
         <v>522</v>
       </c>
-      <c r="F341" s="15" t="s">
+      <c r="F341" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G341" s="11"/>
@@ -8078,7 +7847,7 @@
       <c r="E342" s="5">
         <v>478</v>
       </c>
-      <c r="F342" s="15" t="s">
+      <c r="F342" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G342" s="11"/>
@@ -8100,7 +7869,7 @@
       <c r="E343" s="5">
         <v>489</v>
       </c>
-      <c r="F343" s="15" t="s">
+      <c r="F343" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G343" s="11"/>
@@ -8122,7 +7891,7 @@
       <c r="E344" s="5">
         <v>507</v>
       </c>
-      <c r="F344" s="15" t="s">
+      <c r="F344" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G344" s="11"/>
@@ -8144,7 +7913,7 @@
       <c r="E345" s="5">
         <v>507</v>
       </c>
-      <c r="F345" s="15" t="s">
+      <c r="F345" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G345" s="11"/>
@@ -8166,7 +7935,7 @@
       <c r="E346" s="5">
         <v>511</v>
       </c>
-      <c r="F346" s="15" t="s">
+      <c r="F346" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G346" s="11"/>
@@ -8188,7 +7957,7 @@
       <c r="E347" s="5">
         <v>496</v>
       </c>
-      <c r="F347" s="15" t="s">
+      <c r="F347" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G347" s="11"/>
@@ -8210,7 +7979,7 @@
       <c r="E348" s="5">
         <v>477</v>
       </c>
-      <c r="F348" s="15" t="s">
+      <c r="F348" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G348" s="11"/>
@@ -8232,7 +8001,7 @@
       <c r="E349" s="5">
         <v>534</v>
       </c>
-      <c r="F349" s="15" t="s">
+      <c r="F349" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G349" s="11"/>
@@ -8254,7 +8023,7 @@
       <c r="E350" s="5">
         <v>474</v>
       </c>
-      <c r="F350" s="15" t="s">
+      <c r="F350" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G350" s="11"/>
@@ -8276,7 +8045,7 @@
       <c r="E351" s="5">
         <v>344</v>
       </c>
-      <c r="F351" s="15" t="s">
+      <c r="F351" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G351" s="11"/>
@@ -8298,7 +8067,7 @@
       <c r="E352" s="5">
         <v>428</v>
       </c>
-      <c r="F352" s="15" t="s">
+      <c r="F352" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G352" s="11"/>
@@ -8320,7 +8089,7 @@
       <c r="E353" s="5">
         <v>363</v>
       </c>
-      <c r="F353" s="15" t="s">
+      <c r="F353" s="19" t="s">
         <v>368</v>
       </c>
       <c r="G353" s="11"/>
@@ -8523,7 +8292,6 @@
         <v>326</v>
       </c>
       <c r="F363" s="11"/>
-      <c r="G363" s="11"/>
     </row>
     <row r="364" spans="1:8">
       <c r="A364" s="12" t="s">
@@ -8542,7 +8310,6 @@
         <v>212</v>
       </c>
       <c r="F364" s="11"/>
-      <c r="G364" s="11"/>
     </row>
     <row r="365" spans="1:8">
       <c r="A365" s="12" t="s">
@@ -8561,7 +8328,6 @@
         <v>219</v>
       </c>
       <c r="F365" s="11"/>
-      <c r="G365" s="11"/>
     </row>
     <row r="366" spans="1:8">
       <c r="A366" s="12" t="s">
@@ -8580,7 +8346,6 @@
         <v>229</v>
       </c>
       <c r="F366" s="11"/>
-      <c r="G366" s="11"/>
     </row>
     <row r="367" spans="1:8">
       <c r="A367" s="12" t="s">
@@ -8599,7 +8364,6 @@
         <v>197</v>
       </c>
       <c r="F367" s="11"/>
-      <c r="G367" s="11"/>
     </row>
     <row r="368" spans="1:8">
       <c r="A368" s="12" t="s">
@@ -8618,9 +8382,8 @@
         <v>246</v>
       </c>
       <c r="F368" s="11"/>
-      <c r="G368" s="11"/>
-    </row>
-    <row r="369" spans="1:7">
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369" s="12" t="s">
         <v>377</v>
       </c>
@@ -8637,9 +8400,8 @@
         <v>256</v>
       </c>
       <c r="F369" s="11"/>
-      <c r="G369" s="11"/>
-    </row>
-    <row r="370" spans="1:7">
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370" s="12" t="s">
         <v>378</v>
       </c>
@@ -8656,9 +8418,8 @@
         <v>214</v>
       </c>
       <c r="F370" s="11"/>
-      <c r="G370" s="11"/>
-    </row>
-    <row r="371" spans="1:7">
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371" s="12" t="s">
         <v>379</v>
       </c>
@@ -8675,9 +8436,8 @@
         <v>199</v>
       </c>
       <c r="F371" s="11"/>
-      <c r="G371" s="11"/>
-    </row>
-    <row r="372" spans="1:7">
+    </row>
+    <row r="372" spans="1:6">
       <c r="A372" s="12" t="s">
         <v>380</v>
       </c>
@@ -8694,9 +8454,8 @@
         <v>177</v>
       </c>
       <c r="F372" s="11"/>
-      <c r="G372" s="11"/>
-    </row>
-    <row r="373" spans="1:7">
+    </row>
+    <row r="373" spans="1:6">
       <c r="A373" s="12" t="s">
         <v>381</v>
       </c>
@@ -8713,9 +8472,8 @@
         <v>197</v>
       </c>
       <c r="F373" s="11"/>
-      <c r="G373" s="11"/>
-    </row>
-    <row r="374" spans="1:7">
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374" s="12" t="s">
         <v>382</v>
       </c>
@@ -8732,106 +8490,204 @@
         <v>202</v>
       </c>
       <c r="F374" s="11"/>
-      <c r="G374" s="11"/>
-    </row>
-    <row r="375" spans="1:7">
-      <c r="A375" s="11"/>
-      <c r="B375" s="11"/>
-      <c r="C375" s="11"/>
-      <c r="D375" s="11"/>
-      <c r="E375" s="11"/>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B375" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D375" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E375" s="5">
+        <v>149</v>
+      </c>
       <c r="F375" s="11"/>
-      <c r="G375" s="11"/>
-    </row>
-    <row r="376" spans="1:7">
-      <c r="A376" s="11"/>
-      <c r="B376" s="11"/>
-      <c r="C376" s="11"/>
-      <c r="D376" s="11"/>
-      <c r="E376" s="11"/>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B376" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D376" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E376" s="5">
+        <v>162</v>
+      </c>
       <c r="F376" s="11"/>
-      <c r="G376" s="11"/>
-    </row>
-    <row r="377" spans="1:7">
-      <c r="A377" s="11"/>
-      <c r="B377" s="11"/>
-      <c r="C377" s="11"/>
-      <c r="D377" s="11"/>
-      <c r="E377" s="11"/>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B377" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D377" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E377" s="5">
+        <v>153</v>
+      </c>
       <c r="F377" s="11"/>
-      <c r="G377" s="11"/>
-    </row>
-    <row r="378" spans="1:7">
-      <c r="A378" s="11"/>
-      <c r="B378" s="11"/>
-      <c r="C378" s="11"/>
-      <c r="D378" s="11"/>
-      <c r="E378" s="11"/>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B378" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D378" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E378" s="5">
+        <v>178</v>
+      </c>
       <c r="F378" s="11"/>
-      <c r="G378" s="11"/>
-    </row>
-    <row r="379" spans="1:7">
-      <c r="A379" s="11"/>
-      <c r="B379" s="11"/>
-      <c r="C379" s="11"/>
-      <c r="D379" s="11"/>
-      <c r="E379" s="11"/>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B379" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D379" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E379" s="5">
+        <v>146</v>
+      </c>
       <c r="F379" s="11"/>
-      <c r="G379" s="11"/>
-    </row>
-    <row r="380" spans="1:7">
-      <c r="A380" s="11"/>
-      <c r="B380" s="11"/>
-      <c r="C380" s="11"/>
-      <c r="D380" s="11"/>
-      <c r="E380" s="11"/>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B380" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D380" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E380" s="5">
+        <v>119</v>
+      </c>
       <c r="F380" s="11"/>
-      <c r="G380" s="11"/>
-    </row>
-    <row r="381" spans="1:7">
-      <c r="A381" s="11"/>
-      <c r="B381" s="11"/>
-      <c r="C381" s="11"/>
-      <c r="D381" s="11"/>
-      <c r="E381" s="11"/>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B381" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D381" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E381" s="5">
+        <v>196</v>
+      </c>
       <c r="F381" s="11"/>
-      <c r="G381" s="11"/>
-    </row>
-    <row r="382" spans="1:7">
+    </row>
+    <row r="382" spans="1:6">
       <c r="A382" s="11"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
       <c r="D382" s="11"/>
       <c r="E382" s="11"/>
       <c r="F382" s="11"/>
-      <c r="G382" s="11"/>
-    </row>
-    <row r="383" spans="1:7">
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383" s="11"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
       <c r="D383" s="11"/>
       <c r="E383" s="11"/>
       <c r="F383" s="11"/>
-      <c r="G383" s="11"/>
-    </row>
-    <row r="384" spans="1:7">
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384" s="11"/>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
       <c r="D384" s="11"/>
       <c r="E384" s="11"/>
       <c r="F384" s="11"/>
-      <c r="G384" s="11"/>
-    </row>
-    <row r="385" spans="1:7">
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385" s="11"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
       <c r="D385" s="11"/>
       <c r="E385" s="11"/>
       <c r="F385" s="11"/>
-      <c r="G385" s="11"/>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" s="11"/>
+      <c r="B386" s="11"/>
+      <c r="C386" s="11"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="11"/>
+      <c r="F386" s="11"/>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" s="11"/>
+      <c r="B387" s="11"/>
+      <c r="C387" s="11"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="11"/>
+      <c r="F387" s="11"/>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" s="11"/>
+      <c r="B388" s="11"/>
+      <c r="C388" s="11"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="11"/>
+      <c r="F388" s="11"/>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="11"/>
+      <c r="B389" s="11"/>
+      <c r="C389" s="11"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="11"/>
+      <c r="F389" s="11"/>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="11"/>
+      <c r="B390" s="11"/>
+      <c r="C390" s="11"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="11"/>
+      <c r="F390" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8839,7 +8695,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C帰国者・接触者相談センター相談件数</oddHeader>
   </headerFooter>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="10320" windowHeight="7500"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="12045" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$365:$E$381</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$368:$E$390</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="397">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1312,6 +1312,27 @@
   </si>
   <si>
     <t>2021-02-14</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
   </si>
 </sst>
 </file>
@@ -1781,11 +1802,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I390"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A372" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D380" sqref="D380"/>
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C387" sqref="C387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8383,7 +8404,7 @@
       </c>
       <c r="F368" s="11"/>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:8">
       <c r="A369" s="12" t="s">
         <v>377</v>
       </c>
@@ -8401,7 +8422,7 @@
       </c>
       <c r="F369" s="11"/>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:8">
       <c r="A370" s="12" t="s">
         <v>378</v>
       </c>
@@ -8419,7 +8440,7 @@
       </c>
       <c r="F370" s="11"/>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:8">
       <c r="A371" s="12" t="s">
         <v>379</v>
       </c>
@@ -8437,7 +8458,7 @@
       </c>
       <c r="F371" s="11"/>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:8">
       <c r="A372" s="12" t="s">
         <v>380</v>
       </c>
@@ -8455,7 +8476,7 @@
       </c>
       <c r="F372" s="11"/>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:8">
       <c r="A373" s="12" t="s">
         <v>381</v>
       </c>
@@ -8473,7 +8494,7 @@
       </c>
       <c r="F373" s="11"/>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:8">
       <c r="A374" s="12" t="s">
         <v>382</v>
       </c>
@@ -8491,7 +8512,7 @@
       </c>
       <c r="F374" s="11"/>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:8">
       <c r="A375" s="12" t="s">
         <v>383</v>
       </c>
@@ -8509,7 +8530,7 @@
       </c>
       <c r="F375" s="11"/>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:8">
       <c r="A376" s="12" t="s">
         <v>384</v>
       </c>
@@ -8527,7 +8548,7 @@
       </c>
       <c r="F376" s="11"/>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:8">
       <c r="A377" s="12" t="s">
         <v>385</v>
       </c>
@@ -8545,7 +8566,7 @@
       </c>
       <c r="F377" s="11"/>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:8">
       <c r="A378" s="12" t="s">
         <v>386</v>
       </c>
@@ -8562,8 +8583,10 @@
         <v>178</v>
       </c>
       <c r="F378" s="11"/>
-    </row>
-    <row r="379" spans="1:6">
+      <c r="G378" s="11"/>
+      <c r="H378" s="11"/>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" s="12" t="s">
         <v>387</v>
       </c>
@@ -8580,8 +8603,10 @@
         <v>146</v>
       </c>
       <c r="F379" s="11"/>
-    </row>
-    <row r="380" spans="1:6">
+      <c r="G379" s="11"/>
+      <c r="H379" s="11"/>
+    </row>
+    <row r="380" spans="1:8">
       <c r="A380" s="12" t="s">
         <v>388</v>
       </c>
@@ -8598,8 +8623,10 @@
         <v>119</v>
       </c>
       <c r="F380" s="11"/>
-    </row>
-    <row r="381" spans="1:6">
+      <c r="G380" s="11"/>
+      <c r="H380" s="11"/>
+    </row>
+    <row r="381" spans="1:8">
       <c r="A381" s="12" t="s">
         <v>389</v>
       </c>
@@ -8616,78 +8643,248 @@
         <v>196</v>
       </c>
       <c r="F381" s="11"/>
-    </row>
-    <row r="382" spans="1:6">
-      <c r="A382" s="11"/>
-      <c r="B382" s="11"/>
-      <c r="C382" s="11"/>
-      <c r="D382" s="11"/>
-      <c r="E382" s="11"/>
+      <c r="G381" s="11"/>
+      <c r="H381" s="11"/>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B382" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D382" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E382" s="5">
+        <v>144</v>
+      </c>
       <c r="F382" s="11"/>
-    </row>
-    <row r="383" spans="1:6">
-      <c r="A383" s="11"/>
-      <c r="B383" s="11"/>
-      <c r="C383" s="11"/>
-      <c r="D383" s="11"/>
-      <c r="E383" s="11"/>
+      <c r="G382" s="11"/>
+      <c r="H382" s="11"/>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B383" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D383" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E383" s="5">
+        <v>173</v>
+      </c>
       <c r="F383" s="11"/>
-    </row>
-    <row r="384" spans="1:6">
-      <c r="A384" s="11"/>
-      <c r="B384" s="11"/>
-      <c r="C384" s="11"/>
-      <c r="D384" s="11"/>
-      <c r="E384" s="11"/>
+      <c r="G383" s="11"/>
+      <c r="H383" s="11"/>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B384" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D384" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E384" s="5">
+        <v>163</v>
+      </c>
       <c r="F384" s="11"/>
-    </row>
-    <row r="385" spans="1:6">
-      <c r="A385" s="11"/>
-      <c r="B385" s="11"/>
-      <c r="C385" s="11"/>
-      <c r="D385" s="11"/>
-      <c r="E385" s="11"/>
+      <c r="G384" s="11"/>
+      <c r="H384" s="11"/>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B385" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D385" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E385" s="5">
+        <v>115</v>
+      </c>
       <c r="F385" s="11"/>
-    </row>
-    <row r="386" spans="1:6">
-      <c r="A386" s="11"/>
-      <c r="B386" s="11"/>
-      <c r="C386" s="11"/>
-      <c r="D386" s="11"/>
-      <c r="E386" s="11"/>
+      <c r="G385" s="11"/>
+      <c r="H385" s="11"/>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B386" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D386" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E386" s="5">
+        <v>170</v>
+      </c>
       <c r="F386" s="11"/>
-    </row>
-    <row r="387" spans="1:6">
-      <c r="A387" s="11"/>
-      <c r="B387" s="11"/>
-      <c r="C387" s="11"/>
-      <c r="D387" s="11"/>
-      <c r="E387" s="11"/>
+      <c r="G386" s="11"/>
+      <c r="H386" s="11"/>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B387" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D387" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E387" s="5">
+        <v>166</v>
+      </c>
       <c r="F387" s="11"/>
-    </row>
-    <row r="388" spans="1:6">
-      <c r="A388" s="11"/>
-      <c r="B388" s="11"/>
-      <c r="C388" s="11"/>
-      <c r="D388" s="11"/>
-      <c r="E388" s="11"/>
+      <c r="G387" s="11"/>
+      <c r="H387" s="11"/>
+    </row>
+    <row r="388" spans="1:8">
+      <c r="A388" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B388" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D388" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E388" s="5">
+        <v>177</v>
+      </c>
       <c r="F388" s="11"/>
-    </row>
-    <row r="389" spans="1:6">
+      <c r="G388" s="11"/>
+      <c r="H388" s="11"/>
+    </row>
+    <row r="389" spans="1:8">
       <c r="A389" s="11"/>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
       <c r="D389" s="11"/>
       <c r="E389" s="11"/>
       <c r="F389" s="11"/>
-    </row>
-    <row r="390" spans="1:6">
+      <c r="G389" s="11"/>
+      <c r="H389" s="11"/>
+    </row>
+    <row r="390" spans="1:8">
       <c r="A390" s="11"/>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
       <c r="D390" s="11"/>
       <c r="E390" s="11"/>
       <c r="F390" s="11"/>
+      <c r="G390" s="11"/>
+      <c r="H390" s="11"/>
+    </row>
+    <row r="391" spans="1:8">
+      <c r="A391" s="11"/>
+      <c r="B391" s="11"/>
+      <c r="C391" s="11"/>
+      <c r="D391" s="11"/>
+      <c r="E391" s="11"/>
+      <c r="F391" s="11"/>
+      <c r="G391" s="11"/>
+      <c r="H391" s="11"/>
+    </row>
+    <row r="392" spans="1:8">
+      <c r="A392" s="11"/>
+      <c r="B392" s="11"/>
+      <c r="C392" s="11"/>
+      <c r="D392" s="11"/>
+      <c r="E392" s="11"/>
+      <c r="F392" s="11"/>
+      <c r="G392" s="11"/>
+      <c r="H392" s="11"/>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393" s="11"/>
+      <c r="B393" s="11"/>
+      <c r="C393" s="11"/>
+      <c r="D393" s="11"/>
+      <c r="E393" s="11"/>
+      <c r="F393" s="11"/>
+      <c r="G393" s="11"/>
+      <c r="H393" s="11"/>
+    </row>
+    <row r="394" spans="1:8">
+      <c r="A394" s="11"/>
+      <c r="B394" s="11"/>
+      <c r="C394" s="11"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="11"/>
+      <c r="F394" s="11"/>
+      <c r="G394" s="11"/>
+      <c r="H394" s="11"/>
+    </row>
+    <row r="395" spans="1:8">
+      <c r="A395" s="11"/>
+      <c r="B395" s="11"/>
+      <c r="C395" s="11"/>
+      <c r="D395" s="11"/>
+      <c r="E395" s="11"/>
+      <c r="F395" s="11"/>
+      <c r="G395" s="11"/>
+      <c r="H395" s="11"/>
+    </row>
+    <row r="396" spans="1:8">
+      <c r="A396" s="11"/>
+      <c r="B396" s="11"/>
+      <c r="C396" s="11"/>
+      <c r="D396" s="11"/>
+      <c r="E396" s="11"/>
+      <c r="F396" s="11"/>
+      <c r="G396" s="11"/>
+      <c r="H396" s="11"/>
+    </row>
+    <row r="397" spans="1:8">
+      <c r="A397" s="11"/>
+      <c r="B397" s="11"/>
+      <c r="C397" s="11"/>
+      <c r="D397" s="11"/>
+      <c r="E397" s="11"/>
+      <c r="F397" s="11"/>
+      <c r="G397" s="11"/>
+      <c r="H397" s="11"/>
+    </row>
+    <row r="398" spans="1:8">
+      <c r="A398" s="11"/>
+      <c r="B398" s="11"/>
+      <c r="C398" s="11"/>
+      <c r="D398" s="11"/>
+      <c r="E398" s="11"/>
+      <c r="F398" s="11"/>
+      <c r="G398" s="11"/>
+      <c r="H398" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="12045" windowHeight="4455"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="10575" windowHeight="6315"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$368:$E$390</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$409</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="418">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1106,9 +1106,6 @@
     <t>2020-12-12</t>
   </si>
   <si>
-    <t>2020-12-13</t>
-  </si>
-  <si>
     <t>2020-12-14</t>
   </si>
   <si>
@@ -1236,103 +1233,171 @@
     <t>2021-01-24</t>
   </si>
   <si>
-    <t>※2月12日訂正</t>
-    <rPh sb="2" eb="3">
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-01-26</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021-02-10</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>2021-02-12</t>
+  </si>
+  <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
+    <t>2021-02-14</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-02-19</t>
+  </si>
+  <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>3月30日修正</t>
+    <rPh sb="1" eb="2">
       <t>ガツ</t>
     </rPh>
-    <rPh sb="5" eb="6">
+    <rPh sb="4" eb="5">
       <t>ニチ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>テイセイ</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2021-01-25</t>
-  </si>
-  <si>
-    <t>2021-01-26</t>
-  </si>
-  <si>
-    <t>2021-01-27</t>
-  </si>
-  <si>
-    <t>2021-01-28</t>
-  </si>
-  <si>
-    <t>2021-01-29</t>
-  </si>
-  <si>
-    <t>2021-01-30</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>2021-02-03</t>
-  </si>
-  <si>
-    <t>2021-02-04</t>
-  </si>
-  <si>
-    <t>2021-02-05</t>
-  </si>
-  <si>
-    <t>2021-02-06</t>
-  </si>
-  <si>
-    <t>2021-02-07</t>
-  </si>
-  <si>
-    <t>2021-02-08</t>
-  </si>
-  <si>
-    <t>2021-02-09</t>
-  </si>
-  <si>
-    <t>2021-02-10</t>
-  </si>
-  <si>
-    <t>2021-02-11</t>
-  </si>
-  <si>
-    <t>2021-02-12</t>
-  </si>
-  <si>
-    <t>2021-02-13</t>
-  </si>
-  <si>
-    <t>2021-02-14</t>
-  </si>
-  <si>
-    <t>2021-02-15</t>
-  </si>
-  <si>
-    <t>2021-02-16</t>
-  </si>
-  <si>
-    <t>2021-02-17</t>
-  </si>
-  <si>
-    <t>2021-02-18</t>
-  </si>
-  <si>
-    <t>2021-02-19</t>
-  </si>
-  <si>
-    <t>2021-02-20</t>
-  </si>
-  <si>
-    <t>2021-02-21</t>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021-02-26</t>
+  </si>
+  <si>
+    <t>2021-02-27</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021-03-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-03-2</t>
+  </si>
+  <si>
+    <t>2021-03-3</t>
+  </si>
+  <si>
+    <t>2021-03-4</t>
+  </si>
+  <si>
+    <t>2021-03-5</t>
+  </si>
+  <si>
+    <t>2021-03-6</t>
+  </si>
+  <si>
+    <t>2021-03-7</t>
+  </si>
+  <si>
+    <t>2021-03-8</t>
+  </si>
+  <si>
+    <t>2021-03-9</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-03-11</t>
+  </si>
+  <si>
+    <t>2021-03-12</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>2021-03-14</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1395,7 +1460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1468,11 +1533,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1504,7 +1591,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1802,11 +1894,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I398"/>
+  <dimension ref="A1:G409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C387" sqref="C387"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E327" sqref="E327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1816,6 +1908,7 @@
     <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="20.875" customWidth="1"/>
     <col min="5" max="5" width="24.125" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1848,7 +1941,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="23" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1865,7 +1958,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -1880,7 +1973,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -5350,7 +5443,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:7">
       <c r="A209" s="9" t="s">
         <v>215</v>
       </c>
@@ -5367,7 +5460,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:7">
       <c r="A210" s="9" t="s">
         <v>216</v>
       </c>
@@ -5384,7 +5477,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:7">
       <c r="A211" s="9" t="s">
         <v>217</v>
       </c>
@@ -5401,7 +5494,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:7">
       <c r="A212" s="9" t="s">
         <v>218</v>
       </c>
@@ -5418,7 +5511,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:7">
       <c r="A213" s="9" t="s">
         <v>219</v>
       </c>
@@ -5435,7 +5528,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:7">
       <c r="A214" s="9" t="s">
         <v>220</v>
       </c>
@@ -5452,7 +5545,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="11" customFormat="1">
+    <row r="215" spans="1:7" s="11" customFormat="1">
       <c r="A215" s="12" t="s">
         <v>221</v>
       </c>
@@ -5469,7 +5562,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="11" customFormat="1">
+    <row r="216" spans="1:7" s="11" customFormat="1">
       <c r="A216" s="12" t="s">
         <v>222</v>
       </c>
@@ -5486,7 +5579,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="11" customFormat="1">
+    <row r="217" spans="1:7" s="11" customFormat="1">
       <c r="A217" s="12" t="s">
         <v>223</v>
       </c>
@@ -5503,7 +5596,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:7">
       <c r="A218" s="12" t="s">
         <v>224</v>
       </c>
@@ -5520,7 +5613,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:7">
       <c r="A219" s="12" t="s">
         <v>225</v>
       </c>
@@ -5537,7 +5630,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:7">
       <c r="A220" s="12" t="s">
         <v>226</v>
       </c>
@@ -5554,7 +5647,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:7">
       <c r="A221" s="12" t="s">
         <v>227</v>
       </c>
@@ -5571,7 +5664,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:7">
       <c r="A222" s="16" t="s">
         <v>228</v>
       </c>
@@ -5587,11 +5680,11 @@
       <c r="E222" s="6">
         <v>130</v>
       </c>
-      <c r="I222" t="s">
+      <c r="G222" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:7">
       <c r="A223" s="12" t="s">
         <v>229</v>
       </c>
@@ -5609,7 +5702,7 @@
       </c>
       <c r="F223" s="15"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:7">
       <c r="A224" s="12" t="s">
         <v>230</v>
       </c>
@@ -6171,7 +6264,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:6">
       <c r="A257" s="12" t="s">
         <v>264</v>
       </c>
@@ -6188,7 +6281,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:6">
       <c r="A258" s="12" t="s">
         <v>265</v>
       </c>
@@ -6205,7 +6298,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:6">
       <c r="A259" s="12" t="s">
         <v>266</v>
       </c>
@@ -6222,7 +6315,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:6">
       <c r="A260" s="12" t="s">
         <v>267</v>
       </c>
@@ -6239,7 +6332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:6">
       <c r="A261" s="12" t="s">
         <v>268</v>
       </c>
@@ -6256,7 +6349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:6">
       <c r="A262" s="12" t="s">
         <v>269</v>
       </c>
@@ -6273,7 +6366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:6">
       <c r="A263" s="12" t="s">
         <v>270</v>
       </c>
@@ -6290,7 +6383,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:6">
       <c r="A264" s="12" t="s">
         <v>271</v>
       </c>
@@ -6307,7 +6400,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:6">
       <c r="A265" s="12" t="s">
         <v>272</v>
       </c>
@@ -6324,7 +6417,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:6">
       <c r="A266" s="12" t="s">
         <v>273</v>
       </c>
@@ -6341,7 +6434,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:6">
       <c r="A267" s="12" t="s">
         <v>274</v>
       </c>
@@ -6358,7 +6451,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:6">
       <c r="A268" s="12" t="s">
         <v>275</v>
       </c>
@@ -6375,7 +6468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:6">
       <c r="A269" s="12" t="s">
         <v>276</v>
       </c>
@@ -6392,7 +6485,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:6">
       <c r="A270" s="12" t="s">
         <v>277</v>
       </c>
@@ -6409,7 +6502,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:6">
       <c r="A271" s="12" t="s">
         <v>278</v>
       </c>
@@ -6426,7 +6519,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:6">
       <c r="A272" s="12" t="s">
         <v>279</v>
       </c>
@@ -6443,9 +6536,8 @@
         <v>114</v>
       </c>
       <c r="F272" s="11"/>
-      <c r="G272" s="11"/>
-    </row>
-    <row r="273" spans="1:8">
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="12" t="s">
         <v>280</v>
       </c>
@@ -6462,9 +6554,8 @@
         <v>76</v>
       </c>
       <c r="F273" s="11"/>
-      <c r="G273" s="11"/>
-    </row>
-    <row r="274" spans="1:8">
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="12" t="s">
         <v>281</v>
       </c>
@@ -6481,9 +6572,8 @@
         <v>96</v>
       </c>
       <c r="F274" s="11"/>
-      <c r="G274" s="11"/>
-    </row>
-    <row r="275" spans="1:8">
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="12" t="s">
         <v>282</v>
       </c>
@@ -6500,9 +6590,8 @@
         <v>79</v>
       </c>
       <c r="F275" s="11"/>
-      <c r="G275" s="11"/>
-    </row>
-    <row r="276" spans="1:8">
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="12" t="s">
         <v>283</v>
       </c>
@@ -6519,9 +6608,8 @@
         <v>81</v>
       </c>
       <c r="F276" s="11"/>
-      <c r="G276" s="11"/>
-    </row>
-    <row r="277" spans="1:8">
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="12" t="s">
         <v>284</v>
       </c>
@@ -6538,9 +6626,8 @@
         <v>113</v>
       </c>
       <c r="F277" s="11"/>
-      <c r="G277" s="11"/>
-    </row>
-    <row r="278" spans="1:8">
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="12" t="s">
         <v>285</v>
       </c>
@@ -6557,9 +6644,8 @@
         <v>92</v>
       </c>
       <c r="F278" s="11"/>
-      <c r="G278" s="11"/>
-    </row>
-    <row r="279" spans="1:8">
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="12" t="s">
         <v>286</v>
       </c>
@@ -6576,9 +6662,8 @@
         <v>142</v>
       </c>
       <c r="F279" s="11"/>
-      <c r="G279" s="11"/>
-    </row>
-    <row r="280" spans="1:8">
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="12" t="s">
         <v>287</v>
       </c>
@@ -6595,9 +6680,8 @@
         <v>75</v>
       </c>
       <c r="F280" s="11"/>
-      <c r="G280" s="11"/>
-    </row>
-    <row r="281" spans="1:8">
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="12" t="s">
         <v>288</v>
       </c>
@@ -6614,9 +6698,8 @@
         <v>140</v>
       </c>
       <c r="F281" s="11"/>
-      <c r="G281" s="11"/>
-    </row>
-    <row r="282" spans="1:8">
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="12" t="s">
         <v>289</v>
       </c>
@@ -6633,9 +6716,8 @@
         <v>140</v>
       </c>
       <c r="F282" s="11"/>
-      <c r="G282" s="11"/>
-    </row>
-    <row r="283" spans="1:8">
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="12" t="s">
         <v>290</v>
       </c>
@@ -6652,7 +6734,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:6">
       <c r="A284" s="12" t="s">
         <v>291</v>
       </c>
@@ -6669,7 +6751,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:6">
       <c r="A285" s="12" t="s">
         <v>292</v>
       </c>
@@ -6686,7 +6768,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:6">
       <c r="A286" s="12" t="s">
         <v>293</v>
       </c>
@@ -6703,10 +6785,8 @@
         <v>90</v>
       </c>
       <c r="F286" s="11"/>
-      <c r="G286" s="11"/>
-      <c r="H286" s="11"/>
-    </row>
-    <row r="287" spans="1:8">
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="12" t="s">
         <v>294</v>
       </c>
@@ -6723,10 +6803,8 @@
         <v>101</v>
       </c>
       <c r="F287" s="11"/>
-      <c r="G287" s="11"/>
-      <c r="H287" s="11"/>
-    </row>
-    <row r="288" spans="1:8">
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="12" t="s">
         <v>295</v>
       </c>
@@ -6743,10 +6821,8 @@
         <v>91</v>
       </c>
       <c r="F288" s="11"/>
-      <c r="G288" s="11"/>
-      <c r="H288" s="11"/>
-    </row>
-    <row r="289" spans="1:8">
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="12" t="s">
         <v>296</v>
       </c>
@@ -6763,10 +6839,8 @@
         <v>82</v>
       </c>
       <c r="F289" s="11"/>
-      <c r="G289" s="11"/>
-      <c r="H289" s="11"/>
-    </row>
-    <row r="290" spans="1:8">
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" s="12" t="s">
         <v>297</v>
       </c>
@@ -6783,10 +6857,8 @@
         <v>103</v>
       </c>
       <c r="F290" s="11"/>
-      <c r="G290" s="11"/>
-      <c r="H290" s="11"/>
-    </row>
-    <row r="291" spans="1:8">
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" s="12" t="s">
         <v>298</v>
       </c>
@@ -6803,10 +6875,8 @@
         <v>161</v>
       </c>
       <c r="F291" s="11"/>
-      <c r="G291" s="11"/>
-      <c r="H291" s="11"/>
-    </row>
-    <row r="292" spans="1:8">
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" s="12" t="s">
         <v>299</v>
       </c>
@@ -6823,10 +6893,9 @@
         <v>111</v>
       </c>
       <c r="F292" s="11"/>
-      <c r="G292" s="11"/>
-      <c r="H292" s="11"/>
-    </row>
-    <row r="293" spans="1:8">
+      <c r="G292" s="15"/>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" s="12" t="s">
         <v>300</v>
       </c>
@@ -6843,8 +6912,9 @@
         <v>132</v>
       </c>
       <c r="F293" s="11"/>
-    </row>
-    <row r="294" spans="1:8">
+      <c r="G293" s="15"/>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" s="12" t="s">
         <v>301</v>
       </c>
@@ -6861,8 +6931,9 @@
         <v>117</v>
       </c>
       <c r="F294" s="11"/>
-    </row>
-    <row r="295" spans="1:8">
+      <c r="G294" s="15"/>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" s="12" t="s">
         <v>302</v>
       </c>
@@ -6879,8 +6950,9 @@
         <v>78</v>
       </c>
       <c r="F295" s="11"/>
-    </row>
-    <row r="296" spans="1:8">
+      <c r="G295" s="15"/>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" s="12" t="s">
         <v>303</v>
       </c>
@@ -6897,8 +6969,9 @@
         <v>99</v>
       </c>
       <c r="F296" s="11"/>
-    </row>
-    <row r="297" spans="1:8">
+      <c r="G296" s="15"/>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" s="12" t="s">
         <v>304</v>
       </c>
@@ -6915,8 +6988,9 @@
         <v>106</v>
       </c>
       <c r="F297" s="11"/>
-    </row>
-    <row r="298" spans="1:8">
+      <c r="G297" s="15"/>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" s="12" t="s">
         <v>305</v>
       </c>
@@ -6933,8 +7007,9 @@
         <v>108</v>
       </c>
       <c r="F298" s="11"/>
-    </row>
-    <row r="299" spans="1:8">
+      <c r="G298" s="15"/>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" s="12" t="s">
         <v>306</v>
       </c>
@@ -6951,8 +7026,9 @@
         <v>104</v>
       </c>
       <c r="F299" s="11"/>
-    </row>
-    <row r="300" spans="1:8">
+      <c r="G299" s="15"/>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" s="12" t="s">
         <v>307</v>
       </c>
@@ -6968,8 +7044,9 @@
       <c r="E300" s="5">
         <v>107</v>
       </c>
-    </row>
-    <row r="301" spans="1:8">
+      <c r="G300" s="15"/>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" s="12" t="s">
         <v>308</v>
       </c>
@@ -6985,8 +7062,9 @@
       <c r="E301" s="5">
         <v>84</v>
       </c>
-    </row>
-    <row r="302" spans="1:8">
+      <c r="G301" s="15"/>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" s="12" t="s">
         <v>309</v>
       </c>
@@ -7002,8 +7080,9 @@
       <c r="E302" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="303" spans="1:8">
+      <c r="G302" s="15"/>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" s="12" t="s">
         <v>310</v>
       </c>
@@ -7019,8 +7098,9 @@
       <c r="E303" s="5">
         <v>111</v>
       </c>
-    </row>
-    <row r="304" spans="1:8">
+      <c r="G303" s="15"/>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" s="12" t="s">
         <v>311</v>
       </c>
@@ -7037,10 +7117,9 @@
         <v>106</v>
       </c>
       <c r="F304" s="11"/>
-      <c r="G304" s="11"/>
-      <c r="H304" s="11"/>
-    </row>
-    <row r="305" spans="1:8">
+      <c r="G304" s="15"/>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" s="12" t="s">
         <v>312</v>
       </c>
@@ -7057,10 +7136,9 @@
         <v>76</v>
       </c>
       <c r="F305" s="11"/>
-      <c r="G305" s="11"/>
-      <c r="H305" s="11"/>
-    </row>
-    <row r="306" spans="1:8">
+      <c r="G305" s="15"/>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" s="12" t="s">
         <v>313</v>
       </c>
@@ -7076,13 +7154,10 @@
       <c r="E306" s="5">
         <v>108</v>
       </c>
-      <c r="F306" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G306" s="11"/>
-      <c r="H306" s="11"/>
-    </row>
-    <row r="307" spans="1:8">
+      <c r="F306" s="11"/>
+      <c r="G306" s="15"/>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" s="12" t="s">
         <v>314</v>
       </c>
@@ -7098,13 +7173,10 @@
       <c r="E307" s="5">
         <v>135</v>
       </c>
-      <c r="F307" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G307" s="11"/>
-      <c r="H307" s="11"/>
-    </row>
-    <row r="308" spans="1:8">
+      <c r="F307" s="11"/>
+      <c r="G307" s="15"/>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="12" t="s">
         <v>315</v>
       </c>
@@ -7120,13 +7192,10 @@
       <c r="E308" s="5">
         <v>88</v>
       </c>
-      <c r="F308" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G308" s="11"/>
-      <c r="H308" s="11"/>
-    </row>
-    <row r="309" spans="1:8">
+      <c r="F308" s="11"/>
+      <c r="G308" s="15"/>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="12" t="s">
         <v>316</v>
       </c>
@@ -7142,13 +7211,10 @@
       <c r="E309" s="5">
         <v>106</v>
       </c>
-      <c r="F309" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G309" s="11"/>
-      <c r="H309" s="11"/>
-    </row>
-    <row r="310" spans="1:8">
+      <c r="F309" s="11"/>
+      <c r="G309" s="15"/>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="12" t="s">
         <v>317</v>
       </c>
@@ -7164,13 +7230,10 @@
       <c r="E310" s="5">
         <v>84</v>
       </c>
-      <c r="F310" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G310" s="11"/>
-      <c r="H310" s="11"/>
-    </row>
-    <row r="311" spans="1:8">
+      <c r="F310" s="11"/>
+      <c r="G310" s="15"/>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" s="12" t="s">
         <v>318</v>
       </c>
@@ -7186,13 +7249,10 @@
       <c r="E311" s="5">
         <v>95</v>
       </c>
-      <c r="F311" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G311" s="11"/>
-      <c r="H311" s="11"/>
-    </row>
-    <row r="312" spans="1:8">
+      <c r="F311" s="11"/>
+      <c r="G311" s="15"/>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="12" t="s">
         <v>319</v>
       </c>
@@ -7208,13 +7268,10 @@
       <c r="E312" s="5">
         <v>128</v>
       </c>
-      <c r="F312" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G312" s="11"/>
-      <c r="H312" s="11"/>
-    </row>
-    <row r="313" spans="1:8">
+      <c r="F312" s="11"/>
+      <c r="G312" s="15"/>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313" s="12" t="s">
         <v>320</v>
       </c>
@@ -7230,13 +7287,10 @@
       <c r="E313" s="5">
         <v>136</v>
       </c>
-      <c r="F313" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G313" s="11"/>
-      <c r="H313" s="11"/>
-    </row>
-    <row r="314" spans="1:8">
+      <c r="F313" s="11"/>
+      <c r="G313" s="15"/>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" s="12" t="s">
         <v>321</v>
       </c>
@@ -7252,13 +7306,10 @@
       <c r="E314" s="5">
         <v>116</v>
       </c>
-      <c r="F314" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G314" s="11"/>
-      <c r="H314" s="11"/>
-    </row>
-    <row r="315" spans="1:8">
+      <c r="F314" s="11"/>
+      <c r="G314" s="15"/>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" s="12" t="s">
         <v>322</v>
       </c>
@@ -7274,13 +7325,10 @@
       <c r="E315" s="5">
         <v>159</v>
       </c>
-      <c r="F315" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G315" s="11"/>
-      <c r="H315" s="11"/>
-    </row>
-    <row r="316" spans="1:8">
+      <c r="F315" s="11"/>
+      <c r="G315" s="15"/>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" s="12" t="s">
         <v>323</v>
       </c>
@@ -7296,13 +7344,10 @@
       <c r="E316" s="5">
         <v>152</v>
       </c>
-      <c r="F316" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G316" s="11"/>
-      <c r="H316" s="11"/>
-    </row>
-    <row r="317" spans="1:8">
+      <c r="F316" s="11"/>
+      <c r="G316" s="15"/>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" s="12" t="s">
         <v>324</v>
       </c>
@@ -7318,37 +7363,33 @@
       <c r="E317" s="5">
         <v>129</v>
       </c>
-      <c r="F317" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G317" s="11"/>
-      <c r="H317" s="11"/>
-    </row>
-    <row r="318" spans="1:8">
+      <c r="F317" s="11"/>
+      <c r="G317" s="15"/>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="B318" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D318" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E318" s="5">
+        <v>171</v>
+      </c>
+      <c r="F318" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G318" s="15"/>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="12" t="s">
         <v>325</v>
-      </c>
-      <c r="B318" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C318" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D318" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E318" s="5">
-        <v>169</v>
-      </c>
-      <c r="F318" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G318" s="11"/>
-      <c r="H318" s="11"/>
-    </row>
-    <row r="319" spans="1:8">
-      <c r="A319" s="12" t="s">
-        <v>326</v>
       </c>
       <c r="B319" s="5">
         <v>430005</v>
@@ -7362,15 +7403,12 @@
       <c r="E319" s="5">
         <v>178</v>
       </c>
-      <c r="F319" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G319" s="11"/>
-      <c r="H319" s="11"/>
-    </row>
-    <row r="320" spans="1:8">
+      <c r="F319" s="11"/>
+      <c r="G319" s="15"/>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B320" s="5">
         <v>430005</v>
@@ -7384,15 +7422,12 @@
       <c r="E320" s="5">
         <v>155</v>
       </c>
-      <c r="F320" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G320" s="11"/>
-      <c r="H320" s="11"/>
-    </row>
-    <row r="321" spans="1:8">
+      <c r="F320" s="11"/>
+      <c r="G320" s="15"/>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B321" s="5">
         <v>430005</v>
@@ -7406,15 +7441,12 @@
       <c r="E321" s="5">
         <v>161</v>
       </c>
-      <c r="F321" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G321" s="11"/>
-      <c r="H321" s="11"/>
-    </row>
-    <row r="322" spans="1:8">
+      <c r="F321" s="11"/>
+      <c r="G321" s="15"/>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B322" s="5">
         <v>430005</v>
@@ -7428,15 +7460,12 @@
       <c r="E322" s="5">
         <v>161</v>
       </c>
-      <c r="F322" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G322" s="11"/>
-      <c r="H322" s="11"/>
-    </row>
-    <row r="323" spans="1:8">
+      <c r="F322" s="11"/>
+      <c r="G322" s="15"/>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B323" s="5">
         <v>430005</v>
@@ -7450,15 +7479,12 @@
       <c r="E323" s="5">
         <v>131</v>
       </c>
-      <c r="F323" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G323" s="11"/>
-      <c r="H323" s="11"/>
-    </row>
-    <row r="324" spans="1:8">
+      <c r="F323" s="11"/>
+      <c r="G323" s="15"/>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B324" s="5">
         <v>430005</v>
@@ -7472,15 +7498,12 @@
       <c r="E324" s="5">
         <v>151</v>
       </c>
-      <c r="F324" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G324" s="11"/>
-      <c r="H324" s="11"/>
-    </row>
-    <row r="325" spans="1:8">
+      <c r="F324" s="11"/>
+      <c r="G324" s="15"/>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B325" s="5">
         <v>430005</v>
@@ -7494,15 +7517,12 @@
       <c r="E325" s="5">
         <v>141</v>
       </c>
-      <c r="F325" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G325" s="11"/>
-      <c r="H325" s="11"/>
-    </row>
-    <row r="326" spans="1:8">
+      <c r="F325" s="11"/>
+      <c r="G325" s="15"/>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B326" s="5">
         <v>430005</v>
@@ -7516,15 +7536,12 @@
       <c r="E326" s="5">
         <v>191</v>
       </c>
-      <c r="F326" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G326" s="11"/>
-      <c r="H326" s="11"/>
-    </row>
-    <row r="327" spans="1:8">
+      <c r="F326" s="11"/>
+      <c r="G326" s="15"/>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B327" s="5">
         <v>430005</v>
@@ -7538,15 +7555,12 @@
       <c r="E327" s="5">
         <v>197</v>
       </c>
-      <c r="F327" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G327" s="11"/>
-      <c r="H327" s="11"/>
-    </row>
-    <row r="328" spans="1:8">
+      <c r="F327" s="11"/>
+      <c r="G327" s="15"/>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B328" s="5">
         <v>430005</v>
@@ -7560,15 +7574,12 @@
       <c r="E328" s="5">
         <v>191</v>
       </c>
-      <c r="F328" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G328" s="11"/>
-      <c r="H328" s="11"/>
-    </row>
-    <row r="329" spans="1:8">
+      <c r="F328" s="11"/>
+      <c r="G328" s="15"/>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B329" s="5">
         <v>430005</v>
@@ -7582,15 +7593,12 @@
       <c r="E329" s="5">
         <v>207</v>
       </c>
-      <c r="F329" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G329" s="11"/>
-      <c r="H329" s="11"/>
-    </row>
-    <row r="330" spans="1:8">
+      <c r="F329" s="11"/>
+      <c r="G329" s="15"/>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B330" s="5">
         <v>430005</v>
@@ -7604,15 +7612,12 @@
       <c r="E330" s="5">
         <v>181</v>
       </c>
-      <c r="F330" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G330" s="11"/>
-      <c r="H330" s="11"/>
-    </row>
-    <row r="331" spans="1:8">
+      <c r="F330" s="11"/>
+      <c r="G330" s="15"/>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B331" s="5">
         <v>430005</v>
@@ -7626,15 +7631,12 @@
       <c r="E331" s="5">
         <v>182</v>
       </c>
-      <c r="F331" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G331" s="11"/>
-      <c r="H331" s="11"/>
-    </row>
-    <row r="332" spans="1:8">
+      <c r="F331" s="11"/>
+      <c r="G331" s="15"/>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B332" s="5">
         <v>430005</v>
@@ -7648,59 +7650,54 @@
       <c r="E332" s="5">
         <v>230</v>
       </c>
-      <c r="F332" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G332" s="11"/>
-      <c r="H332" s="11"/>
-    </row>
-    <row r="333" spans="1:8">
+      <c r="F332" s="11"/>
+      <c r="G332" s="15"/>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B333" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C333" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D333" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E333" s="5">
+        <v>261</v>
+      </c>
+      <c r="F333" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G333" s="15"/>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B333" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C333" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D333" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E333" s="5">
-        <v>258</v>
-      </c>
-      <c r="F333" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G333" s="11"/>
-      <c r="H333" s="11"/>
-    </row>
-    <row r="334" spans="1:8">
-      <c r="A334" s="12" t="s">
+      <c r="B334" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C334" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D334" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E334" s="5">
+        <v>264</v>
+      </c>
+      <c r="F334" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G334" s="15"/>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="B334" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C334" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D334" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E334" s="5">
-        <v>263</v>
-      </c>
-      <c r="F334" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G334" s="11"/>
-      <c r="H334" s="11"/>
-    </row>
-    <row r="335" spans="1:8">
-      <c r="A335" s="12" t="s">
-        <v>342</v>
       </c>
       <c r="B335" s="5">
         <v>430005</v>
@@ -7714,81 +7711,75 @@
       <c r="E335" s="5">
         <v>259</v>
       </c>
-      <c r="F335" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G335" s="11"/>
-      <c r="H335" s="11"/>
-    </row>
-    <row r="336" spans="1:8">
+      <c r="F335" s="11"/>
+      <c r="G335" s="15"/>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B336" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C336" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D336" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E336" s="5">
+        <v>208</v>
+      </c>
+      <c r="F336" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G336" s="15"/>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="B336" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C336" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D336" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E336" s="5">
-        <v>207</v>
-      </c>
-      <c r="F336" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G336" s="11"/>
-      <c r="H336" s="11"/>
-    </row>
-    <row r="337" spans="1:8">
-      <c r="A337" s="12" t="s">
+      <c r="B337" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C337" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D337" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E337" s="5">
+        <v>402</v>
+      </c>
+      <c r="F337" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G337" s="15"/>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="B337" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C337" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D337" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E337" s="5">
-        <v>399</v>
-      </c>
-      <c r="F337" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G337" s="11"/>
-      <c r="H337" s="11"/>
-    </row>
-    <row r="338" spans="1:8">
-      <c r="A338" s="12" t="s">
+      <c r="B338" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C338" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D338" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E338" s="5">
+        <v>410</v>
+      </c>
+      <c r="F338" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G338" s="15"/>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="B338" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C338" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D338" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E338" s="5">
-        <v>409</v>
-      </c>
-      <c r="F338" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G338" s="11"/>
-      <c r="H338" s="11"/>
-    </row>
-    <row r="339" spans="1:8">
-      <c r="A339" s="12" t="s">
-        <v>346</v>
       </c>
       <c r="B339" s="5">
         <v>430005</v>
@@ -7802,37 +7793,33 @@
       <c r="E339" s="5">
         <v>391</v>
       </c>
-      <c r="F339" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G339" s="11"/>
-      <c r="H339" s="11"/>
-    </row>
-    <row r="340" spans="1:8">
+      <c r="F339" s="11"/>
+      <c r="G339" s="15"/>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B340" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C340" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D340" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E340" s="5">
+        <v>444</v>
+      </c>
+      <c r="F340" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G340" s="15"/>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="12" t="s">
         <v>347</v>
-      </c>
-      <c r="B340" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D340" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E340" s="5">
-        <v>441</v>
-      </c>
-      <c r="F340" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G340" s="11"/>
-      <c r="H340" s="11"/>
-    </row>
-    <row r="341" spans="1:8">
-      <c r="A341" s="12" t="s">
-        <v>348</v>
       </c>
       <c r="B341" s="5">
         <v>430005</v>
@@ -7846,15 +7833,12 @@
       <c r="E341" s="5">
         <v>522</v>
       </c>
-      <c r="F341" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G341" s="11"/>
-      <c r="H341" s="11"/>
-    </row>
-    <row r="342" spans="1:8">
+      <c r="F341" s="11"/>
+      <c r="G341" s="15"/>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B342" s="5">
         <v>430005</v>
@@ -7868,15 +7852,12 @@
       <c r="E342" s="5">
         <v>478</v>
       </c>
-      <c r="F342" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G342" s="11"/>
-      <c r="H342" s="11"/>
-    </row>
-    <row r="343" spans="1:8">
+      <c r="F342" s="11"/>
+      <c r="G342" s="15"/>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B343" s="5">
         <v>430005</v>
@@ -7890,15 +7871,12 @@
       <c r="E343" s="5">
         <v>489</v>
       </c>
-      <c r="F343" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G343" s="11"/>
-      <c r="H343" s="11"/>
-    </row>
-    <row r="344" spans="1:8">
+      <c r="F343" s="11"/>
+      <c r="G343" s="15"/>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B344" s="5">
         <v>430005</v>
@@ -7912,15 +7890,12 @@
       <c r="E344" s="5">
         <v>507</v>
       </c>
-      <c r="F344" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G344" s="11"/>
-      <c r="H344" s="11"/>
-    </row>
-    <row r="345" spans="1:8">
+      <c r="F344" s="11"/>
+      <c r="G344" s="15"/>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B345" s="5">
         <v>430005</v>
@@ -7934,15 +7909,12 @@
       <c r="E345" s="5">
         <v>507</v>
       </c>
-      <c r="F345" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G345" s="11"/>
-      <c r="H345" s="11"/>
-    </row>
-    <row r="346" spans="1:8">
+      <c r="F345" s="11"/>
+      <c r="G345" s="15"/>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B346" s="5">
         <v>430005</v>
@@ -7956,15 +7928,12 @@
       <c r="E346" s="5">
         <v>511</v>
       </c>
-      <c r="F346" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G346" s="11"/>
-      <c r="H346" s="11"/>
-    </row>
-    <row r="347" spans="1:8">
+      <c r="F346" s="11"/>
+      <c r="G346" s="15"/>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B347" s="5">
         <v>430005</v>
@@ -7978,15 +7947,12 @@
       <c r="E347" s="5">
         <v>496</v>
       </c>
-      <c r="F347" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G347" s="11"/>
-      <c r="H347" s="11"/>
-    </row>
-    <row r="348" spans="1:8">
+      <c r="F347" s="11"/>
+      <c r="G347" s="15"/>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B348" s="5">
         <v>430005</v>
@@ -8000,15 +7966,12 @@
       <c r="E348" s="5">
         <v>477</v>
       </c>
-      <c r="F348" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G348" s="11"/>
-      <c r="H348" s="11"/>
-    </row>
-    <row r="349" spans="1:8">
+      <c r="F348" s="11"/>
+      <c r="G348" s="15"/>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B349" s="5">
         <v>430005</v>
@@ -8022,15 +7985,12 @@
       <c r="E349" s="5">
         <v>534</v>
       </c>
-      <c r="F349" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G349" s="11"/>
-      <c r="H349" s="11"/>
-    </row>
-    <row r="350" spans="1:8">
+      <c r="F349" s="11"/>
+      <c r="G349" s="15"/>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B350" s="5">
         <v>430005</v>
@@ -8044,15 +8004,12 @@
       <c r="E350" s="5">
         <v>474</v>
       </c>
-      <c r="F350" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G350" s="11"/>
-      <c r="H350" s="11"/>
-    </row>
-    <row r="351" spans="1:8">
+      <c r="F350" s="11"/>
+      <c r="G350" s="15"/>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B351" s="5">
         <v>430005</v>
@@ -8066,15 +8023,12 @@
       <c r="E351" s="5">
         <v>344</v>
       </c>
-      <c r="F351" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G351" s="11"/>
-      <c r="H351" s="11"/>
-    </row>
-    <row r="352" spans="1:8">
+      <c r="F351" s="11"/>
+      <c r="G351" s="15"/>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B352" s="5">
         <v>430005</v>
@@ -8088,15 +8042,12 @@
       <c r="E352" s="5">
         <v>428</v>
       </c>
-      <c r="F352" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G352" s="11"/>
-      <c r="H352" s="11"/>
-    </row>
-    <row r="353" spans="1:8">
+      <c r="F352" s="11"/>
+      <c r="G352" s="15"/>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B353" s="5">
         <v>430005</v>
@@ -8110,55 +8061,54 @@
       <c r="E353" s="5">
         <v>363</v>
       </c>
-      <c r="F353" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="G353" s="11"/>
-      <c r="H353" s="11"/>
-    </row>
-    <row r="354" spans="1:8">
+      <c r="F353" s="11"/>
+      <c r="G353" s="15"/>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="B354" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C354" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D354" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E354" s="5">
+        <v>418</v>
+      </c>
+      <c r="F354" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G354" s="15"/>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B354" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C354" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D354" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E354" s="5">
-        <v>416</v>
-      </c>
-      <c r="F354" s="11"/>
-      <c r="G354" s="11"/>
-      <c r="H354" s="11"/>
-    </row>
-    <row r="355" spans="1:8">
-      <c r="A355" s="12" t="s">
+      <c r="B355" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C355" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D355" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E355" s="5">
+        <v>409</v>
+      </c>
+      <c r="F355" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G355" s="15"/>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="12" t="s">
         <v>362</v>
-      </c>
-      <c r="B355" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C355" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D355" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E355" s="5">
-        <v>408</v>
-      </c>
-      <c r="F355" s="11"/>
-      <c r="G355" s="11"/>
-      <c r="H355" s="11"/>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="A356" s="12" t="s">
-        <v>363</v>
       </c>
       <c r="B356" s="5">
         <v>430005</v>
@@ -8173,72 +8123,74 @@
         <v>344</v>
       </c>
       <c r="F356" s="11"/>
-      <c r="G356" s="11"/>
-      <c r="H356" s="11"/>
-    </row>
-    <row r="357" spans="1:8">
+      <c r="G356" s="15"/>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="B357" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C357" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D357" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E357" s="5">
+        <v>337</v>
+      </c>
+      <c r="F357" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G357" s="15"/>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="B357" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C357" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D357" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E357" s="5">
-        <v>335</v>
-      </c>
-      <c r="F357" s="11"/>
-      <c r="G357" s="11"/>
-      <c r="H357" s="11"/>
-    </row>
-    <row r="358" spans="1:8">
-      <c r="A358" s="12" t="s">
+      <c r="B358" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C358" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D358" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E358" s="5">
+        <v>312</v>
+      </c>
+      <c r="F358" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G358" s="15"/>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="B358" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C358" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D358" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E358" s="5">
-        <v>307</v>
-      </c>
-      <c r="F358" s="11"/>
-      <c r="G358" s="11"/>
-      <c r="H358" s="11"/>
-    </row>
-    <row r="359" spans="1:8">
-      <c r="A359" s="12" t="s">
+      <c r="B359" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C359" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D359" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E359" s="5">
+        <v>303</v>
+      </c>
+      <c r="F359" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G359" s="15"/>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="12" t="s">
         <v>366</v>
-      </c>
-      <c r="B359" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C359" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D359" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E359" s="5">
-        <v>301</v>
-      </c>
-      <c r="F359" s="11"/>
-      <c r="G359" s="11"/>
-      <c r="H359" s="11"/>
-    </row>
-    <row r="360" spans="1:8">
-      <c r="A360" s="12" t="s">
-        <v>367</v>
       </c>
       <c r="B360" s="5">
         <v>430005</v>
@@ -8253,12 +8205,11 @@
         <v>299</v>
       </c>
       <c r="F360" s="11"/>
-      <c r="G360" s="11"/>
-      <c r="H360" s="11"/>
-    </row>
-    <row r="361" spans="1:8">
+      <c r="G360" s="15"/>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B361" s="5">
         <v>430005</v>
@@ -8270,15 +8221,16 @@
         <v>96</v>
       </c>
       <c r="E361" s="5">
-        <v>324</v>
-      </c>
-      <c r="F361" s="11"/>
-      <c r="G361" s="11"/>
-      <c r="H361" s="11"/>
-    </row>
-    <row r="362" spans="1:8">
+        <v>327</v>
+      </c>
+      <c r="F361" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G361" s="15"/>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B362" s="5">
         <v>430005</v>
@@ -8293,48 +8245,53 @@
         <v>330</v>
       </c>
       <c r="F362" s="11"/>
-      <c r="G362" s="11"/>
-      <c r="H362" s="11"/>
-    </row>
-    <row r="363" spans="1:8">
+      <c r="G362" s="15"/>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B363" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C363" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D363" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E363" s="5">
+        <v>328</v>
+      </c>
+      <c r="F363" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G363" s="15"/>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="B364" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C364" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D364" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E364" s="5">
+        <v>215</v>
+      </c>
+      <c r="F364" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G364" s="15"/>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="B363" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C363" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D363" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E363" s="5">
-        <v>326</v>
-      </c>
-      <c r="F363" s="11"/>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="B364" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C364" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D364" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E364" s="5">
-        <v>212</v>
-      </c>
-      <c r="F364" s="11"/>
-    </row>
-    <row r="365" spans="1:8">
-      <c r="A365" s="12" t="s">
-        <v>373</v>
       </c>
       <c r="B365" s="5">
         <v>430005</v>
@@ -8349,326 +8306,335 @@
         <v>219</v>
       </c>
       <c r="F365" s="11"/>
-    </row>
-    <row r="366" spans="1:8">
+      <c r="G365" s="15"/>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B366" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D366" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E366" s="22">
+        <v>237</v>
+      </c>
+      <c r="F366" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="G366" s="15"/>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B367" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D367" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E367" s="5">
+        <v>202</v>
+      </c>
+      <c r="F367" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="G367" s="15"/>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B366" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D366" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E366" s="5">
-        <v>229</v>
-      </c>
-      <c r="F366" s="11"/>
-    </row>
-    <row r="367" spans="1:8">
-      <c r="A367" s="12" t="s">
+      <c r="B368" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D368" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E368" s="3">
+        <v>247</v>
+      </c>
+      <c r="F368" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="B367" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C367" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D367" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E367" s="5">
-        <v>197</v>
-      </c>
-      <c r="F367" s="11"/>
-    </row>
-    <row r="368" spans="1:8">
-      <c r="A368" s="12" t="s">
+      <c r="B369" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D369" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E369" s="3">
+        <v>257</v>
+      </c>
+      <c r="F369" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B368" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D368" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E368" s="5">
-        <v>246</v>
-      </c>
-      <c r="F368" s="11"/>
-    </row>
-    <row r="369" spans="1:8">
-      <c r="A369" s="12" t="s">
+      <c r="B370" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D370" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E370" s="3">
+        <v>215</v>
+      </c>
+      <c r="F370" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B369" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C369" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D369" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E369" s="5">
-        <v>256</v>
-      </c>
-      <c r="F369" s="11"/>
-    </row>
-    <row r="370" spans="1:8">
-      <c r="A370" s="12" t="s">
+      <c r="B371" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D371" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E371" s="3">
+        <v>200</v>
+      </c>
+      <c r="F371" s="19" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B370" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C370" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D370" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E370" s="5">
-        <v>214</v>
-      </c>
-      <c r="F370" s="11"/>
-    </row>
-    <row r="371" spans="1:8">
-      <c r="A371" s="12" t="s">
+      <c r="B372" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D372" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E372" s="3">
+        <v>177</v>
+      </c>
+      <c r="F372" s="11"/>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="B371" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C371" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D371" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E371" s="5">
-        <v>199</v>
-      </c>
-      <c r="F371" s="11"/>
-    </row>
-    <row r="372" spans="1:8">
-      <c r="A372" s="12" t="s">
+      <c r="B373" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D373" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E373" s="3">
+        <v>198</v>
+      </c>
+      <c r="F373" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="B372" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C372" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D372" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E372" s="5">
-        <v>177</v>
-      </c>
-      <c r="F372" s="11"/>
-    </row>
-    <row r="373" spans="1:8">
-      <c r="A373" s="12" t="s">
+      <c r="B374" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D374" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E374" s="3">
+        <v>204</v>
+      </c>
+      <c r="F374" s="11" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="B373" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C373" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D373" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E373" s="5">
-        <v>197</v>
-      </c>
-      <c r="F373" s="11"/>
-    </row>
-    <row r="374" spans="1:8">
-      <c r="A374" s="12" t="s">
+      <c r="B375" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D375" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E375" s="3">
+        <v>149</v>
+      </c>
+      <c r="F375" s="11"/>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B374" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C374" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D374" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E374" s="5">
-        <v>202</v>
-      </c>
-      <c r="F374" s="11"/>
-    </row>
-    <row r="375" spans="1:8">
-      <c r="A375" s="12" t="s">
+      <c r="B376" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D376" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E376" s="3">
+        <v>162</v>
+      </c>
+      <c r="F376" s="11"/>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="B375" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C375" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D375" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E375" s="5">
-        <v>149</v>
-      </c>
-      <c r="F375" s="11"/>
-    </row>
-    <row r="376" spans="1:8">
-      <c r="A376" s="12" t="s">
+      <c r="B377" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D377" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E377" s="3">
+        <v>153</v>
+      </c>
+      <c r="F377" s="11"/>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="B376" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C376" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D376" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E376" s="5">
-        <v>162</v>
-      </c>
-      <c r="F376" s="11"/>
-    </row>
-    <row r="377" spans="1:8">
-      <c r="A377" s="12" t="s">
+      <c r="B378" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D378" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E378" s="3">
+        <v>178</v>
+      </c>
+      <c r="F378" s="11"/>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="B377" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C377" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D377" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E377" s="5">
-        <v>153</v>
-      </c>
-      <c r="F377" s="11"/>
-    </row>
-    <row r="378" spans="1:8">
-      <c r="A378" s="12" t="s">
+      <c r="B379" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D379" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E379" s="3">
+        <v>146</v>
+      </c>
+      <c r="F379" s="11"/>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="B378" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C378" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D378" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E378" s="5">
-        <v>178</v>
-      </c>
-      <c r="F378" s="11"/>
-      <c r="G378" s="11"/>
-      <c r="H378" s="11"/>
-    </row>
-    <row r="379" spans="1:8">
-      <c r="A379" s="12" t="s">
+      <c r="B380" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D380" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E380" s="3">
+        <v>119</v>
+      </c>
+      <c r="F380" s="11"/>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="B379" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C379" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D379" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E379" s="5">
-        <v>146</v>
-      </c>
-      <c r="F379" s="11"/>
-      <c r="G379" s="11"/>
-      <c r="H379" s="11"/>
-    </row>
-    <row r="380" spans="1:8">
-      <c r="A380" s="12" t="s">
+      <c r="B381" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D381" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E381" s="3">
+        <v>196</v>
+      </c>
+      <c r="F381" s="11"/>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="B380" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C380" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D380" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E380" s="5">
-        <v>119</v>
-      </c>
-      <c r="F380" s="11"/>
-      <c r="G380" s="11"/>
-      <c r="H380" s="11"/>
-    </row>
-    <row r="381" spans="1:8">
-      <c r="A381" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="B381" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C381" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D381" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E381" s="5">
-        <v>196</v>
-      </c>
-      <c r="F381" s="11"/>
-      <c r="G381" s="11"/>
-      <c r="H381" s="11"/>
-    </row>
-    <row r="382" spans="1:8">
-      <c r="A382" s="12" t="s">
-        <v>390</v>
-      </c>
       <c r="B382" s="5">
         <v>430005</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D382" s="10" t="s">
+      <c r="D382" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E382" s="5">
         <v>144</v>
       </c>
       <c r="F382" s="11"/>
-      <c r="G382" s="11"/>
-      <c r="H382" s="11"/>
-    </row>
-    <row r="383" spans="1:8">
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B383" s="5">
         <v>430005</v>
@@ -8676,19 +8642,17 @@
       <c r="C383" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D383" s="10" t="s">
+      <c r="D383" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E383" s="5">
         <v>173</v>
       </c>
       <c r="F383" s="11"/>
-      <c r="G383" s="11"/>
-      <c r="H383" s="11"/>
-    </row>
-    <row r="384" spans="1:8">
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B384" s="5">
         <v>430005</v>
@@ -8696,19 +8660,17 @@
       <c r="C384" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D384" s="10" t="s">
+      <c r="D384" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E384" s="5">
         <v>163</v>
       </c>
       <c r="F384" s="11"/>
-      <c r="G384" s="11"/>
-      <c r="H384" s="11"/>
-    </row>
-    <row r="385" spans="1:8">
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B385" s="5">
         <v>430005</v>
@@ -8716,19 +8678,17 @@
       <c r="C385" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D385" s="10" t="s">
+      <c r="D385" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E385" s="5">
         <v>115</v>
       </c>
       <c r="F385" s="11"/>
-      <c r="G385" s="11"/>
-      <c r="H385" s="11"/>
-    </row>
-    <row r="386" spans="1:8">
+    </row>
+    <row r="386" spans="1:6">
       <c r="A386" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B386" s="5">
         <v>430005</v>
@@ -8736,19 +8696,17 @@
       <c r="C386" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D386" s="10" t="s">
+      <c r="D386" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E386" s="5">
         <v>170</v>
       </c>
       <c r="F386" s="11"/>
-      <c r="G386" s="11"/>
-      <c r="H386" s="11"/>
-    </row>
-    <row r="387" spans="1:8">
+    </row>
+    <row r="387" spans="1:6">
       <c r="A387" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B387" s="5">
         <v>430005</v>
@@ -8756,19 +8714,17 @@
       <c r="C387" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D387" s="10" t="s">
+      <c r="D387" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E387" s="5">
         <v>166</v>
       </c>
       <c r="F387" s="11"/>
-      <c r="G387" s="11"/>
-      <c r="H387" s="11"/>
-    </row>
-    <row r="388" spans="1:8">
+    </row>
+    <row r="388" spans="1:6">
       <c r="A388" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B388" s="5">
         <v>430005</v>
@@ -8776,115 +8732,372 @@
       <c r="C388" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D388" s="10" t="s">
+      <c r="D388" s="21" t="s">
         <v>96</v>
       </c>
       <c r="E388" s="5">
         <v>177</v>
       </c>
       <c r="F388" s="11"/>
-      <c r="G388" s="11"/>
-      <c r="H388" s="11"/>
-    </row>
-    <row r="389" spans="1:8">
-      <c r="A389" s="11"/>
-      <c r="B389" s="11"/>
-      <c r="C389" s="11"/>
-      <c r="D389" s="11"/>
-      <c r="E389" s="11"/>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B389" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D389" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E389" s="5">
+        <v>144</v>
+      </c>
       <c r="F389" s="11"/>
-      <c r="G389" s="11"/>
-      <c r="H389" s="11"/>
-    </row>
-    <row r="390" spans="1:8">
-      <c r="A390" s="11"/>
-      <c r="B390" s="11"/>
-      <c r="C390" s="11"/>
-      <c r="D390" s="11"/>
-      <c r="E390" s="11"/>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B390" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D390" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E390" s="5">
+        <v>207</v>
+      </c>
       <c r="F390" s="11"/>
-      <c r="G390" s="11"/>
-      <c r="H390" s="11"/>
-    </row>
-    <row r="391" spans="1:8">
-      <c r="A391" s="11"/>
-      <c r="B391" s="11"/>
-      <c r="C391" s="11"/>
-      <c r="D391" s="11"/>
-      <c r="E391" s="11"/>
-      <c r="F391" s="11"/>
-      <c r="G391" s="11"/>
-      <c r="H391" s="11"/>
-    </row>
-    <row r="392" spans="1:8">
-      <c r="A392" s="11"/>
-      <c r="B392" s="11"/>
-      <c r="C392" s="11"/>
-      <c r="D392" s="11"/>
-      <c r="E392" s="11"/>
-      <c r="F392" s="11"/>
-      <c r="G392" s="11"/>
-      <c r="H392" s="11"/>
-    </row>
-    <row r="393" spans="1:8">
-      <c r="A393" s="11"/>
-      <c r="B393" s="11"/>
-      <c r="C393" s="11"/>
-      <c r="D393" s="11"/>
-      <c r="E393" s="11"/>
-      <c r="F393" s="11"/>
-      <c r="G393" s="11"/>
-      <c r="H393" s="11"/>
-    </row>
-    <row r="394" spans="1:8">
-      <c r="A394" s="11"/>
-      <c r="B394" s="11"/>
-      <c r="C394" s="11"/>
-      <c r="D394" s="11"/>
-      <c r="E394" s="11"/>
-      <c r="F394" s="11"/>
-      <c r="G394" s="11"/>
-      <c r="H394" s="11"/>
-    </row>
-    <row r="395" spans="1:8">
-      <c r="A395" s="11"/>
-      <c r="B395" s="11"/>
-      <c r="C395" s="11"/>
-      <c r="D395" s="11"/>
-      <c r="E395" s="11"/>
-      <c r="F395" s="11"/>
-      <c r="G395" s="11"/>
-      <c r="H395" s="11"/>
-    </row>
-    <row r="396" spans="1:8">
-      <c r="A396" s="11"/>
-      <c r="B396" s="11"/>
-      <c r="C396" s="11"/>
-      <c r="D396" s="11"/>
-      <c r="E396" s="11"/>
-      <c r="F396" s="11"/>
-      <c r="G396" s="11"/>
-      <c r="H396" s="11"/>
-    </row>
-    <row r="397" spans="1:8">
-      <c r="A397" s="11"/>
-      <c r="B397" s="11"/>
-      <c r="C397" s="11"/>
-      <c r="D397" s="11"/>
-      <c r="E397" s="11"/>
-      <c r="F397" s="11"/>
-      <c r="G397" s="11"/>
-      <c r="H397" s="11"/>
-    </row>
-    <row r="398" spans="1:8">
-      <c r="A398" s="11"/>
-      <c r="B398" s="11"/>
-      <c r="C398" s="11"/>
-      <c r="D398" s="11"/>
-      <c r="E398" s="11"/>
-      <c r="F398" s="11"/>
-      <c r="G398" s="11"/>
-      <c r="H398" s="11"/>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B391" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D391" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E391" s="5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="B392" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D392" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E392" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B393" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D393" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E393" s="5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B394" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D394" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E394" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B395" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D395" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E395" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B396" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D396" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E396" s="5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B397" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D397" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E397" s="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B398" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D398" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E398" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B399" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D399" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E399" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B400" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D400" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E400" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="B401" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D401" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E401" s="5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B402" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D402" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E402" s="5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B403" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D403" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E403" s="5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="B404" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D404" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E404" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B405" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D405" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E405" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="B406" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D406" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E406" s="5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B407" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D407" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E407" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="B408" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D408" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E408" s="5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B409" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D409" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E409" s="5">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8892,7 +9105,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C帰国者・接触者相談センター相談件数</oddHeader>
   </headerFooter>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="10575" windowHeight="6315"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$409</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$423</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="432">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1398,6 +1398,48 @@
   <si>
     <t>2020-12-13</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-16</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>2021-03-18</t>
+  </si>
+  <si>
+    <t>2021-03-19</t>
+  </si>
+  <si>
+    <t>2021-03-20</t>
+  </si>
+  <si>
+    <t>2021-03-21</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-23</t>
+  </si>
+  <si>
+    <t>2021-03-24</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021-03-27</t>
+  </si>
+  <si>
+    <t>2021-03-28</t>
   </si>
 </sst>
 </file>
@@ -1894,11 +1936,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G409"/>
+  <dimension ref="A1:G423"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E327" sqref="E327"/>
+      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B413" sqref="B413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9099,15 +9141,256 @@
         <v>94</v>
       </c>
     </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B410" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D410" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E410" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B411" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D411" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E411" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B412" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D412" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E412" s="5">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B413" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D413" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E413" s="5">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B414" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D414" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E414" s="5">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B415" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D415" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E415" s="5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B416" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D416" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E416" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B417" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D417" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E417" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B418" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D418" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E418" s="5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B419" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D419" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E419" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B420" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D420" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E420" s="5">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B421" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D421" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E421" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B422" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D422" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E422" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B423" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D423" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E423" s="5">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C帰国者・接触者相談センター相談件数</oddHeader>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="377" max="6" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -10,7 +10,7 @@
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$423</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$444</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="453">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1440,6 +1440,70 @@
   </si>
   <si>
     <t>2021-03-28</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>2021-04-03</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-06</t>
+  </si>
+  <si>
+    <t>2021-04-07</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021-04-09</t>
+  </si>
+  <si>
+    <t>2021-04-10</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-14</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-16</t>
+  </si>
+  <si>
+    <t>2021-04-17</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
   </si>
 </sst>
 </file>
@@ -1502,7 +1566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1597,11 +1661,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1647,6 +1722,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1936,11 +2015,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G423"/>
+  <dimension ref="A1:G444"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B413" sqref="B413"/>
+      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E447" sqref="E447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9260,7 +9339,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:7">
       <c r="A417" s="12" t="s">
         <v>425</v>
       </c>
@@ -9277,7 +9356,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:7">
       <c r="A418" s="12" t="s">
         <v>426</v>
       </c>
@@ -9294,7 +9373,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:7">
       <c r="A419" s="12" t="s">
         <v>427</v>
       </c>
@@ -9311,7 +9390,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:7">
       <c r="A420" s="12" t="s">
         <v>428</v>
       </c>
@@ -9328,7 +9407,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:7">
       <c r="A421" s="12" t="s">
         <v>429</v>
       </c>
@@ -9345,24 +9424,24 @@
         <v>133</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
-      <c r="A422" s="12" t="s">
+    <row r="422" spans="1:7">
+      <c r="A422" s="26" t="s">
         <v>430</v>
       </c>
-      <c r="B422" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C422" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D422" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="E422" s="5">
+      <c r="B422" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C422" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D422" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="E422" s="22">
         <v>120</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:7">
       <c r="A423" s="12" t="s">
         <v>431</v>
       </c>
@@ -9372,12 +9451,413 @@
       <c r="C423" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D423" s="21" t="s">
+      <c r="D423" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E423" s="5">
         <v>126</v>
       </c>
+      <c r="F423" s="15"/>
+      <c r="G423" s="15"/>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B424" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D424" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E424" s="3">
+        <v>127</v>
+      </c>
+      <c r="F424" s="15"/>
+      <c r="G424" s="15"/>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B425" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D425" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E425" s="3">
+        <v>139</v>
+      </c>
+      <c r="F425" s="15"/>
+      <c r="G425" s="15"/>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B426" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D426" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E426" s="3">
+        <v>147</v>
+      </c>
+      <c r="F426" s="15"/>
+      <c r="G426" s="15"/>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B427" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D427" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E427" s="3">
+        <v>119</v>
+      </c>
+      <c r="F427" s="15"/>
+      <c r="G427" s="15"/>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B428" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D428" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E428" s="3">
+        <v>136</v>
+      </c>
+      <c r="F428" s="15"/>
+      <c r="G428" s="15"/>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B429" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D429" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E429" s="3">
+        <v>171</v>
+      </c>
+      <c r="F429" s="15"/>
+      <c r="G429" s="15"/>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B430" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D430" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E430" s="3">
+        <v>162</v>
+      </c>
+      <c r="F430" s="15"/>
+      <c r="G430" s="15"/>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B431" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D431" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E431" s="3">
+        <v>96</v>
+      </c>
+      <c r="F431" s="15"/>
+      <c r="G431" s="15"/>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B432" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D432" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E432" s="3">
+        <v>120</v>
+      </c>
+      <c r="F432" s="15"/>
+      <c r="G432" s="15"/>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B433" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D433" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E433" s="3">
+        <v>123</v>
+      </c>
+      <c r="F433" s="15"/>
+      <c r="G433" s="15"/>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B434" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D434" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E434" s="3">
+        <v>103</v>
+      </c>
+      <c r="F434" s="15"/>
+      <c r="G434" s="15"/>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B435" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D435" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E435" s="3">
+        <v>108</v>
+      </c>
+      <c r="F435" s="15"/>
+      <c r="G435" s="15"/>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B436" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D436" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E436" s="3">
+        <v>129</v>
+      </c>
+      <c r="F436" s="15"/>
+      <c r="G436" s="15"/>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B437" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D437" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E437" s="3">
+        <v>179</v>
+      </c>
+      <c r="F437" s="15"/>
+      <c r="G437" s="15"/>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B438" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D438" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E438" s="3">
+        <v>124</v>
+      </c>
+      <c r="F438" s="15"/>
+      <c r="G438" s="15"/>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B439" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D439" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E439" s="3">
+        <v>155</v>
+      </c>
+      <c r="F439" s="15"/>
+      <c r="G439" s="15"/>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B440" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D440" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E440" s="3">
+        <v>191</v>
+      </c>
+      <c r="F440" s="15"/>
+      <c r="G440" s="15"/>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B441" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D441" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E441" s="3">
+        <v>126</v>
+      </c>
+      <c r="F441" s="15"/>
+      <c r="G441" s="15"/>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B442" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C442" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D442" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E442" s="3">
+        <v>187</v>
+      </c>
+      <c r="F442" s="15"/>
+      <c r="G442" s="15"/>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B443" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C443" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D443" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E443" s="3">
+        <v>234</v>
+      </c>
+      <c r="F443" s="15"/>
+      <c r="G443" s="15"/>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B444" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D444" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E444" s="3">
+        <v>207</v>
+      </c>
+      <c r="F444" s="15"/>
+      <c r="G444" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -10,7 +10,7 @@
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$444</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$451</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="460">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1504,6 +1504,27 @@
   </si>
   <si>
     <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-21</t>
+  </si>
+  <si>
+    <t>2021-04-22</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-24</t>
+  </si>
+  <si>
+    <t>2021-04-25</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1714,6 +1735,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1723,10 +1748,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2015,11 +2040,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G444"/>
+  <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E447" sqref="E447"/>
+      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E452" sqref="E452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2062,7 +2087,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2079,7 +2104,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -2094,7 +2119,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -9425,7 +9450,7 @@
       </c>
     </row>
     <row r="422" spans="1:7">
-      <c r="A422" s="26" t="s">
+      <c r="A422" s="23" t="s">
         <v>430</v>
       </c>
       <c r="B422" s="22">
@@ -9434,7 +9459,7 @@
       <c r="C422" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D422" s="27" t="s">
+      <c r="D422" s="24" t="s">
         <v>96</v>
       </c>
       <c r="E422" s="22">
@@ -9784,19 +9809,19 @@
       <c r="G440" s="15"/>
     </row>
     <row r="441" spans="1:7">
-      <c r="A441" s="12" t="s">
+      <c r="A441" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="B441" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C441" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D441" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E441" s="3">
+      <c r="B441" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C441" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D441" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E441" s="29">
         <v>126</v>
       </c>
       <c r="F441" s="15"/>
@@ -9858,6 +9883,125 @@
       </c>
       <c r="F444" s="15"/>
       <c r="G444" s="15"/>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B445" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C445" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D445" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E445" s="3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B446" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C446" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D446" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E446" s="3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B447" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C447" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D447" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E447" s="3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B448" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C448" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D448" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E448" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
+      <c r="A449" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B449" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C449" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D449" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E449" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B450" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D450" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E450" s="3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
+      <c r="A451" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B451" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D451" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E451" s="3">
+        <v>358</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$451</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$465</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="474">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1525,6 +1525,49 @@
   </si>
   <si>
     <t>2021-04-25</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-05-02</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-05-05</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-05-07</t>
+  </si>
+  <si>
+    <t>2021-05-08</t>
+  </si>
+  <si>
+    <t>2021-05-09</t>
   </si>
 </sst>
 </file>
@@ -1739,6 +1782,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1748,10 +1795,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2040,11 +2083,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G451"/>
+  <dimension ref="A1:G465"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E452" sqref="E452"/>
+      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E466" sqref="E466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2087,7 +2130,7 @@
       <c r="D2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="27" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2104,7 +2147,7 @@
       <c r="D3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
@@ -2119,7 +2162,7 @@
       <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
@@ -9818,10 +9861,10 @@
       <c r="C441" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="D441" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E441" s="29">
+      <c r="D441" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E441" s="26">
         <v>126</v>
       </c>
       <c r="F441" s="15"/>
@@ -10001,6 +10044,244 @@
       </c>
       <c r="E451" s="3">
         <v>358</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B452" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C452" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D452" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E452" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B453" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C453" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D453" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E453" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
+      <c r="A454" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B454" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C454" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D454" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E454" s="3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="B455" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C455" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D455" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E455" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B456" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C456" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D456" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E456" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B457" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C457" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D457" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E457" s="3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B458" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C458" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D458" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E458" s="3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B459" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C459" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D459" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E459" s="3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B460" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D460" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E460" s="3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B461" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C461" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D461" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E461" s="3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B462" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C462" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D462" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E462" s="3">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B463" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D463" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E463" s="3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B464" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C464" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D464" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E464" s="3">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
+      <c r="A465" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B465" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C465" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D465" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E465" s="3">
+        <v>630</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4560"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$465</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$472</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="481">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1568,6 +1568,27 @@
   </si>
   <si>
     <t>2021-05-09</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-12</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021-05-14</t>
+  </si>
+  <si>
+    <t>2021-05-15</t>
+  </si>
+  <si>
+    <t>2021-05-16</t>
   </si>
 </sst>
 </file>
@@ -2083,11 +2104,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G465"/>
+  <dimension ref="A1:G472"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A453" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E466" sqref="E466"/>
+      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E473" sqref="E473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10284,6 +10305,125 @@
         <v>630</v>
       </c>
     </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B466" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C466" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D466" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E466" s="3">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B467" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D467" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E467" s="3">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B468" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C468" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D468" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E468" s="3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B469" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C469" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D469" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E469" s="3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B470" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C470" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D470" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E470" s="3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B471" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C471" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D471" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E471" s="3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B472" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C472" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D472" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E472" s="3">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -10,7 +10,7 @@
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$472</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$479</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="488">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1589,6 +1589,27 @@
   </si>
   <si>
     <t>2021-05-16</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021-05-19</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-05-22</t>
+  </si>
+  <si>
+    <t>2021-05-23</t>
   </si>
 </sst>
 </file>
@@ -2104,11 +2125,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G472"/>
+  <dimension ref="A1:G479"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E473" sqref="E473"/>
+      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E480" sqref="E480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10424,6 +10445,125 @@
         <v>478</v>
       </c>
     </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B473" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D473" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E473" s="3">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B474" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C474" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D474" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E474" s="3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5">
+      <c r="A475" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="B475" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D475" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E475" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
+      <c r="A476" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="B476" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C476" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D476" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E476" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B477" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C477" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D477" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E477" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
+      <c r="A478" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="B478" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C478" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D478" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E478" s="3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="B479" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C479" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D479" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E479" s="3">
+        <v>302</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -10,7 +10,7 @@
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$479</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$493</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="502">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1610,6 +1610,49 @@
   </si>
   <si>
     <t>2021-05-23</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021-05-28</t>
+  </si>
+  <si>
+    <t>2021-05-29</t>
+  </si>
+  <si>
+    <t>2021-05-30</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-06-05</t>
+  </si>
+  <si>
+    <t>2021-06-06</t>
   </si>
 </sst>
 </file>
@@ -2125,11 +2168,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G479"/>
+  <dimension ref="A1:G493"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A468" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E480" sqref="E480"/>
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B498" sqref="B498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10548,20 +10591,258 @@
       </c>
     </row>
     <row r="479" spans="1:5">
-      <c r="A479" s="12" t="s">
+      <c r="A479" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="B479" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C479" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D479" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E479" s="3">
+      <c r="B479" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C479" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D479" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E479" s="26">
         <v>302</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="23" t="s">
+        <v>488</v>
+      </c>
+      <c r="B480" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C480" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D480" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E480" s="3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
+      <c r="A481" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B481" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C481" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D481" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E481" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="23" t="s">
+        <v>490</v>
+      </c>
+      <c r="B482" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C482" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D482" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E482" s="3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
+      <c r="A483" s="23" t="s">
+        <v>491</v>
+      </c>
+      <c r="B483" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C483" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D483" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E483" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="B484" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C484" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D484" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E484" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="B485" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C485" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D485" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E485" s="3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="23" t="s">
+        <v>494</v>
+      </c>
+      <c r="B486" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C486" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D486" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E486" s="26">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B487" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C487" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D487" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E487" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="B488" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C488" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D488" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E488" s="3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="B489" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C489" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D489" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E489" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5">
+      <c r="A490" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B490" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C490" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D490" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E490" s="3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B491" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C491" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D491" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E491" s="3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5">
+      <c r="A492" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B492" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C492" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D492" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E492" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5">
+      <c r="A493" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B493" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C493" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D493" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E493" s="3">
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5910"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$493</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$500</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="509">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1653,6 +1653,27 @@
   </si>
   <si>
     <t>2021-06-06</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-06-12</t>
+  </si>
+  <si>
+    <t>2021-06-13</t>
   </si>
 </sst>
 </file>
@@ -2168,11 +2189,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G493"/>
+  <dimension ref="A1:G500"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B498" sqref="B498"/>
+      <selection pane="bottomLeft" activeCell="E501" sqref="E501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10829,7 +10850,7 @@
       </c>
     </row>
     <row r="493" spans="1:5">
-      <c r="A493" s="12" t="s">
+      <c r="A493" s="23" t="s">
         <v>501</v>
       </c>
       <c r="B493" s="22">
@@ -10841,8 +10862,127 @@
       <c r="D493" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E493" s="3">
+      <c r="E493" s="26">
         <v>173</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B494" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C494" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D494" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E494" s="3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5">
+      <c r="A495" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B495" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C495" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D495" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E495" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B496" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C496" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D496" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E496" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
+      <c r="A497" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="B497" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C497" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D497" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E497" s="3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B498" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C498" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D498" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E498" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B499" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C499" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D499" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E499" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B500" s="22">
+        <v>430005</v>
+      </c>
+      <c r="C500" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D500" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E500" s="3">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="15360" windowHeight="5910"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$500</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$507</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="516">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1674,6 +1674,27 @@
   </si>
   <si>
     <t>2021-06-13</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-06-19</t>
+  </si>
+  <si>
+    <t>2021-06-20</t>
   </si>
 </sst>
 </file>
@@ -2189,11 +2210,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G500"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E501" sqref="E501"/>
+      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E508" sqref="E508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10972,17 +10993,136 @@
       <c r="A500" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="B500" s="22">
-        <v>430005</v>
-      </c>
-      <c r="C500" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D500" s="25" t="s">
+      <c r="B500" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C500" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D500" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E500" s="3">
         <v>140</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B501" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C501" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D501" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E501" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B502" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C502" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D502" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E502" s="3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5">
+      <c r="A503" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B503" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C503" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D503" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E503" s="3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B504" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C504" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D504" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E504" s="3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B505" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D505" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E505" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5">
+      <c r="A506" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B506" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C506" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D506" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E506" s="3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5">
+      <c r="A507" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B507" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C507" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D507" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E507" s="3">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/soudan.xlsx
+++ b/soudan.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="帰国者・接触者相談センター相談件数" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$507</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">帰国者・接触者相談センター相談件数!$A$318:$G$514</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">帰国者・接触者相談センター相談件数!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="523">
   <si>
     <t>受付_年月日</t>
   </si>
@@ -1695,6 +1695,27 @@
   </si>
   <si>
     <t>2021-06-20</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-22</t>
+  </si>
+  <si>
+    <t>2021-06-23</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>2021-06-25</t>
+  </si>
+  <si>
+    <t>2021-06-26</t>
+  </si>
+  <si>
+    <t>2021-06-27</t>
   </si>
 </sst>
 </file>
@@ -2210,11 +2231,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G507"/>
+  <dimension ref="A1:G514"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A495" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E508" sqref="E508"/>
+      <pane ySplit="1" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G512" sqref="G512"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -11125,6 +11146,125 @@
         <v>131</v>
       </c>
     </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="B508" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C508" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D508" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E508" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
+      <c r="A509" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B509" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C509" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D509" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E509" s="5">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B510" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C510" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D510" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E510" s="5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
+      <c r="A511" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="B511" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C511" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D511" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E511" s="5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B512" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C512" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D512" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E512" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="B513" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C513" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D513" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E513" s="5">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B514" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C514" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D514" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E514" s="5">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E2:E4"/>
